--- a/art_cats/sample.xlsx
+++ b/art_cats/sample.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
   <si>
     <t>Sublibrary</t>
   </si>
@@ -118,6 +118,9 @@
     <t>including fine snuff bottles from the collection of the late E. Lucille Parker, Erie, Pennsylvania (part II); Chinese paintings by Wên Chêng-ming, Tao Chi, Wang Yuan-ch'i, Wang Hui, Ch'i Pai-shih, Chang Ta-ch'ien, Hsü Pei-hung and other artists; jade carvings: a fine white jade rustic brush washer, 18th century; archaic bronzes: an important bronze fang yi, Shang dynasty; a well-cast bronze wine vessel (tsun), Shang dynasty; a rare bronze chariot shaft fitting, Western Chou dynasty; T'ang gilt bronze : a rare gilt bronze stemcup, T'ang dynasty;  sculpture:  a large black marble lion, T'ang dynasty; a large stone figure of a lady, T'ang dynasty; a large stone figure of a mourner, T'ang dynasty; early pottery figures: a large painted gray pottery equestrian, Wei dynasty; a printed gray pottery horse, Han dynasty;  Liao pottery: a fine pair of green glazed pottery flasks, Liao dynasty; various Sung and later pottery and porcelain; property from the estates of Mr. Robert Dinolt, Putnam, Connecticut; Greta S. Heckett, Pittsburgh, Pa.; Frank V. Gill, New York, New York; John H. Wilkins, Chevy Chase, Md.; Martha E. Dick, Reading, Pa. and other owners</t>
   </si>
   <si>
+    <t>4001</t>
+  </si>
+  <si>
     <t>19770601, 19770602</t>
   </si>
   <si>
@@ -134,6 +137,9 @@
   </si>
   <si>
     <t>88</t>
+  </si>
+  <si>
+    <t>4002</t>
   </si>
   <si>
     <t>19770603</t>
@@ -367,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -439,6 +445,9 @@
     </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,18 +795,18 @@
       <c r="S2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="6">
-        <v>4001.0</v>
+      <c r="T2" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W2" s="7"/>
       <c r="X2" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
@@ -812,11 +821,11 @@
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -839,22 +848,22 @@
         <v>31</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R3" s="14" t="s">
         <v>33</v>
       </c>
       <c r="S3" s="12"/>
-      <c r="T3" s="12">
-        <v>4002.0</v>
+      <c r="T3" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="U3" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V3" s="12"/>
       <c r="W3" s="12"/>
       <c r="X3" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
@@ -865,57 +874,57 @@
         <v>24</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O4" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P4" s="18"/>
       <c r="Q4" s="20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R4" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
+      <c r="T4" s="19"/>
       <c r="U4" s="19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V4" s="18"/>
       <c r="W4" s="18"/>
       <c r="X4" s="21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
@@ -926,52 +935,52 @@
         <v>24</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
       <c r="L5" s="19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O5" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P5" s="18"/>
       <c r="Q5" s="20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="R5" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="S5" s="18"/>
       <c r="T5" s="19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="U5" s="19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
       <c r="X5" s="21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
@@ -997,7 +1006,7 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
+      <c r="T6" s="13"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
@@ -1025,7 +1034,7 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
+      <c r="T7" s="13"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
@@ -1054,7 +1063,7 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
+      <c r="T8" s="13"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
@@ -1083,7 +1092,7 @@
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
+      <c r="T9" s="13"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
@@ -1112,7 +1121,7 @@
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
+      <c r="T10" s="13"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
@@ -1141,7 +1150,7 @@
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
+      <c r="T11" s="13"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
@@ -1170,7 +1179,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
+      <c r="T12" s="13"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
@@ -1199,7 +1208,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
+      <c r="T13" s="13"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
@@ -1228,7 +1237,7 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
+      <c r="T14" s="13"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
@@ -1257,7 +1266,7 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
       <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
+      <c r="T15" s="13"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
@@ -1286,7 +1295,7 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
+      <c r="T16" s="13"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
@@ -1315,7 +1324,7 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
+      <c r="T17" s="13"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
@@ -1344,7 +1353,7 @@
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
       <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
+      <c r="T18" s="13"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
@@ -1373,7 +1382,7 @@
       <c r="Q19" s="12"/>
       <c r="R19" s="12"/>
       <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
+      <c r="T19" s="13"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
@@ -1402,7 +1411,7 @@
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
+      <c r="T20" s="13"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
@@ -1431,7 +1440,7 @@
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
+      <c r="T21" s="13"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
@@ -1460,7 +1469,7 @@
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
+      <c r="T22" s="13"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
@@ -1489,7 +1498,7 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
+      <c r="T23" s="24"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
@@ -1518,7 +1527,7 @@
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
+      <c r="T24" s="24"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
@@ -1547,7 +1556,7 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
+      <c r="T25" s="24"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
@@ -1576,7 +1585,7 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
+      <c r="T26" s="24"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
@@ -1605,7 +1614,7 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
+      <c r="T27" s="24"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
@@ -1634,7 +1643,7 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
+      <c r="T28" s="24"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
@@ -1663,7 +1672,7 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
+      <c r="T29" s="24"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
@@ -1692,7 +1701,7 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
+      <c r="T30" s="24"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
@@ -1721,7 +1730,7 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
+      <c r="T31" s="24"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
@@ -1750,7 +1759,7 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
+      <c r="T32" s="24"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
@@ -1779,7 +1788,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
+      <c r="T33" s="24"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
@@ -1808,7 +1817,7 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
+      <c r="T34" s="24"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
@@ -1837,7 +1846,7 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
+      <c r="T35" s="24"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
@@ -1866,7 +1875,7 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
+      <c r="T36" s="24"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
@@ -1895,7 +1904,7 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
+      <c r="T37" s="24"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
@@ -1924,7 +1933,7 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
+      <c r="T38" s="24"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
@@ -1953,7 +1962,7 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
+      <c r="T39" s="24"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
@@ -1982,7 +1991,7 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
+      <c r="T40" s="24"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
@@ -2011,7 +2020,7 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
+      <c r="T41" s="24"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
@@ -2040,7 +2049,7 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
+      <c r="T42" s="24"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
@@ -2069,7 +2078,7 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
+      <c r="T43" s="24"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
@@ -2098,7 +2107,7 @@
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
+      <c r="T44" s="24"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
@@ -2127,7 +2136,7 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
+      <c r="T45" s="24"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
@@ -2156,7 +2165,7 @@
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
+      <c r="T46" s="24"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
@@ -2185,7 +2194,7 @@
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
+      <c r="T47" s="24"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
@@ -2214,7 +2223,7 @@
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
+      <c r="T48" s="24"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
@@ -2243,7 +2252,7 @@
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
+      <c r="T49" s="24"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
@@ -2272,7 +2281,7 @@
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
+      <c r="T50" s="24"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
@@ -2301,7 +2310,7 @@
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
+      <c r="T51" s="24"/>
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
@@ -2330,7 +2339,7 @@
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
+      <c r="T52" s="24"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
@@ -2359,7 +2368,7 @@
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
+      <c r="T53" s="24"/>
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
@@ -2388,7 +2397,7 @@
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
+      <c r="T54" s="24"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
@@ -2417,7 +2426,7 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
+      <c r="T55" s="24"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
@@ -2446,7 +2455,7 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
+      <c r="T56" s="24"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
@@ -2475,7 +2484,7 @@
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
+      <c r="T57" s="24"/>
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
@@ -2504,7 +2513,7 @@
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
+      <c r="T58" s="24"/>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
@@ -2533,7 +2542,7 @@
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
       <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
+      <c r="T59" s="24"/>
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
@@ -2562,7 +2571,7 @@
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
       <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
+      <c r="T60" s="24"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
@@ -2591,7 +2600,7 @@
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
       <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
+      <c r="T61" s="24"/>
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
@@ -2620,7 +2629,7 @@
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
       <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
+      <c r="T62" s="24"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
@@ -2649,7 +2658,7 @@
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
+      <c r="T63" s="24"/>
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
@@ -2678,7 +2687,7 @@
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
       <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
+      <c r="T64" s="24"/>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
@@ -2707,7 +2716,7 @@
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
       <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
+      <c r="T65" s="24"/>
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
@@ -2736,7 +2745,7 @@
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
       <c r="S66" s="3"/>
-      <c r="T66" s="3"/>
+      <c r="T66" s="24"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
@@ -2765,7 +2774,7 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
+      <c r="T67" s="24"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
@@ -2794,7 +2803,7 @@
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
       <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
+      <c r="T68" s="24"/>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
@@ -2823,7 +2832,7 @@
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
       <c r="S69" s="3"/>
-      <c r="T69" s="3"/>
+      <c r="T69" s="24"/>
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
@@ -2852,7 +2861,7 @@
       <c r="Q70" s="3"/>
       <c r="R70" s="3"/>
       <c r="S70" s="3"/>
-      <c r="T70" s="3"/>
+      <c r="T70" s="24"/>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
@@ -2881,7 +2890,7 @@
       <c r="Q71" s="3"/>
       <c r="R71" s="3"/>
       <c r="S71" s="3"/>
-      <c r="T71" s="3"/>
+      <c r="T71" s="24"/>
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
@@ -2910,7 +2919,7 @@
       <c r="Q72" s="3"/>
       <c r="R72" s="3"/>
       <c r="S72" s="3"/>
-      <c r="T72" s="3"/>
+      <c r="T72" s="24"/>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
@@ -2939,7 +2948,7 @@
       <c r="Q73" s="3"/>
       <c r="R73" s="3"/>
       <c r="S73" s="3"/>
-      <c r="T73" s="3"/>
+      <c r="T73" s="24"/>
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
@@ -2968,7 +2977,7 @@
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>
       <c r="S74" s="3"/>
-      <c r="T74" s="3"/>
+      <c r="T74" s="24"/>
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
@@ -2997,7 +3006,7 @@
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
       <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
+      <c r="T75" s="24"/>
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
@@ -3026,7 +3035,7 @@
       <c r="Q76" s="3"/>
       <c r="R76" s="3"/>
       <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
+      <c r="T76" s="24"/>
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>
@@ -3055,7 +3064,7 @@
       <c r="Q77" s="3"/>
       <c r="R77" s="3"/>
       <c r="S77" s="3"/>
-      <c r="T77" s="3"/>
+      <c r="T77" s="24"/>
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
@@ -3084,7 +3093,7 @@
       <c r="Q78" s="3"/>
       <c r="R78" s="3"/>
       <c r="S78" s="3"/>
-      <c r="T78" s="3"/>
+      <c r="T78" s="24"/>
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
@@ -3113,7 +3122,7 @@
       <c r="Q79" s="3"/>
       <c r="R79" s="3"/>
       <c r="S79" s="3"/>
-      <c r="T79" s="3"/>
+      <c r="T79" s="24"/>
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
       <c r="W79" s="3"/>
@@ -3142,7 +3151,7 @@
       <c r="Q80" s="3"/>
       <c r="R80" s="3"/>
       <c r="S80" s="3"/>
-      <c r="T80" s="3"/>
+      <c r="T80" s="24"/>
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
@@ -3171,7 +3180,7 @@
       <c r="Q81" s="3"/>
       <c r="R81" s="3"/>
       <c r="S81" s="3"/>
-      <c r="T81" s="3"/>
+      <c r="T81" s="24"/>
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>
@@ -3200,7 +3209,7 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-      <c r="T82" s="3"/>
+      <c r="T82" s="24"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
@@ -3229,7 +3238,7 @@
       <c r="Q83" s="3"/>
       <c r="R83" s="3"/>
       <c r="S83" s="3"/>
-      <c r="T83" s="3"/>
+      <c r="T83" s="24"/>
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
       <c r="W83" s="3"/>
@@ -3258,7 +3267,7 @@
       <c r="Q84" s="3"/>
       <c r="R84" s="3"/>
       <c r="S84" s="3"/>
-      <c r="T84" s="3"/>
+      <c r="T84" s="24"/>
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
       <c r="W84" s="3"/>
@@ -3287,7 +3296,7 @@
       <c r="Q85" s="3"/>
       <c r="R85" s="3"/>
       <c r="S85" s="3"/>
-      <c r="T85" s="3"/>
+      <c r="T85" s="24"/>
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
       <c r="W85" s="3"/>
@@ -3316,7 +3325,7 @@
       <c r="Q86" s="3"/>
       <c r="R86" s="3"/>
       <c r="S86" s="3"/>
-      <c r="T86" s="3"/>
+      <c r="T86" s="24"/>
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
       <c r="W86" s="3"/>
@@ -3345,7 +3354,7 @@
       <c r="Q87" s="3"/>
       <c r="R87" s="3"/>
       <c r="S87" s="3"/>
-      <c r="T87" s="3"/>
+      <c r="T87" s="24"/>
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
       <c r="W87" s="3"/>
@@ -3374,7 +3383,7 @@
       <c r="Q88" s="3"/>
       <c r="R88" s="3"/>
       <c r="S88" s="3"/>
-      <c r="T88" s="3"/>
+      <c r="T88" s="24"/>
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
       <c r="W88" s="3"/>
@@ -3403,7 +3412,7 @@
       <c r="Q89" s="3"/>
       <c r="R89" s="3"/>
       <c r="S89" s="3"/>
-      <c r="T89" s="3"/>
+      <c r="T89" s="24"/>
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
       <c r="W89" s="3"/>
@@ -3432,7 +3441,7 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-      <c r="T90" s="3"/>
+      <c r="T90" s="24"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
@@ -3461,7 +3470,7 @@
       <c r="Q91" s="3"/>
       <c r="R91" s="3"/>
       <c r="S91" s="3"/>
-      <c r="T91" s="3"/>
+      <c r="T91" s="24"/>
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
       <c r="W91" s="3"/>
@@ -3490,7 +3499,7 @@
       <c r="Q92" s="3"/>
       <c r="R92" s="3"/>
       <c r="S92" s="3"/>
-      <c r="T92" s="3"/>
+      <c r="T92" s="24"/>
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
       <c r="W92" s="3"/>
@@ -3519,7 +3528,7 @@
       <c r="Q93" s="3"/>
       <c r="R93" s="3"/>
       <c r="S93" s="3"/>
-      <c r="T93" s="3"/>
+      <c r="T93" s="24"/>
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
       <c r="W93" s="3"/>
@@ -3548,7 +3557,7 @@
       <c r="Q94" s="3"/>
       <c r="R94" s="3"/>
       <c r="S94" s="3"/>
-      <c r="T94" s="3"/>
+      <c r="T94" s="24"/>
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
       <c r="W94" s="3"/>
@@ -3577,7 +3586,7 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-      <c r="T95" s="3"/>
+      <c r="T95" s="24"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
@@ -3606,7 +3615,7 @@
       <c r="Q96" s="3"/>
       <c r="R96" s="3"/>
       <c r="S96" s="3"/>
-      <c r="T96" s="3"/>
+      <c r="T96" s="24"/>
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
       <c r="W96" s="3"/>
@@ -3635,7 +3644,7 @@
       <c r="Q97" s="3"/>
       <c r="R97" s="3"/>
       <c r="S97" s="3"/>
-      <c r="T97" s="3"/>
+      <c r="T97" s="24"/>
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
       <c r="W97" s="3"/>
@@ -3664,7 +3673,7 @@
       <c r="Q98" s="3"/>
       <c r="R98" s="3"/>
       <c r="S98" s="3"/>
-      <c r="T98" s="3"/>
+      <c r="T98" s="24"/>
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
       <c r="W98" s="3"/>
@@ -3693,7 +3702,7 @@
       <c r="Q99" s="3"/>
       <c r="R99" s="3"/>
       <c r="S99" s="3"/>
-      <c r="T99" s="3"/>
+      <c r="T99" s="24"/>
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
       <c r="W99" s="3"/>
@@ -3722,7 +3731,7 @@
       <c r="Q100" s="3"/>
       <c r="R100" s="3"/>
       <c r="S100" s="3"/>
-      <c r="T100" s="3"/>
+      <c r="T100" s="24"/>
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
       <c r="W100" s="3"/>
@@ -3751,7 +3760,7 @@
       <c r="Q101" s="3"/>
       <c r="R101" s="3"/>
       <c r="S101" s="3"/>
-      <c r="T101" s="3"/>
+      <c r="T101" s="24"/>
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
       <c r="W101" s="3"/>
@@ -3780,7 +3789,7 @@
       <c r="Q102" s="3"/>
       <c r="R102" s="3"/>
       <c r="S102" s="3"/>
-      <c r="T102" s="3"/>
+      <c r="T102" s="24"/>
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
       <c r="W102" s="3"/>
@@ -3809,7 +3818,7 @@
       <c r="Q103" s="3"/>
       <c r="R103" s="3"/>
       <c r="S103" s="3"/>
-      <c r="T103" s="3"/>
+      <c r="T103" s="24"/>
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
       <c r="W103" s="3"/>
@@ -3838,7 +3847,7 @@
       <c r="Q104" s="3"/>
       <c r="R104" s="3"/>
       <c r="S104" s="3"/>
-      <c r="T104" s="3"/>
+      <c r="T104" s="24"/>
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
       <c r="W104" s="3"/>
@@ -3867,7 +3876,7 @@
       <c r="Q105" s="3"/>
       <c r="R105" s="3"/>
       <c r="S105" s="3"/>
-      <c r="T105" s="3"/>
+      <c r="T105" s="24"/>
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
       <c r="W105" s="3"/>
@@ -3896,7 +3905,7 @@
       <c r="Q106" s="3"/>
       <c r="R106" s="3"/>
       <c r="S106" s="3"/>
-      <c r="T106" s="3"/>
+      <c r="T106" s="24"/>
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
       <c r="W106" s="3"/>
@@ -3925,7 +3934,7 @@
       <c r="Q107" s="3"/>
       <c r="R107" s="3"/>
       <c r="S107" s="3"/>
-      <c r="T107" s="3"/>
+      <c r="T107" s="24"/>
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
       <c r="W107" s="3"/>
@@ -3954,7 +3963,7 @@
       <c r="Q108" s="3"/>
       <c r="R108" s="3"/>
       <c r="S108" s="3"/>
-      <c r="T108" s="3"/>
+      <c r="T108" s="24"/>
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
       <c r="W108" s="3"/>
@@ -3983,7 +3992,7 @@
       <c r="Q109" s="3"/>
       <c r="R109" s="3"/>
       <c r="S109" s="3"/>
-      <c r="T109" s="3"/>
+      <c r="T109" s="24"/>
       <c r="U109" s="3"/>
       <c r="V109" s="3"/>
       <c r="W109" s="3"/>
@@ -4012,7 +4021,7 @@
       <c r="Q110" s="3"/>
       <c r="R110" s="3"/>
       <c r="S110" s="3"/>
-      <c r="T110" s="3"/>
+      <c r="T110" s="24"/>
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
       <c r="W110" s="3"/>
@@ -4041,7 +4050,7 @@
       <c r="Q111" s="3"/>
       <c r="R111" s="3"/>
       <c r="S111" s="3"/>
-      <c r="T111" s="3"/>
+      <c r="T111" s="24"/>
       <c r="U111" s="3"/>
       <c r="V111" s="3"/>
       <c r="W111" s="3"/>
@@ -4070,7 +4079,7 @@
       <c r="Q112" s="3"/>
       <c r="R112" s="3"/>
       <c r="S112" s="3"/>
-      <c r="T112" s="3"/>
+      <c r="T112" s="24"/>
       <c r="U112" s="3"/>
       <c r="V112" s="3"/>
       <c r="W112" s="3"/>
@@ -4099,7 +4108,7 @@
       <c r="Q113" s="3"/>
       <c r="R113" s="3"/>
       <c r="S113" s="3"/>
-      <c r="T113" s="3"/>
+      <c r="T113" s="24"/>
       <c r="U113" s="3"/>
       <c r="V113" s="3"/>
       <c r="W113" s="3"/>
@@ -4128,7 +4137,7 @@
       <c r="Q114" s="3"/>
       <c r="R114" s="3"/>
       <c r="S114" s="3"/>
-      <c r="T114" s="3"/>
+      <c r="T114" s="24"/>
       <c r="U114" s="3"/>
       <c r="V114" s="3"/>
       <c r="W114" s="3"/>
@@ -4157,7 +4166,7 @@
       <c r="Q115" s="3"/>
       <c r="R115" s="3"/>
       <c r="S115" s="3"/>
-      <c r="T115" s="3"/>
+      <c r="T115" s="24"/>
       <c r="U115" s="3"/>
       <c r="V115" s="3"/>
       <c r="W115" s="3"/>
@@ -4186,7 +4195,7 @@
       <c r="Q116" s="3"/>
       <c r="R116" s="3"/>
       <c r="S116" s="3"/>
-      <c r="T116" s="3"/>
+      <c r="T116" s="24"/>
       <c r="U116" s="3"/>
       <c r="V116" s="3"/>
       <c r="W116" s="3"/>
@@ -4215,7 +4224,7 @@
       <c r="Q117" s="3"/>
       <c r="R117" s="3"/>
       <c r="S117" s="3"/>
-      <c r="T117" s="3"/>
+      <c r="T117" s="24"/>
       <c r="U117" s="3"/>
       <c r="V117" s="3"/>
       <c r="W117" s="3"/>
@@ -4244,7 +4253,7 @@
       <c r="Q118" s="3"/>
       <c r="R118" s="3"/>
       <c r="S118" s="3"/>
-      <c r="T118" s="3"/>
+      <c r="T118" s="24"/>
       <c r="U118" s="3"/>
       <c r="V118" s="3"/>
       <c r="W118" s="3"/>
@@ -4273,7 +4282,7 @@
       <c r="Q119" s="3"/>
       <c r="R119" s="3"/>
       <c r="S119" s="3"/>
-      <c r="T119" s="3"/>
+      <c r="T119" s="24"/>
       <c r="U119" s="3"/>
       <c r="V119" s="3"/>
       <c r="W119" s="3"/>
@@ -4302,7 +4311,7 @@
       <c r="Q120" s="3"/>
       <c r="R120" s="3"/>
       <c r="S120" s="3"/>
-      <c r="T120" s="3"/>
+      <c r="T120" s="24"/>
       <c r="U120" s="3"/>
       <c r="V120" s="3"/>
       <c r="W120" s="3"/>
@@ -4331,7 +4340,7 @@
       <c r="Q121" s="3"/>
       <c r="R121" s="3"/>
       <c r="S121" s="3"/>
-      <c r="T121" s="3"/>
+      <c r="T121" s="24"/>
       <c r="U121" s="3"/>
       <c r="V121" s="3"/>
       <c r="W121" s="3"/>
@@ -4360,7 +4369,7 @@
       <c r="Q122" s="3"/>
       <c r="R122" s="3"/>
       <c r="S122" s="3"/>
-      <c r="T122" s="3"/>
+      <c r="T122" s="24"/>
       <c r="U122" s="3"/>
       <c r="V122" s="3"/>
       <c r="W122" s="3"/>
@@ -4389,7 +4398,7 @@
       <c r="Q123" s="3"/>
       <c r="R123" s="3"/>
       <c r="S123" s="3"/>
-      <c r="T123" s="3"/>
+      <c r="T123" s="24"/>
       <c r="U123" s="3"/>
       <c r="V123" s="3"/>
       <c r="W123" s="3"/>
@@ -4418,7 +4427,7 @@
       <c r="Q124" s="3"/>
       <c r="R124" s="3"/>
       <c r="S124" s="3"/>
-      <c r="T124" s="3"/>
+      <c r="T124" s="24"/>
       <c r="U124" s="3"/>
       <c r="V124" s="3"/>
       <c r="W124" s="3"/>
@@ -4447,7 +4456,7 @@
       <c r="Q125" s="3"/>
       <c r="R125" s="3"/>
       <c r="S125" s="3"/>
-      <c r="T125" s="3"/>
+      <c r="T125" s="24"/>
       <c r="U125" s="3"/>
       <c r="V125" s="3"/>
       <c r="W125" s="3"/>
@@ -4476,7 +4485,7 @@
       <c r="Q126" s="3"/>
       <c r="R126" s="3"/>
       <c r="S126" s="3"/>
-      <c r="T126" s="3"/>
+      <c r="T126" s="24"/>
       <c r="U126" s="3"/>
       <c r="V126" s="3"/>
       <c r="W126" s="3"/>
@@ -4505,7 +4514,7 @@
       <c r="Q127" s="3"/>
       <c r="R127" s="3"/>
       <c r="S127" s="3"/>
-      <c r="T127" s="3"/>
+      <c r="T127" s="24"/>
       <c r="U127" s="3"/>
       <c r="V127" s="3"/>
       <c r="W127" s="3"/>
@@ -4534,7 +4543,7 @@
       <c r="Q128" s="3"/>
       <c r="R128" s="3"/>
       <c r="S128" s="3"/>
-      <c r="T128" s="3"/>
+      <c r="T128" s="24"/>
       <c r="U128" s="3"/>
       <c r="V128" s="3"/>
       <c r="W128" s="3"/>
@@ -4563,7 +4572,7 @@
       <c r="Q129" s="3"/>
       <c r="R129" s="3"/>
       <c r="S129" s="3"/>
-      <c r="T129" s="3"/>
+      <c r="T129" s="24"/>
       <c r="U129" s="3"/>
       <c r="V129" s="3"/>
       <c r="W129" s="3"/>
@@ -4592,7 +4601,7 @@
       <c r="Q130" s="3"/>
       <c r="R130" s="3"/>
       <c r="S130" s="3"/>
-      <c r="T130" s="3"/>
+      <c r="T130" s="24"/>
       <c r="U130" s="3"/>
       <c r="V130" s="3"/>
       <c r="W130" s="3"/>
@@ -4621,7 +4630,7 @@
       <c r="Q131" s="3"/>
       <c r="R131" s="3"/>
       <c r="S131" s="3"/>
-      <c r="T131" s="3"/>
+      <c r="T131" s="24"/>
       <c r="U131" s="3"/>
       <c r="V131" s="3"/>
       <c r="W131" s="3"/>
@@ -4650,7 +4659,7 @@
       <c r="Q132" s="3"/>
       <c r="R132" s="3"/>
       <c r="S132" s="3"/>
-      <c r="T132" s="3"/>
+      <c r="T132" s="24"/>
       <c r="U132" s="3"/>
       <c r="V132" s="3"/>
       <c r="W132" s="3"/>
@@ -4679,7 +4688,7 @@
       <c r="Q133" s="3"/>
       <c r="R133" s="3"/>
       <c r="S133" s="3"/>
-      <c r="T133" s="3"/>
+      <c r="T133" s="24"/>
       <c r="U133" s="3"/>
       <c r="V133" s="3"/>
       <c r="W133" s="3"/>
@@ -4708,7 +4717,7 @@
       <c r="Q134" s="3"/>
       <c r="R134" s="3"/>
       <c r="S134" s="3"/>
-      <c r="T134" s="3"/>
+      <c r="T134" s="24"/>
       <c r="U134" s="3"/>
       <c r="V134" s="3"/>
       <c r="W134" s="3"/>
@@ -4737,7 +4746,7 @@
       <c r="Q135" s="3"/>
       <c r="R135" s="3"/>
       <c r="S135" s="3"/>
-      <c r="T135" s="3"/>
+      <c r="T135" s="24"/>
       <c r="U135" s="3"/>
       <c r="V135" s="3"/>
       <c r="W135" s="3"/>
@@ -4766,7 +4775,7 @@
       <c r="Q136" s="3"/>
       <c r="R136" s="3"/>
       <c r="S136" s="3"/>
-      <c r="T136" s="3"/>
+      <c r="T136" s="24"/>
       <c r="U136" s="3"/>
       <c r="V136" s="3"/>
       <c r="W136" s="3"/>
@@ -4795,7 +4804,7 @@
       <c r="Q137" s="3"/>
       <c r="R137" s="3"/>
       <c r="S137" s="3"/>
-      <c r="T137" s="3"/>
+      <c r="T137" s="24"/>
       <c r="U137" s="3"/>
       <c r="V137" s="3"/>
       <c r="W137" s="3"/>
@@ -4824,7 +4833,7 @@
       <c r="Q138" s="3"/>
       <c r="R138" s="3"/>
       <c r="S138" s="3"/>
-      <c r="T138" s="3"/>
+      <c r="T138" s="24"/>
       <c r="U138" s="3"/>
       <c r="V138" s="3"/>
       <c r="W138" s="3"/>
@@ -4853,7 +4862,7 @@
       <c r="Q139" s="3"/>
       <c r="R139" s="3"/>
       <c r="S139" s="3"/>
-      <c r="T139" s="3"/>
+      <c r="T139" s="24"/>
       <c r="U139" s="3"/>
       <c r="V139" s="3"/>
       <c r="W139" s="3"/>
@@ -4882,7 +4891,7 @@
       <c r="Q140" s="3"/>
       <c r="R140" s="3"/>
       <c r="S140" s="3"/>
-      <c r="T140" s="3"/>
+      <c r="T140" s="24"/>
       <c r="U140" s="3"/>
       <c r="V140" s="3"/>
       <c r="W140" s="3"/>
@@ -4911,7 +4920,7 @@
       <c r="Q141" s="3"/>
       <c r="R141" s="3"/>
       <c r="S141" s="3"/>
-      <c r="T141" s="3"/>
+      <c r="T141" s="24"/>
       <c r="U141" s="3"/>
       <c r="V141" s="3"/>
       <c r="W141" s="3"/>
@@ -4940,7 +4949,7 @@
       <c r="Q142" s="3"/>
       <c r="R142" s="3"/>
       <c r="S142" s="3"/>
-      <c r="T142" s="3"/>
+      <c r="T142" s="24"/>
       <c r="U142" s="3"/>
       <c r="V142" s="3"/>
       <c r="W142" s="3"/>
@@ -4969,7 +4978,7 @@
       <c r="Q143" s="3"/>
       <c r="R143" s="3"/>
       <c r="S143" s="3"/>
-      <c r="T143" s="3"/>
+      <c r="T143" s="24"/>
       <c r="U143" s="3"/>
       <c r="V143" s="3"/>
       <c r="W143" s="3"/>
@@ -4998,7 +5007,7 @@
       <c r="Q144" s="3"/>
       <c r="R144" s="3"/>
       <c r="S144" s="3"/>
-      <c r="T144" s="3"/>
+      <c r="T144" s="24"/>
       <c r="U144" s="3"/>
       <c r="V144" s="3"/>
       <c r="W144" s="3"/>
@@ -5027,7 +5036,7 @@
       <c r="Q145" s="3"/>
       <c r="R145" s="3"/>
       <c r="S145" s="3"/>
-      <c r="T145" s="3"/>
+      <c r="T145" s="24"/>
       <c r="U145" s="3"/>
       <c r="V145" s="3"/>
       <c r="W145" s="3"/>
@@ -5056,7 +5065,7 @@
       <c r="Q146" s="3"/>
       <c r="R146" s="3"/>
       <c r="S146" s="3"/>
-      <c r="T146" s="3"/>
+      <c r="T146" s="24"/>
       <c r="U146" s="3"/>
       <c r="V146" s="3"/>
       <c r="W146" s="3"/>
@@ -5085,7 +5094,7 @@
       <c r="Q147" s="3"/>
       <c r="R147" s="3"/>
       <c r="S147" s="3"/>
-      <c r="T147" s="3"/>
+      <c r="T147" s="24"/>
       <c r="U147" s="3"/>
       <c r="V147" s="3"/>
       <c r="W147" s="3"/>
@@ -5114,7 +5123,7 @@
       <c r="Q148" s="3"/>
       <c r="R148" s="3"/>
       <c r="S148" s="3"/>
-      <c r="T148" s="3"/>
+      <c r="T148" s="24"/>
       <c r="U148" s="3"/>
       <c r="V148" s="3"/>
       <c r="W148" s="3"/>
@@ -5143,7 +5152,7 @@
       <c r="Q149" s="3"/>
       <c r="R149" s="3"/>
       <c r="S149" s="3"/>
-      <c r="T149" s="3"/>
+      <c r="T149" s="24"/>
       <c r="U149" s="3"/>
       <c r="V149" s="3"/>
       <c r="W149" s="3"/>
@@ -5172,7 +5181,7 @@
       <c r="Q150" s="3"/>
       <c r="R150" s="3"/>
       <c r="S150" s="3"/>
-      <c r="T150" s="3"/>
+      <c r="T150" s="24"/>
       <c r="U150" s="3"/>
       <c r="V150" s="3"/>
       <c r="W150" s="3"/>
@@ -5201,7 +5210,7 @@
       <c r="Q151" s="3"/>
       <c r="R151" s="3"/>
       <c r="S151" s="3"/>
-      <c r="T151" s="3"/>
+      <c r="T151" s="24"/>
       <c r="U151" s="3"/>
       <c r="V151" s="3"/>
       <c r="W151" s="3"/>
@@ -5230,7 +5239,7 @@
       <c r="Q152" s="3"/>
       <c r="R152" s="3"/>
       <c r="S152" s="3"/>
-      <c r="T152" s="3"/>
+      <c r="T152" s="24"/>
       <c r="U152" s="3"/>
       <c r="V152" s="3"/>
       <c r="W152" s="3"/>
@@ -5259,7 +5268,7 @@
       <c r="Q153" s="3"/>
       <c r="R153" s="3"/>
       <c r="S153" s="3"/>
-      <c r="T153" s="3"/>
+      <c r="T153" s="24"/>
       <c r="U153" s="3"/>
       <c r="V153" s="3"/>
       <c r="W153" s="3"/>
@@ -5288,7 +5297,7 @@
       <c r="Q154" s="3"/>
       <c r="R154" s="3"/>
       <c r="S154" s="3"/>
-      <c r="T154" s="3"/>
+      <c r="T154" s="24"/>
       <c r="U154" s="3"/>
       <c r="V154" s="3"/>
       <c r="W154" s="3"/>
@@ -5317,7 +5326,7 @@
       <c r="Q155" s="3"/>
       <c r="R155" s="3"/>
       <c r="S155" s="3"/>
-      <c r="T155" s="3"/>
+      <c r="T155" s="24"/>
       <c r="U155" s="3"/>
       <c r="V155" s="3"/>
       <c r="W155" s="3"/>
@@ -5346,7 +5355,7 @@
       <c r="Q156" s="3"/>
       <c r="R156" s="3"/>
       <c r="S156" s="3"/>
-      <c r="T156" s="3"/>
+      <c r="T156" s="24"/>
       <c r="U156" s="3"/>
       <c r="V156" s="3"/>
       <c r="W156" s="3"/>
@@ -5375,7 +5384,7 @@
       <c r="Q157" s="3"/>
       <c r="R157" s="3"/>
       <c r="S157" s="3"/>
-      <c r="T157" s="3"/>
+      <c r="T157" s="24"/>
       <c r="U157" s="3"/>
       <c r="V157" s="3"/>
       <c r="W157" s="3"/>
@@ -5404,7 +5413,7 @@
       <c r="Q158" s="3"/>
       <c r="R158" s="3"/>
       <c r="S158" s="3"/>
-      <c r="T158" s="3"/>
+      <c r="T158" s="24"/>
       <c r="U158" s="3"/>
       <c r="V158" s="3"/>
       <c r="W158" s="3"/>
@@ -5433,7 +5442,7 @@
       <c r="Q159" s="3"/>
       <c r="R159" s="3"/>
       <c r="S159" s="3"/>
-      <c r="T159" s="3"/>
+      <c r="T159" s="24"/>
       <c r="U159" s="3"/>
       <c r="V159" s="3"/>
       <c r="W159" s="3"/>
@@ -5462,7 +5471,7 @@
       <c r="Q160" s="3"/>
       <c r="R160" s="3"/>
       <c r="S160" s="3"/>
-      <c r="T160" s="3"/>
+      <c r="T160" s="24"/>
       <c r="U160" s="3"/>
       <c r="V160" s="3"/>
       <c r="W160" s="3"/>
@@ -5491,7 +5500,7 @@
       <c r="Q161" s="3"/>
       <c r="R161" s="3"/>
       <c r="S161" s="3"/>
-      <c r="T161" s="3"/>
+      <c r="T161" s="24"/>
       <c r="U161" s="3"/>
       <c r="V161" s="3"/>
       <c r="W161" s="3"/>
@@ -5520,7 +5529,7 @@
       <c r="Q162" s="3"/>
       <c r="R162" s="3"/>
       <c r="S162" s="3"/>
-      <c r="T162" s="3"/>
+      <c r="T162" s="24"/>
       <c r="U162" s="3"/>
       <c r="V162" s="3"/>
       <c r="W162" s="3"/>
@@ -5549,7 +5558,7 @@
       <c r="Q163" s="3"/>
       <c r="R163" s="3"/>
       <c r="S163" s="3"/>
-      <c r="T163" s="3"/>
+      <c r="T163" s="24"/>
       <c r="U163" s="3"/>
       <c r="V163" s="3"/>
       <c r="W163" s="3"/>
@@ -5578,7 +5587,7 @@
       <c r="Q164" s="3"/>
       <c r="R164" s="3"/>
       <c r="S164" s="3"/>
-      <c r="T164" s="3"/>
+      <c r="T164" s="24"/>
       <c r="U164" s="3"/>
       <c r="V164" s="3"/>
       <c r="W164" s="3"/>
@@ -5607,7 +5616,7 @@
       <c r="Q165" s="3"/>
       <c r="R165" s="3"/>
       <c r="S165" s="3"/>
-      <c r="T165" s="3"/>
+      <c r="T165" s="24"/>
       <c r="U165" s="3"/>
       <c r="V165" s="3"/>
       <c r="W165" s="3"/>
@@ -5636,7 +5645,7 @@
       <c r="Q166" s="3"/>
       <c r="R166" s="3"/>
       <c r="S166" s="3"/>
-      <c r="T166" s="3"/>
+      <c r="T166" s="24"/>
       <c r="U166" s="3"/>
       <c r="V166" s="3"/>
       <c r="W166" s="3"/>
@@ -5665,7 +5674,7 @@
       <c r="Q167" s="3"/>
       <c r="R167" s="3"/>
       <c r="S167" s="3"/>
-      <c r="T167" s="3"/>
+      <c r="T167" s="24"/>
       <c r="U167" s="3"/>
       <c r="V167" s="3"/>
       <c r="W167" s="3"/>
@@ -5694,7 +5703,7 @@
       <c r="Q168" s="3"/>
       <c r="R168" s="3"/>
       <c r="S168" s="3"/>
-      <c r="T168" s="3"/>
+      <c r="T168" s="24"/>
       <c r="U168" s="3"/>
       <c r="V168" s="3"/>
       <c r="W168" s="3"/>
@@ -5723,7 +5732,7 @@
       <c r="Q169" s="3"/>
       <c r="R169" s="3"/>
       <c r="S169" s="3"/>
-      <c r="T169" s="3"/>
+      <c r="T169" s="24"/>
       <c r="U169" s="3"/>
       <c r="V169" s="3"/>
       <c r="W169" s="3"/>
@@ -5752,7 +5761,7 @@
       <c r="Q170" s="3"/>
       <c r="R170" s="3"/>
       <c r="S170" s="3"/>
-      <c r="T170" s="3"/>
+      <c r="T170" s="24"/>
       <c r="U170" s="3"/>
       <c r="V170" s="3"/>
       <c r="W170" s="3"/>
@@ -5781,7 +5790,7 @@
       <c r="Q171" s="3"/>
       <c r="R171" s="3"/>
       <c r="S171" s="3"/>
-      <c r="T171" s="3"/>
+      <c r="T171" s="24"/>
       <c r="U171" s="3"/>
       <c r="V171" s="3"/>
       <c r="W171" s="3"/>
@@ -5810,7 +5819,7 @@
       <c r="Q172" s="3"/>
       <c r="R172" s="3"/>
       <c r="S172" s="3"/>
-      <c r="T172" s="3"/>
+      <c r="T172" s="24"/>
       <c r="U172" s="3"/>
       <c r="V172" s="3"/>
       <c r="W172" s="3"/>
@@ -5839,7 +5848,7 @@
       <c r="Q173" s="3"/>
       <c r="R173" s="3"/>
       <c r="S173" s="3"/>
-      <c r="T173" s="3"/>
+      <c r="T173" s="24"/>
       <c r="U173" s="3"/>
       <c r="V173" s="3"/>
       <c r="W173" s="3"/>
@@ -5868,7 +5877,7 @@
       <c r="Q174" s="3"/>
       <c r="R174" s="3"/>
       <c r="S174" s="3"/>
-      <c r="T174" s="3"/>
+      <c r="T174" s="24"/>
       <c r="U174" s="3"/>
       <c r="V174" s="3"/>
       <c r="W174" s="3"/>
@@ -5897,7 +5906,7 @@
       <c r="Q175" s="3"/>
       <c r="R175" s="3"/>
       <c r="S175" s="3"/>
-      <c r="T175" s="3"/>
+      <c r="T175" s="24"/>
       <c r="U175" s="3"/>
       <c r="V175" s="3"/>
       <c r="W175" s="3"/>
@@ -5926,7 +5935,7 @@
       <c r="Q176" s="3"/>
       <c r="R176" s="3"/>
       <c r="S176" s="3"/>
-      <c r="T176" s="3"/>
+      <c r="T176" s="24"/>
       <c r="U176" s="3"/>
       <c r="V176" s="3"/>
       <c r="W176" s="3"/>
@@ -5955,7 +5964,7 @@
       <c r="Q177" s="3"/>
       <c r="R177" s="3"/>
       <c r="S177" s="3"/>
-      <c r="T177" s="3"/>
+      <c r="T177" s="24"/>
       <c r="U177" s="3"/>
       <c r="V177" s="3"/>
       <c r="W177" s="3"/>
@@ -5984,7 +5993,7 @@
       <c r="Q178" s="3"/>
       <c r="R178" s="3"/>
       <c r="S178" s="3"/>
-      <c r="T178" s="3"/>
+      <c r="T178" s="24"/>
       <c r="U178" s="3"/>
       <c r="V178" s="3"/>
       <c r="W178" s="3"/>
@@ -6013,7 +6022,7 @@
       <c r="Q179" s="3"/>
       <c r="R179" s="3"/>
       <c r="S179" s="3"/>
-      <c r="T179" s="3"/>
+      <c r="T179" s="24"/>
       <c r="U179" s="3"/>
       <c r="V179" s="3"/>
       <c r="W179" s="3"/>
@@ -6042,7 +6051,7 @@
       <c r="Q180" s="3"/>
       <c r="R180" s="3"/>
       <c r="S180" s="3"/>
-      <c r="T180" s="3"/>
+      <c r="T180" s="24"/>
       <c r="U180" s="3"/>
       <c r="V180" s="3"/>
       <c r="W180" s="3"/>
@@ -6071,7 +6080,7 @@
       <c r="Q181" s="3"/>
       <c r="R181" s="3"/>
       <c r="S181" s="3"/>
-      <c r="T181" s="3"/>
+      <c r="T181" s="24"/>
       <c r="U181" s="3"/>
       <c r="V181" s="3"/>
       <c r="W181" s="3"/>
@@ -6100,7 +6109,7 @@
       <c r="Q182" s="3"/>
       <c r="R182" s="3"/>
       <c r="S182" s="3"/>
-      <c r="T182" s="3"/>
+      <c r="T182" s="24"/>
       <c r="U182" s="3"/>
       <c r="V182" s="3"/>
       <c r="W182" s="3"/>
@@ -6129,7 +6138,7 @@
       <c r="Q183" s="3"/>
       <c r="R183" s="3"/>
       <c r="S183" s="3"/>
-      <c r="T183" s="3"/>
+      <c r="T183" s="24"/>
       <c r="U183" s="3"/>
       <c r="V183" s="3"/>
       <c r="W183" s="3"/>
@@ -6158,7 +6167,7 @@
       <c r="Q184" s="3"/>
       <c r="R184" s="3"/>
       <c r="S184" s="3"/>
-      <c r="T184" s="3"/>
+      <c r="T184" s="24"/>
       <c r="U184" s="3"/>
       <c r="V184" s="3"/>
       <c r="W184" s="3"/>
@@ -6187,7 +6196,7 @@
       <c r="Q185" s="3"/>
       <c r="R185" s="3"/>
       <c r="S185" s="3"/>
-      <c r="T185" s="3"/>
+      <c r="T185" s="24"/>
       <c r="U185" s="3"/>
       <c r="V185" s="3"/>
       <c r="W185" s="3"/>
@@ -6216,7 +6225,7 @@
       <c r="Q186" s="3"/>
       <c r="R186" s="3"/>
       <c r="S186" s="3"/>
-      <c r="T186" s="3"/>
+      <c r="T186" s="24"/>
       <c r="U186" s="3"/>
       <c r="V186" s="3"/>
       <c r="W186" s="3"/>
@@ -6245,7 +6254,7 @@
       <c r="Q187" s="3"/>
       <c r="R187" s="3"/>
       <c r="S187" s="3"/>
-      <c r="T187" s="3"/>
+      <c r="T187" s="24"/>
       <c r="U187" s="3"/>
       <c r="V187" s="3"/>
       <c r="W187" s="3"/>
@@ -6274,7 +6283,7 @@
       <c r="Q188" s="3"/>
       <c r="R188" s="3"/>
       <c r="S188" s="3"/>
-      <c r="T188" s="3"/>
+      <c r="T188" s="24"/>
       <c r="U188" s="3"/>
       <c r="V188" s="3"/>
       <c r="W188" s="3"/>
@@ -6303,7 +6312,7 @@
       <c r="Q189" s="3"/>
       <c r="R189" s="3"/>
       <c r="S189" s="3"/>
-      <c r="T189" s="3"/>
+      <c r="T189" s="24"/>
       <c r="U189" s="3"/>
       <c r="V189" s="3"/>
       <c r="W189" s="3"/>
@@ -6332,7 +6341,7 @@
       <c r="Q190" s="3"/>
       <c r="R190" s="3"/>
       <c r="S190" s="3"/>
-      <c r="T190" s="3"/>
+      <c r="T190" s="24"/>
       <c r="U190" s="3"/>
       <c r="V190" s="3"/>
       <c r="W190" s="3"/>
@@ -6361,7 +6370,7 @@
       <c r="Q191" s="3"/>
       <c r="R191" s="3"/>
       <c r="S191" s="3"/>
-      <c r="T191" s="3"/>
+      <c r="T191" s="24"/>
       <c r="U191" s="3"/>
       <c r="V191" s="3"/>
       <c r="W191" s="3"/>
@@ -6390,7 +6399,7 @@
       <c r="Q192" s="3"/>
       <c r="R192" s="3"/>
       <c r="S192" s="3"/>
-      <c r="T192" s="3"/>
+      <c r="T192" s="24"/>
       <c r="U192" s="3"/>
       <c r="V192" s="3"/>
       <c r="W192" s="3"/>
@@ -6419,7 +6428,7 @@
       <c r="Q193" s="3"/>
       <c r="R193" s="3"/>
       <c r="S193" s="3"/>
-      <c r="T193" s="3"/>
+      <c r="T193" s="24"/>
       <c r="U193" s="3"/>
       <c r="V193" s="3"/>
       <c r="W193" s="3"/>
@@ -6448,7 +6457,7 @@
       <c r="Q194" s="3"/>
       <c r="R194" s="3"/>
       <c r="S194" s="3"/>
-      <c r="T194" s="3"/>
+      <c r="T194" s="24"/>
       <c r="U194" s="3"/>
       <c r="V194" s="3"/>
       <c r="W194" s="3"/>
@@ -6477,7 +6486,7 @@
       <c r="Q195" s="3"/>
       <c r="R195" s="3"/>
       <c r="S195" s="3"/>
-      <c r="T195" s="3"/>
+      <c r="T195" s="24"/>
       <c r="U195" s="3"/>
       <c r="V195" s="3"/>
       <c r="W195" s="3"/>
@@ -6506,7 +6515,7 @@
       <c r="Q196" s="3"/>
       <c r="R196" s="3"/>
       <c r="S196" s="3"/>
-      <c r="T196" s="3"/>
+      <c r="T196" s="24"/>
       <c r="U196" s="3"/>
       <c r="V196" s="3"/>
       <c r="W196" s="3"/>
@@ -6535,7 +6544,7 @@
       <c r="Q197" s="3"/>
       <c r="R197" s="3"/>
       <c r="S197" s="3"/>
-      <c r="T197" s="3"/>
+      <c r="T197" s="24"/>
       <c r="U197" s="3"/>
       <c r="V197" s="3"/>
       <c r="W197" s="3"/>
@@ -6564,7 +6573,7 @@
       <c r="Q198" s="3"/>
       <c r="R198" s="3"/>
       <c r="S198" s="3"/>
-      <c r="T198" s="3"/>
+      <c r="T198" s="24"/>
       <c r="U198" s="3"/>
       <c r="V198" s="3"/>
       <c r="W198" s="3"/>
@@ -6593,7 +6602,7 @@
       <c r="Q199" s="3"/>
       <c r="R199" s="3"/>
       <c r="S199" s="3"/>
-      <c r="T199" s="3"/>
+      <c r="T199" s="24"/>
       <c r="U199" s="3"/>
       <c r="V199" s="3"/>
       <c r="W199" s="3"/>
@@ -6622,7 +6631,7 @@
       <c r="Q200" s="3"/>
       <c r="R200" s="3"/>
       <c r="S200" s="3"/>
-      <c r="T200" s="3"/>
+      <c r="T200" s="24"/>
       <c r="U200" s="3"/>
       <c r="V200" s="3"/>
       <c r="W200" s="3"/>
@@ -6651,7 +6660,7 @@
       <c r="Q201" s="3"/>
       <c r="R201" s="3"/>
       <c r="S201" s="3"/>
-      <c r="T201" s="3"/>
+      <c r="T201" s="24"/>
       <c r="U201" s="3"/>
       <c r="V201" s="3"/>
       <c r="W201" s="3"/>
@@ -6680,7 +6689,7 @@
       <c r="Q202" s="3"/>
       <c r="R202" s="3"/>
       <c r="S202" s="3"/>
-      <c r="T202" s="3"/>
+      <c r="T202" s="24"/>
       <c r="U202" s="3"/>
       <c r="V202" s="3"/>
       <c r="W202" s="3"/>
@@ -6709,7 +6718,7 @@
       <c r="Q203" s="3"/>
       <c r="R203" s="3"/>
       <c r="S203" s="3"/>
-      <c r="T203" s="3"/>
+      <c r="T203" s="24"/>
       <c r="U203" s="3"/>
       <c r="V203" s="3"/>
       <c r="W203" s="3"/>
@@ -6738,7 +6747,7 @@
       <c r="Q204" s="3"/>
       <c r="R204" s="3"/>
       <c r="S204" s="3"/>
-      <c r="T204" s="3"/>
+      <c r="T204" s="24"/>
       <c r="U204" s="3"/>
       <c r="V204" s="3"/>
       <c r="W204" s="3"/>
@@ -6767,7 +6776,7 @@
       <c r="Q205" s="3"/>
       <c r="R205" s="3"/>
       <c r="S205" s="3"/>
-      <c r="T205" s="3"/>
+      <c r="T205" s="24"/>
       <c r="U205" s="3"/>
       <c r="V205" s="3"/>
       <c r="W205" s="3"/>
@@ -6796,7 +6805,7 @@
       <c r="Q206" s="3"/>
       <c r="R206" s="3"/>
       <c r="S206" s="3"/>
-      <c r="T206" s="3"/>
+      <c r="T206" s="24"/>
       <c r="U206" s="3"/>
       <c r="V206" s="3"/>
       <c r="W206" s="3"/>
@@ -6825,7 +6834,7 @@
       <c r="Q207" s="3"/>
       <c r="R207" s="3"/>
       <c r="S207" s="3"/>
-      <c r="T207" s="3"/>
+      <c r="T207" s="24"/>
       <c r="U207" s="3"/>
       <c r="V207" s="3"/>
       <c r="W207" s="3"/>
@@ -6854,7 +6863,7 @@
       <c r="Q208" s="3"/>
       <c r="R208" s="3"/>
       <c r="S208" s="3"/>
-      <c r="T208" s="3"/>
+      <c r="T208" s="24"/>
       <c r="U208" s="3"/>
       <c r="V208" s="3"/>
       <c r="W208" s="3"/>
@@ -6883,7 +6892,7 @@
       <c r="Q209" s="3"/>
       <c r="R209" s="3"/>
       <c r="S209" s="3"/>
-      <c r="T209" s="3"/>
+      <c r="T209" s="24"/>
       <c r="U209" s="3"/>
       <c r="V209" s="3"/>
       <c r="W209" s="3"/>
@@ -6912,7 +6921,7 @@
       <c r="Q210" s="3"/>
       <c r="R210" s="3"/>
       <c r="S210" s="3"/>
-      <c r="T210" s="3"/>
+      <c r="T210" s="24"/>
       <c r="U210" s="3"/>
       <c r="V210" s="3"/>
       <c r="W210" s="3"/>
@@ -6941,7 +6950,7 @@
       <c r="Q211" s="3"/>
       <c r="R211" s="3"/>
       <c r="S211" s="3"/>
-      <c r="T211" s="3"/>
+      <c r="T211" s="24"/>
       <c r="U211" s="3"/>
       <c r="V211" s="3"/>
       <c r="W211" s="3"/>
@@ -6970,7 +6979,7 @@
       <c r="Q212" s="3"/>
       <c r="R212" s="3"/>
       <c r="S212" s="3"/>
-      <c r="T212" s="3"/>
+      <c r="T212" s="24"/>
       <c r="U212" s="3"/>
       <c r="V212" s="3"/>
       <c r="W212" s="3"/>
@@ -6999,7 +7008,7 @@
       <c r="Q213" s="3"/>
       <c r="R213" s="3"/>
       <c r="S213" s="3"/>
-      <c r="T213" s="3"/>
+      <c r="T213" s="24"/>
       <c r="U213" s="3"/>
       <c r="V213" s="3"/>
       <c r="W213" s="3"/>
@@ -7028,7 +7037,7 @@
       <c r="Q214" s="3"/>
       <c r="R214" s="3"/>
       <c r="S214" s="3"/>
-      <c r="T214" s="3"/>
+      <c r="T214" s="24"/>
       <c r="U214" s="3"/>
       <c r="V214" s="3"/>
       <c r="W214" s="3"/>
@@ -7057,7 +7066,7 @@
       <c r="Q215" s="3"/>
       <c r="R215" s="3"/>
       <c r="S215" s="3"/>
-      <c r="T215" s="3"/>
+      <c r="T215" s="24"/>
       <c r="U215" s="3"/>
       <c r="V215" s="3"/>
       <c r="W215" s="3"/>
@@ -7086,7 +7095,7 @@
       <c r="Q216" s="3"/>
       <c r="R216" s="3"/>
       <c r="S216" s="3"/>
-      <c r="T216" s="3"/>
+      <c r="T216" s="24"/>
       <c r="U216" s="3"/>
       <c r="V216" s="3"/>
       <c r="W216" s="3"/>
@@ -7115,7 +7124,7 @@
       <c r="Q217" s="3"/>
       <c r="R217" s="3"/>
       <c r="S217" s="3"/>
-      <c r="T217" s="3"/>
+      <c r="T217" s="24"/>
       <c r="U217" s="3"/>
       <c r="V217" s="3"/>
       <c r="W217" s="3"/>
@@ -7144,7 +7153,7 @@
       <c r="Q218" s="3"/>
       <c r="R218" s="3"/>
       <c r="S218" s="3"/>
-      <c r="T218" s="3"/>
+      <c r="T218" s="24"/>
       <c r="U218" s="3"/>
       <c r="V218" s="3"/>
       <c r="W218" s="3"/>
@@ -7173,7 +7182,7 @@
       <c r="Q219" s="3"/>
       <c r="R219" s="3"/>
       <c r="S219" s="3"/>
-      <c r="T219" s="3"/>
+      <c r="T219" s="24"/>
       <c r="U219" s="3"/>
       <c r="V219" s="3"/>
       <c r="W219" s="3"/>
@@ -7202,7 +7211,7 @@
       <c r="Q220" s="3"/>
       <c r="R220" s="3"/>
       <c r="S220" s="3"/>
-      <c r="T220" s="3"/>
+      <c r="T220" s="24"/>
       <c r="U220" s="3"/>
       <c r="V220" s="3"/>
       <c r="W220" s="3"/>
@@ -7231,7 +7240,7 @@
       <c r="Q221" s="3"/>
       <c r="R221" s="3"/>
       <c r="S221" s="3"/>
-      <c r="T221" s="3"/>
+      <c r="T221" s="24"/>
       <c r="U221" s="3"/>
       <c r="V221" s="3"/>
       <c r="W221" s="3"/>
@@ -7260,7 +7269,7 @@
       <c r="Q222" s="3"/>
       <c r="R222" s="3"/>
       <c r="S222" s="3"/>
-      <c r="T222" s="3"/>
+      <c r="T222" s="24"/>
       <c r="U222" s="3"/>
       <c r="V222" s="3"/>
       <c r="W222" s="3"/>
@@ -7289,7 +7298,7 @@
       <c r="Q223" s="3"/>
       <c r="R223" s="3"/>
       <c r="S223" s="3"/>
-      <c r="T223" s="3"/>
+      <c r="T223" s="24"/>
       <c r="U223" s="3"/>
       <c r="V223" s="3"/>
       <c r="W223" s="3"/>
@@ -7318,7 +7327,7 @@
       <c r="Q224" s="3"/>
       <c r="R224" s="3"/>
       <c r="S224" s="3"/>
-      <c r="T224" s="3"/>
+      <c r="T224" s="24"/>
       <c r="U224" s="3"/>
       <c r="V224" s="3"/>
       <c r="W224" s="3"/>
@@ -7347,7 +7356,7 @@
       <c r="Q225" s="3"/>
       <c r="R225" s="3"/>
       <c r="S225" s="3"/>
-      <c r="T225" s="3"/>
+      <c r="T225" s="24"/>
       <c r="U225" s="3"/>
       <c r="V225" s="3"/>
       <c r="W225" s="3"/>
@@ -7376,7 +7385,7 @@
       <c r="Q226" s="3"/>
       <c r="R226" s="3"/>
       <c r="S226" s="3"/>
-      <c r="T226" s="3"/>
+      <c r="T226" s="24"/>
       <c r="U226" s="3"/>
       <c r="V226" s="3"/>
       <c r="W226" s="3"/>
@@ -7405,7 +7414,7 @@
       <c r="Q227" s="3"/>
       <c r="R227" s="3"/>
       <c r="S227" s="3"/>
-      <c r="T227" s="3"/>
+      <c r="T227" s="24"/>
       <c r="U227" s="3"/>
       <c r="V227" s="3"/>
       <c r="W227" s="3"/>
@@ -7434,7 +7443,7 @@
       <c r="Q228" s="3"/>
       <c r="R228" s="3"/>
       <c r="S228" s="3"/>
-      <c r="T228" s="3"/>
+      <c r="T228" s="24"/>
       <c r="U228" s="3"/>
       <c r="V228" s="3"/>
       <c r="W228" s="3"/>
@@ -7463,7 +7472,7 @@
       <c r="Q229" s="3"/>
       <c r="R229" s="3"/>
       <c r="S229" s="3"/>
-      <c r="T229" s="3"/>
+      <c r="T229" s="24"/>
       <c r="U229" s="3"/>
       <c r="V229" s="3"/>
       <c r="W229" s="3"/>
@@ -7492,7 +7501,7 @@
       <c r="Q230" s="3"/>
       <c r="R230" s="3"/>
       <c r="S230" s="3"/>
-      <c r="T230" s="3"/>
+      <c r="T230" s="24"/>
       <c r="U230" s="3"/>
       <c r="V230" s="3"/>
       <c r="W230" s="3"/>
@@ -7521,7 +7530,7 @@
       <c r="Q231" s="3"/>
       <c r="R231" s="3"/>
       <c r="S231" s="3"/>
-      <c r="T231" s="3"/>
+      <c r="T231" s="24"/>
       <c r="U231" s="3"/>
       <c r="V231" s="3"/>
       <c r="W231" s="3"/>
@@ -7550,7 +7559,7 @@
       <c r="Q232" s="3"/>
       <c r="R232" s="3"/>
       <c r="S232" s="3"/>
-      <c r="T232" s="3"/>
+      <c r="T232" s="24"/>
       <c r="U232" s="3"/>
       <c r="V232" s="3"/>
       <c r="W232" s="3"/>
@@ -7579,7 +7588,7 @@
       <c r="Q233" s="3"/>
       <c r="R233" s="3"/>
       <c r="S233" s="3"/>
-      <c r="T233" s="3"/>
+      <c r="T233" s="24"/>
       <c r="U233" s="3"/>
       <c r="V233" s="3"/>
       <c r="W233" s="3"/>
@@ -7608,7 +7617,7 @@
       <c r="Q234" s="3"/>
       <c r="R234" s="3"/>
       <c r="S234" s="3"/>
-      <c r="T234" s="3"/>
+      <c r="T234" s="24"/>
       <c r="U234" s="3"/>
       <c r="V234" s="3"/>
       <c r="W234" s="3"/>
@@ -7637,7 +7646,7 @@
       <c r="Q235" s="3"/>
       <c r="R235" s="3"/>
       <c r="S235" s="3"/>
-      <c r="T235" s="3"/>
+      <c r="T235" s="24"/>
       <c r="U235" s="3"/>
       <c r="V235" s="3"/>
       <c r="W235" s="3"/>
@@ -7666,7 +7675,7 @@
       <c r="Q236" s="3"/>
       <c r="R236" s="3"/>
       <c r="S236" s="3"/>
-      <c r="T236" s="3"/>
+      <c r="T236" s="24"/>
       <c r="U236" s="3"/>
       <c r="V236" s="3"/>
       <c r="W236" s="3"/>
@@ -7695,7 +7704,7 @@
       <c r="Q237" s="3"/>
       <c r="R237" s="3"/>
       <c r="S237" s="3"/>
-      <c r="T237" s="3"/>
+      <c r="T237" s="24"/>
       <c r="U237" s="3"/>
       <c r="V237" s="3"/>
       <c r="W237" s="3"/>
@@ -7724,7 +7733,7 @@
       <c r="Q238" s="3"/>
       <c r="R238" s="3"/>
       <c r="S238" s="3"/>
-      <c r="T238" s="3"/>
+      <c r="T238" s="24"/>
       <c r="U238" s="3"/>
       <c r="V238" s="3"/>
       <c r="W238" s="3"/>
@@ -7753,7 +7762,7 @@
       <c r="Q239" s="3"/>
       <c r="R239" s="3"/>
       <c r="S239" s="3"/>
-      <c r="T239" s="3"/>
+      <c r="T239" s="24"/>
       <c r="U239" s="3"/>
       <c r="V239" s="3"/>
       <c r="W239" s="3"/>
@@ -7782,7 +7791,7 @@
       <c r="Q240" s="3"/>
       <c r="R240" s="3"/>
       <c r="S240" s="3"/>
-      <c r="T240" s="3"/>
+      <c r="T240" s="24"/>
       <c r="U240" s="3"/>
       <c r="V240" s="3"/>
       <c r="W240" s="3"/>
@@ -7811,7 +7820,7 @@
       <c r="Q241" s="3"/>
       <c r="R241" s="3"/>
       <c r="S241" s="3"/>
-      <c r="T241" s="3"/>
+      <c r="T241" s="24"/>
       <c r="U241" s="3"/>
       <c r="V241" s="3"/>
       <c r="W241" s="3"/>
@@ -7840,7 +7849,7 @@
       <c r="Q242" s="3"/>
       <c r="R242" s="3"/>
       <c r="S242" s="3"/>
-      <c r="T242" s="3"/>
+      <c r="T242" s="24"/>
       <c r="U242" s="3"/>
       <c r="V242" s="3"/>
       <c r="W242" s="3"/>
@@ -7869,7 +7878,7 @@
       <c r="Q243" s="3"/>
       <c r="R243" s="3"/>
       <c r="S243" s="3"/>
-      <c r="T243" s="3"/>
+      <c r="T243" s="24"/>
       <c r="U243" s="3"/>
       <c r="V243" s="3"/>
       <c r="W243" s="3"/>
@@ -7898,7 +7907,7 @@
       <c r="Q244" s="3"/>
       <c r="R244" s="3"/>
       <c r="S244" s="3"/>
-      <c r="T244" s="3"/>
+      <c r="T244" s="24"/>
       <c r="U244" s="3"/>
       <c r="V244" s="3"/>
       <c r="W244" s="3"/>
@@ -7927,7 +7936,7 @@
       <c r="Q245" s="3"/>
       <c r="R245" s="3"/>
       <c r="S245" s="3"/>
-      <c r="T245" s="3"/>
+      <c r="T245" s="24"/>
       <c r="U245" s="3"/>
       <c r="V245" s="3"/>
       <c r="W245" s="3"/>
@@ -7956,7 +7965,7 @@
       <c r="Q246" s="3"/>
       <c r="R246" s="3"/>
       <c r="S246" s="3"/>
-      <c r="T246" s="3"/>
+      <c r="T246" s="24"/>
       <c r="U246" s="3"/>
       <c r="V246" s="3"/>
       <c r="W246" s="3"/>
@@ -7985,7 +7994,7 @@
       <c r="Q247" s="3"/>
       <c r="R247" s="3"/>
       <c r="S247" s="3"/>
-      <c r="T247" s="3"/>
+      <c r="T247" s="24"/>
       <c r="U247" s="3"/>
       <c r="V247" s="3"/>
       <c r="W247" s="3"/>
@@ -8014,7 +8023,7 @@
       <c r="Q248" s="3"/>
       <c r="R248" s="3"/>
       <c r="S248" s="3"/>
-      <c r="T248" s="3"/>
+      <c r="T248" s="24"/>
       <c r="U248" s="3"/>
       <c r="V248" s="3"/>
       <c r="W248" s="3"/>
@@ -8043,7 +8052,7 @@
       <c r="Q249" s="3"/>
       <c r="R249" s="3"/>
       <c r="S249" s="3"/>
-      <c r="T249" s="3"/>
+      <c r="T249" s="24"/>
       <c r="U249" s="3"/>
       <c r="V249" s="3"/>
       <c r="W249" s="3"/>
@@ -8072,7 +8081,7 @@
       <c r="Q250" s="3"/>
       <c r="R250" s="3"/>
       <c r="S250" s="3"/>
-      <c r="T250" s="3"/>
+      <c r="T250" s="24"/>
       <c r="U250" s="3"/>
       <c r="V250" s="3"/>
       <c r="W250" s="3"/>
@@ -8101,7 +8110,7 @@
       <c r="Q251" s="3"/>
       <c r="R251" s="3"/>
       <c r="S251" s="3"/>
-      <c r="T251" s="3"/>
+      <c r="T251" s="24"/>
       <c r="U251" s="3"/>
       <c r="V251" s="3"/>
       <c r="W251" s="3"/>
@@ -8130,7 +8139,7 @@
       <c r="Q252" s="3"/>
       <c r="R252" s="3"/>
       <c r="S252" s="3"/>
-      <c r="T252" s="3"/>
+      <c r="T252" s="24"/>
       <c r="U252" s="3"/>
       <c r="V252" s="3"/>
       <c r="W252" s="3"/>
@@ -8159,7 +8168,7 @@
       <c r="Q253" s="3"/>
       <c r="R253" s="3"/>
       <c r="S253" s="3"/>
-      <c r="T253" s="3"/>
+      <c r="T253" s="24"/>
       <c r="U253" s="3"/>
       <c r="V253" s="3"/>
       <c r="W253" s="3"/>
@@ -8188,7 +8197,7 @@
       <c r="Q254" s="3"/>
       <c r="R254" s="3"/>
       <c r="S254" s="3"/>
-      <c r="T254" s="3"/>
+      <c r="T254" s="24"/>
       <c r="U254" s="3"/>
       <c r="V254" s="3"/>
       <c r="W254" s="3"/>
@@ -8217,7 +8226,7 @@
       <c r="Q255" s="3"/>
       <c r="R255" s="3"/>
       <c r="S255" s="3"/>
-      <c r="T255" s="3"/>
+      <c r="T255" s="24"/>
       <c r="U255" s="3"/>
       <c r="V255" s="3"/>
       <c r="W255" s="3"/>
@@ -8246,7 +8255,7 @@
       <c r="Q256" s="3"/>
       <c r="R256" s="3"/>
       <c r="S256" s="3"/>
-      <c r="T256" s="3"/>
+      <c r="T256" s="24"/>
       <c r="U256" s="3"/>
       <c r="V256" s="3"/>
       <c r="W256" s="3"/>
@@ -8275,7 +8284,7 @@
       <c r="Q257" s="3"/>
       <c r="R257" s="3"/>
       <c r="S257" s="3"/>
-      <c r="T257" s="3"/>
+      <c r="T257" s="24"/>
       <c r="U257" s="3"/>
       <c r="V257" s="3"/>
       <c r="W257" s="3"/>
@@ -8304,7 +8313,7 @@
       <c r="Q258" s="3"/>
       <c r="R258" s="3"/>
       <c r="S258" s="3"/>
-      <c r="T258" s="3"/>
+      <c r="T258" s="24"/>
       <c r="U258" s="3"/>
       <c r="V258" s="3"/>
       <c r="W258" s="3"/>
@@ -8333,7 +8342,7 @@
       <c r="Q259" s="3"/>
       <c r="R259" s="3"/>
       <c r="S259" s="3"/>
-      <c r="T259" s="3"/>
+      <c r="T259" s="24"/>
       <c r="U259" s="3"/>
       <c r="V259" s="3"/>
       <c r="W259" s="3"/>
@@ -8362,7 +8371,7 @@
       <c r="Q260" s="3"/>
       <c r="R260" s="3"/>
       <c r="S260" s="3"/>
-      <c r="T260" s="3"/>
+      <c r="T260" s="24"/>
       <c r="U260" s="3"/>
       <c r="V260" s="3"/>
       <c r="W260" s="3"/>
@@ -8391,7 +8400,7 @@
       <c r="Q261" s="3"/>
       <c r="R261" s="3"/>
       <c r="S261" s="3"/>
-      <c r="T261" s="3"/>
+      <c r="T261" s="24"/>
       <c r="U261" s="3"/>
       <c r="V261" s="3"/>
       <c r="W261" s="3"/>
@@ -8420,7 +8429,7 @@
       <c r="Q262" s="3"/>
       <c r="R262" s="3"/>
       <c r="S262" s="3"/>
-      <c r="T262" s="3"/>
+      <c r="T262" s="24"/>
       <c r="U262" s="3"/>
       <c r="V262" s="3"/>
       <c r="W262" s="3"/>
@@ -8449,7 +8458,7 @@
       <c r="Q263" s="3"/>
       <c r="R263" s="3"/>
       <c r="S263" s="3"/>
-      <c r="T263" s="3"/>
+      <c r="T263" s="24"/>
       <c r="U263" s="3"/>
       <c r="V263" s="3"/>
       <c r="W263" s="3"/>
@@ -8478,7 +8487,7 @@
       <c r="Q264" s="3"/>
       <c r="R264" s="3"/>
       <c r="S264" s="3"/>
-      <c r="T264" s="3"/>
+      <c r="T264" s="24"/>
       <c r="U264" s="3"/>
       <c r="V264" s="3"/>
       <c r="W264" s="3"/>
@@ -8507,7 +8516,7 @@
       <c r="Q265" s="3"/>
       <c r="R265" s="3"/>
       <c r="S265" s="3"/>
-      <c r="T265" s="3"/>
+      <c r="T265" s="24"/>
       <c r="U265" s="3"/>
       <c r="V265" s="3"/>
       <c r="W265" s="3"/>
@@ -8536,7 +8545,7 @@
       <c r="Q266" s="3"/>
       <c r="R266" s="3"/>
       <c r="S266" s="3"/>
-      <c r="T266" s="3"/>
+      <c r="T266" s="24"/>
       <c r="U266" s="3"/>
       <c r="V266" s="3"/>
       <c r="W266" s="3"/>
@@ -8565,7 +8574,7 @@
       <c r="Q267" s="3"/>
       <c r="R267" s="3"/>
       <c r="S267" s="3"/>
-      <c r="T267" s="3"/>
+      <c r="T267" s="24"/>
       <c r="U267" s="3"/>
       <c r="V267" s="3"/>
       <c r="W267" s="3"/>
@@ -8594,7 +8603,7 @@
       <c r="Q268" s="3"/>
       <c r="R268" s="3"/>
       <c r="S268" s="3"/>
-      <c r="T268" s="3"/>
+      <c r="T268" s="24"/>
       <c r="U268" s="3"/>
       <c r="V268" s="3"/>
       <c r="W268" s="3"/>
@@ -8623,7 +8632,7 @@
       <c r="Q269" s="3"/>
       <c r="R269" s="3"/>
       <c r="S269" s="3"/>
-      <c r="T269" s="3"/>
+      <c r="T269" s="24"/>
       <c r="U269" s="3"/>
       <c r="V269" s="3"/>
       <c r="W269" s="3"/>
@@ -8652,7 +8661,7 @@
       <c r="Q270" s="3"/>
       <c r="R270" s="3"/>
       <c r="S270" s="3"/>
-      <c r="T270" s="3"/>
+      <c r="T270" s="24"/>
       <c r="U270" s="3"/>
       <c r="V270" s="3"/>
       <c r="W270" s="3"/>
@@ -8681,7 +8690,7 @@
       <c r="Q271" s="3"/>
       <c r="R271" s="3"/>
       <c r="S271" s="3"/>
-      <c r="T271" s="3"/>
+      <c r="T271" s="24"/>
       <c r="U271" s="3"/>
       <c r="V271" s="3"/>
       <c r="W271" s="3"/>
@@ -8710,7 +8719,7 @@
       <c r="Q272" s="3"/>
       <c r="R272" s="3"/>
       <c r="S272" s="3"/>
-      <c r="T272" s="3"/>
+      <c r="T272" s="24"/>
       <c r="U272" s="3"/>
       <c r="V272" s="3"/>
       <c r="W272" s="3"/>
@@ -8739,7 +8748,7 @@
       <c r="Q273" s="3"/>
       <c r="R273" s="3"/>
       <c r="S273" s="3"/>
-      <c r="T273" s="3"/>
+      <c r="T273" s="24"/>
       <c r="U273" s="3"/>
       <c r="V273" s="3"/>
       <c r="W273" s="3"/>
@@ -8768,7 +8777,7 @@
       <c r="Q274" s="3"/>
       <c r="R274" s="3"/>
       <c r="S274" s="3"/>
-      <c r="T274" s="3"/>
+      <c r="T274" s="24"/>
       <c r="U274" s="3"/>
       <c r="V274" s="3"/>
       <c r="W274" s="3"/>
@@ -8797,7 +8806,7 @@
       <c r="Q275" s="3"/>
       <c r="R275" s="3"/>
       <c r="S275" s="3"/>
-      <c r="T275" s="3"/>
+      <c r="T275" s="24"/>
       <c r="U275" s="3"/>
       <c r="V275" s="3"/>
       <c r="W275" s="3"/>
@@ -8826,7 +8835,7 @@
       <c r="Q276" s="3"/>
       <c r="R276" s="3"/>
       <c r="S276" s="3"/>
-      <c r="T276" s="3"/>
+      <c r="T276" s="24"/>
       <c r="U276" s="3"/>
       <c r="V276" s="3"/>
       <c r="W276" s="3"/>
@@ -8855,7 +8864,7 @@
       <c r="Q277" s="3"/>
       <c r="R277" s="3"/>
       <c r="S277" s="3"/>
-      <c r="T277" s="3"/>
+      <c r="T277" s="24"/>
       <c r="U277" s="3"/>
       <c r="V277" s="3"/>
       <c r="W277" s="3"/>
@@ -8884,7 +8893,7 @@
       <c r="Q278" s="3"/>
       <c r="R278" s="3"/>
       <c r="S278" s="3"/>
-      <c r="T278" s="3"/>
+      <c r="T278" s="24"/>
       <c r="U278" s="3"/>
       <c r="V278" s="3"/>
       <c r="W278" s="3"/>
@@ -8913,7 +8922,7 @@
       <c r="Q279" s="3"/>
       <c r="R279" s="3"/>
       <c r="S279" s="3"/>
-      <c r="T279" s="3"/>
+      <c r="T279" s="24"/>
       <c r="U279" s="3"/>
       <c r="V279" s="3"/>
       <c r="W279" s="3"/>
@@ -8942,7 +8951,7 @@
       <c r="Q280" s="3"/>
       <c r="R280" s="3"/>
       <c r="S280" s="3"/>
-      <c r="T280" s="3"/>
+      <c r="T280" s="24"/>
       <c r="U280" s="3"/>
       <c r="V280" s="3"/>
       <c r="W280" s="3"/>
@@ -8971,7 +8980,7 @@
       <c r="Q281" s="3"/>
       <c r="R281" s="3"/>
       <c r="S281" s="3"/>
-      <c r="T281" s="3"/>
+      <c r="T281" s="24"/>
       <c r="U281" s="3"/>
       <c r="V281" s="3"/>
       <c r="W281" s="3"/>
@@ -9000,7 +9009,7 @@
       <c r="Q282" s="3"/>
       <c r="R282" s="3"/>
       <c r="S282" s="3"/>
-      <c r="T282" s="3"/>
+      <c r="T282" s="24"/>
       <c r="U282" s="3"/>
       <c r="V282" s="3"/>
       <c r="W282" s="3"/>
@@ -9029,7 +9038,7 @@
       <c r="Q283" s="3"/>
       <c r="R283" s="3"/>
       <c r="S283" s="3"/>
-      <c r="T283" s="3"/>
+      <c r="T283" s="24"/>
       <c r="U283" s="3"/>
       <c r="V283" s="3"/>
       <c r="W283" s="3"/>
@@ -9058,7 +9067,7 @@
       <c r="Q284" s="3"/>
       <c r="R284" s="3"/>
       <c r="S284" s="3"/>
-      <c r="T284" s="3"/>
+      <c r="T284" s="24"/>
       <c r="U284" s="3"/>
       <c r="V284" s="3"/>
       <c r="W284" s="3"/>
@@ -9087,7 +9096,7 @@
       <c r="Q285" s="3"/>
       <c r="R285" s="3"/>
       <c r="S285" s="3"/>
-      <c r="T285" s="3"/>
+      <c r="T285" s="24"/>
       <c r="U285" s="3"/>
       <c r="V285" s="3"/>
       <c r="W285" s="3"/>
@@ -9116,7 +9125,7 @@
       <c r="Q286" s="3"/>
       <c r="R286" s="3"/>
       <c r="S286" s="3"/>
-      <c r="T286" s="3"/>
+      <c r="T286" s="24"/>
       <c r="U286" s="3"/>
       <c r="V286" s="3"/>
       <c r="W286" s="3"/>
@@ -9145,7 +9154,7 @@
       <c r="Q287" s="3"/>
       <c r="R287" s="3"/>
       <c r="S287" s="3"/>
-      <c r="T287" s="3"/>
+      <c r="T287" s="24"/>
       <c r="U287" s="3"/>
       <c r="V287" s="3"/>
       <c r="W287" s="3"/>
@@ -9174,7 +9183,7 @@
       <c r="Q288" s="3"/>
       <c r="R288" s="3"/>
       <c r="S288" s="3"/>
-      <c r="T288" s="3"/>
+      <c r="T288" s="24"/>
       <c r="U288" s="3"/>
       <c r="V288" s="3"/>
       <c r="W288" s="3"/>
@@ -9203,7 +9212,7 @@
       <c r="Q289" s="3"/>
       <c r="R289" s="3"/>
       <c r="S289" s="3"/>
-      <c r="T289" s="3"/>
+      <c r="T289" s="24"/>
       <c r="U289" s="3"/>
       <c r="V289" s="3"/>
       <c r="W289" s="3"/>
@@ -9232,7 +9241,7 @@
       <c r="Q290" s="3"/>
       <c r="R290" s="3"/>
       <c r="S290" s="3"/>
-      <c r="T290" s="3"/>
+      <c r="T290" s="24"/>
       <c r="U290" s="3"/>
       <c r="V290" s="3"/>
       <c r="W290" s="3"/>
@@ -9261,7 +9270,7 @@
       <c r="Q291" s="3"/>
       <c r="R291" s="3"/>
       <c r="S291" s="3"/>
-      <c r="T291" s="3"/>
+      <c r="T291" s="24"/>
       <c r="U291" s="3"/>
       <c r="V291" s="3"/>
       <c r="W291" s="3"/>
@@ -9290,7 +9299,7 @@
       <c r="Q292" s="3"/>
       <c r="R292" s="3"/>
       <c r="S292" s="3"/>
-      <c r="T292" s="3"/>
+      <c r="T292" s="24"/>
       <c r="U292" s="3"/>
       <c r="V292" s="3"/>
       <c r="W292" s="3"/>
@@ -9319,7 +9328,7 @@
       <c r="Q293" s="3"/>
       <c r="R293" s="3"/>
       <c r="S293" s="3"/>
-      <c r="T293" s="3"/>
+      <c r="T293" s="24"/>
       <c r="U293" s="3"/>
       <c r="V293" s="3"/>
       <c r="W293" s="3"/>
@@ -9348,7 +9357,7 @@
       <c r="Q294" s="3"/>
       <c r="R294" s="3"/>
       <c r="S294" s="3"/>
-      <c r="T294" s="3"/>
+      <c r="T294" s="24"/>
       <c r="U294" s="3"/>
       <c r="V294" s="3"/>
       <c r="W294" s="3"/>
@@ -9377,7 +9386,7 @@
       <c r="Q295" s="3"/>
       <c r="R295" s="3"/>
       <c r="S295" s="3"/>
-      <c r="T295" s="3"/>
+      <c r="T295" s="24"/>
       <c r="U295" s="3"/>
       <c r="V295" s="3"/>
       <c r="W295" s="3"/>
@@ -9406,7 +9415,7 @@
       <c r="Q296" s="3"/>
       <c r="R296" s="3"/>
       <c r="S296" s="3"/>
-      <c r="T296" s="3"/>
+      <c r="T296" s="24"/>
       <c r="U296" s="3"/>
       <c r="V296" s="3"/>
       <c r="W296" s="3"/>
@@ -9435,7 +9444,7 @@
       <c r="Q297" s="3"/>
       <c r="R297" s="3"/>
       <c r="S297" s="3"/>
-      <c r="T297" s="3"/>
+      <c r="T297" s="24"/>
       <c r="U297" s="3"/>
       <c r="V297" s="3"/>
       <c r="W297" s="3"/>
@@ -9464,7 +9473,7 @@
       <c r="Q298" s="3"/>
       <c r="R298" s="3"/>
       <c r="S298" s="3"/>
-      <c r="T298" s="3"/>
+      <c r="T298" s="24"/>
       <c r="U298" s="3"/>
       <c r="V298" s="3"/>
       <c r="W298" s="3"/>
@@ -9493,7 +9502,7 @@
       <c r="Q299" s="3"/>
       <c r="R299" s="3"/>
       <c r="S299" s="3"/>
-      <c r="T299" s="3"/>
+      <c r="T299" s="24"/>
       <c r="U299" s="3"/>
       <c r="V299" s="3"/>
       <c r="W299" s="3"/>
@@ -9522,7 +9531,7 @@
       <c r="Q300" s="3"/>
       <c r="R300" s="3"/>
       <c r="S300" s="3"/>
-      <c r="T300" s="3"/>
+      <c r="T300" s="24"/>
       <c r="U300" s="3"/>
       <c r="V300" s="3"/>
       <c r="W300" s="3"/>
@@ -9551,7 +9560,7 @@
       <c r="Q301" s="3"/>
       <c r="R301" s="3"/>
       <c r="S301" s="3"/>
-      <c r="T301" s="3"/>
+      <c r="T301" s="24"/>
       <c r="U301" s="3"/>
       <c r="V301" s="3"/>
       <c r="W301" s="3"/>
@@ -9580,7 +9589,7 @@
       <c r="Q302" s="3"/>
       <c r="R302" s="3"/>
       <c r="S302" s="3"/>
-      <c r="T302" s="3"/>
+      <c r="T302" s="24"/>
       <c r="U302" s="3"/>
       <c r="V302" s="3"/>
       <c r="W302" s="3"/>
@@ -9609,7 +9618,7 @@
       <c r="Q303" s="3"/>
       <c r="R303" s="3"/>
       <c r="S303" s="3"/>
-      <c r="T303" s="3"/>
+      <c r="T303" s="24"/>
       <c r="U303" s="3"/>
       <c r="V303" s="3"/>
       <c r="W303" s="3"/>
@@ -9638,7 +9647,7 @@
       <c r="Q304" s="3"/>
       <c r="R304" s="3"/>
       <c r="S304" s="3"/>
-      <c r="T304" s="3"/>
+      <c r="T304" s="24"/>
       <c r="U304" s="3"/>
       <c r="V304" s="3"/>
       <c r="W304" s="3"/>
@@ -9667,7 +9676,7 @@
       <c r="Q305" s="3"/>
       <c r="R305" s="3"/>
       <c r="S305" s="3"/>
-      <c r="T305" s="3"/>
+      <c r="T305" s="24"/>
       <c r="U305" s="3"/>
       <c r="V305" s="3"/>
       <c r="W305" s="3"/>
@@ -9696,7 +9705,7 @@
       <c r="Q306" s="3"/>
       <c r="R306" s="3"/>
       <c r="S306" s="3"/>
-      <c r="T306" s="3"/>
+      <c r="T306" s="24"/>
       <c r="U306" s="3"/>
       <c r="V306" s="3"/>
       <c r="W306" s="3"/>
@@ -9725,7 +9734,7 @@
       <c r="Q307" s="3"/>
       <c r="R307" s="3"/>
       <c r="S307" s="3"/>
-      <c r="T307" s="3"/>
+      <c r="T307" s="24"/>
       <c r="U307" s="3"/>
       <c r="V307" s="3"/>
       <c r="W307" s="3"/>
@@ -9754,7 +9763,7 @@
       <c r="Q308" s="3"/>
       <c r="R308" s="3"/>
       <c r="S308" s="3"/>
-      <c r="T308" s="3"/>
+      <c r="T308" s="24"/>
       <c r="U308" s="3"/>
       <c r="V308" s="3"/>
       <c r="W308" s="3"/>
@@ -9783,7 +9792,7 @@
       <c r="Q309" s="3"/>
       <c r="R309" s="3"/>
       <c r="S309" s="3"/>
-      <c r="T309" s="3"/>
+      <c r="T309" s="24"/>
       <c r="U309" s="3"/>
       <c r="V309" s="3"/>
       <c r="W309" s="3"/>
@@ -9812,7 +9821,7 @@
       <c r="Q310" s="3"/>
       <c r="R310" s="3"/>
       <c r="S310" s="3"/>
-      <c r="T310" s="3"/>
+      <c r="T310" s="24"/>
       <c r="U310" s="3"/>
       <c r="V310" s="3"/>
       <c r="W310" s="3"/>
@@ -9841,7 +9850,7 @@
       <c r="Q311" s="3"/>
       <c r="R311" s="3"/>
       <c r="S311" s="3"/>
-      <c r="T311" s="3"/>
+      <c r="T311" s="24"/>
       <c r="U311" s="3"/>
       <c r="V311" s="3"/>
       <c r="W311" s="3"/>
@@ -9870,7 +9879,7 @@
       <c r="Q312" s="3"/>
       <c r="R312" s="3"/>
       <c r="S312" s="3"/>
-      <c r="T312" s="3"/>
+      <c r="T312" s="24"/>
       <c r="U312" s="3"/>
       <c r="V312" s="3"/>
       <c r="W312" s="3"/>
@@ -9899,7 +9908,7 @@
       <c r="Q313" s="3"/>
       <c r="R313" s="3"/>
       <c r="S313" s="3"/>
-      <c r="T313" s="3"/>
+      <c r="T313" s="24"/>
       <c r="U313" s="3"/>
       <c r="V313" s="3"/>
       <c r="W313" s="3"/>
@@ -9928,7 +9937,7 @@
       <c r="Q314" s="3"/>
       <c r="R314" s="3"/>
       <c r="S314" s="3"/>
-      <c r="T314" s="3"/>
+      <c r="T314" s="24"/>
       <c r="U314" s="3"/>
       <c r="V314" s="3"/>
       <c r="W314" s="3"/>
@@ -9957,7 +9966,7 @@
       <c r="Q315" s="3"/>
       <c r="R315" s="3"/>
       <c r="S315" s="3"/>
-      <c r="T315" s="3"/>
+      <c r="T315" s="24"/>
       <c r="U315" s="3"/>
       <c r="V315" s="3"/>
       <c r="W315" s="3"/>
@@ -9986,7 +9995,7 @@
       <c r="Q316" s="3"/>
       <c r="R316" s="3"/>
       <c r="S316" s="3"/>
-      <c r="T316" s="3"/>
+      <c r="T316" s="24"/>
       <c r="U316" s="3"/>
       <c r="V316" s="3"/>
       <c r="W316" s="3"/>
@@ -10015,7 +10024,7 @@
       <c r="Q317" s="3"/>
       <c r="R317" s="3"/>
       <c r="S317" s="3"/>
-      <c r="T317" s="3"/>
+      <c r="T317" s="24"/>
       <c r="U317" s="3"/>
       <c r="V317" s="3"/>
       <c r="W317" s="3"/>
@@ -10044,7 +10053,7 @@
       <c r="Q318" s="3"/>
       <c r="R318" s="3"/>
       <c r="S318" s="3"/>
-      <c r="T318" s="3"/>
+      <c r="T318" s="24"/>
       <c r="U318" s="3"/>
       <c r="V318" s="3"/>
       <c r="W318" s="3"/>
@@ -10073,7 +10082,7 @@
       <c r="Q319" s="3"/>
       <c r="R319" s="3"/>
       <c r="S319" s="3"/>
-      <c r="T319" s="3"/>
+      <c r="T319" s="24"/>
       <c r="U319" s="3"/>
       <c r="V319" s="3"/>
       <c r="W319" s="3"/>
@@ -10102,7 +10111,7 @@
       <c r="Q320" s="3"/>
       <c r="R320" s="3"/>
       <c r="S320" s="3"/>
-      <c r="T320" s="3"/>
+      <c r="T320" s="24"/>
       <c r="U320" s="3"/>
       <c r="V320" s="3"/>
       <c r="W320" s="3"/>
@@ -10131,7 +10140,7 @@
       <c r="Q321" s="3"/>
       <c r="R321" s="3"/>
       <c r="S321" s="3"/>
-      <c r="T321" s="3"/>
+      <c r="T321" s="24"/>
       <c r="U321" s="3"/>
       <c r="V321" s="3"/>
       <c r="W321" s="3"/>
@@ -10160,7 +10169,7 @@
       <c r="Q322" s="3"/>
       <c r="R322" s="3"/>
       <c r="S322" s="3"/>
-      <c r="T322" s="3"/>
+      <c r="T322" s="24"/>
       <c r="U322" s="3"/>
       <c r="V322" s="3"/>
       <c r="W322" s="3"/>
@@ -10189,7 +10198,7 @@
       <c r="Q323" s="3"/>
       <c r="R323" s="3"/>
       <c r="S323" s="3"/>
-      <c r="T323" s="3"/>
+      <c r="T323" s="24"/>
       <c r="U323" s="3"/>
       <c r="V323" s="3"/>
       <c r="W323" s="3"/>
@@ -10218,7 +10227,7 @@
       <c r="Q324" s="3"/>
       <c r="R324" s="3"/>
       <c r="S324" s="3"/>
-      <c r="T324" s="3"/>
+      <c r="T324" s="24"/>
       <c r="U324" s="3"/>
       <c r="V324" s="3"/>
       <c r="W324" s="3"/>
@@ -10247,7 +10256,7 @@
       <c r="Q325" s="3"/>
       <c r="R325" s="3"/>
       <c r="S325" s="3"/>
-      <c r="T325" s="3"/>
+      <c r="T325" s="24"/>
       <c r="U325" s="3"/>
       <c r="V325" s="3"/>
       <c r="W325" s="3"/>
@@ -10276,7 +10285,7 @@
       <c r="Q326" s="3"/>
       <c r="R326" s="3"/>
       <c r="S326" s="3"/>
-      <c r="T326" s="3"/>
+      <c r="T326" s="24"/>
       <c r="U326" s="3"/>
       <c r="V326" s="3"/>
       <c r="W326" s="3"/>
@@ -10305,7 +10314,7 @@
       <c r="Q327" s="3"/>
       <c r="R327" s="3"/>
       <c r="S327" s="3"/>
-      <c r="T327" s="3"/>
+      <c r="T327" s="24"/>
       <c r="U327" s="3"/>
       <c r="V327" s="3"/>
       <c r="W327" s="3"/>
@@ -10334,7 +10343,7 @@
       <c r="Q328" s="3"/>
       <c r="R328" s="3"/>
       <c r="S328" s="3"/>
-      <c r="T328" s="3"/>
+      <c r="T328" s="24"/>
       <c r="U328" s="3"/>
       <c r="V328" s="3"/>
       <c r="W328" s="3"/>
@@ -10363,7 +10372,7 @@
       <c r="Q329" s="3"/>
       <c r="R329" s="3"/>
       <c r="S329" s="3"/>
-      <c r="T329" s="3"/>
+      <c r="T329" s="24"/>
       <c r="U329" s="3"/>
       <c r="V329" s="3"/>
       <c r="W329" s="3"/>
@@ -10392,7 +10401,7 @@
       <c r="Q330" s="3"/>
       <c r="R330" s="3"/>
       <c r="S330" s="3"/>
-      <c r="T330" s="3"/>
+      <c r="T330" s="24"/>
       <c r="U330" s="3"/>
       <c r="V330" s="3"/>
       <c r="W330" s="3"/>
@@ -10421,7 +10430,7 @@
       <c r="Q331" s="3"/>
       <c r="R331" s="3"/>
       <c r="S331" s="3"/>
-      <c r="T331" s="3"/>
+      <c r="T331" s="24"/>
       <c r="U331" s="3"/>
       <c r="V331" s="3"/>
       <c r="W331" s="3"/>
@@ -10450,7 +10459,7 @@
       <c r="Q332" s="3"/>
       <c r="R332" s="3"/>
       <c r="S332" s="3"/>
-      <c r="T332" s="3"/>
+      <c r="T332" s="24"/>
       <c r="U332" s="3"/>
       <c r="V332" s="3"/>
       <c r="W332" s="3"/>
@@ -10479,7 +10488,7 @@
       <c r="Q333" s="3"/>
       <c r="R333" s="3"/>
       <c r="S333" s="3"/>
-      <c r="T333" s="3"/>
+      <c r="T333" s="24"/>
       <c r="U333" s="3"/>
       <c r="V333" s="3"/>
       <c r="W333" s="3"/>
@@ -10508,7 +10517,7 @@
       <c r="Q334" s="3"/>
       <c r="R334" s="3"/>
       <c r="S334" s="3"/>
-      <c r="T334" s="3"/>
+      <c r="T334" s="24"/>
       <c r="U334" s="3"/>
       <c r="V334" s="3"/>
       <c r="W334" s="3"/>
@@ -10537,7 +10546,7 @@
       <c r="Q335" s="3"/>
       <c r="R335" s="3"/>
       <c r="S335" s="3"/>
-      <c r="T335" s="3"/>
+      <c r="T335" s="24"/>
       <c r="U335" s="3"/>
       <c r="V335" s="3"/>
       <c r="W335" s="3"/>
@@ -10566,7 +10575,7 @@
       <c r="Q336" s="3"/>
       <c r="R336" s="3"/>
       <c r="S336" s="3"/>
-      <c r="T336" s="3"/>
+      <c r="T336" s="24"/>
       <c r="U336" s="3"/>
       <c r="V336" s="3"/>
       <c r="W336" s="3"/>
@@ -10595,7 +10604,7 @@
       <c r="Q337" s="3"/>
       <c r="R337" s="3"/>
       <c r="S337" s="3"/>
-      <c r="T337" s="3"/>
+      <c r="T337" s="24"/>
       <c r="U337" s="3"/>
       <c r="V337" s="3"/>
       <c r="W337" s="3"/>
@@ -10624,7 +10633,7 @@
       <c r="Q338" s="3"/>
       <c r="R338" s="3"/>
       <c r="S338" s="3"/>
-      <c r="T338" s="3"/>
+      <c r="T338" s="24"/>
       <c r="U338" s="3"/>
       <c r="V338" s="3"/>
       <c r="W338" s="3"/>
@@ -10653,7 +10662,7 @@
       <c r="Q339" s="3"/>
       <c r="R339" s="3"/>
       <c r="S339" s="3"/>
-      <c r="T339" s="3"/>
+      <c r="T339" s="24"/>
       <c r="U339" s="3"/>
       <c r="V339" s="3"/>
       <c r="W339" s="3"/>
@@ -10682,7 +10691,7 @@
       <c r="Q340" s="3"/>
       <c r="R340" s="3"/>
       <c r="S340" s="3"/>
-      <c r="T340" s="3"/>
+      <c r="T340" s="24"/>
       <c r="U340" s="3"/>
       <c r="V340" s="3"/>
       <c r="W340" s="3"/>
@@ -10711,7 +10720,7 @@
       <c r="Q341" s="3"/>
       <c r="R341" s="3"/>
       <c r="S341" s="3"/>
-      <c r="T341" s="3"/>
+      <c r="T341" s="24"/>
       <c r="U341" s="3"/>
       <c r="V341" s="3"/>
       <c r="W341" s="3"/>
@@ -10740,7 +10749,7 @@
       <c r="Q342" s="3"/>
       <c r="R342" s="3"/>
       <c r="S342" s="3"/>
-      <c r="T342" s="3"/>
+      <c r="T342" s="24"/>
       <c r="U342" s="3"/>
       <c r="V342" s="3"/>
       <c r="W342" s="3"/>
@@ -10769,7 +10778,7 @@
       <c r="Q343" s="3"/>
       <c r="R343" s="3"/>
       <c r="S343" s="3"/>
-      <c r="T343" s="3"/>
+      <c r="T343" s="24"/>
       <c r="U343" s="3"/>
       <c r="V343" s="3"/>
       <c r="W343" s="3"/>
@@ -10798,7 +10807,7 @@
       <c r="Q344" s="3"/>
       <c r="R344" s="3"/>
       <c r="S344" s="3"/>
-      <c r="T344" s="3"/>
+      <c r="T344" s="24"/>
       <c r="U344" s="3"/>
       <c r="V344" s="3"/>
       <c r="W344" s="3"/>
@@ -10827,7 +10836,7 @@
       <c r="Q345" s="3"/>
       <c r="R345" s="3"/>
       <c r="S345" s="3"/>
-      <c r="T345" s="3"/>
+      <c r="T345" s="24"/>
       <c r="U345" s="3"/>
       <c r="V345" s="3"/>
       <c r="W345" s="3"/>
@@ -10856,7 +10865,7 @@
       <c r="Q346" s="3"/>
       <c r="R346" s="3"/>
       <c r="S346" s="3"/>
-      <c r="T346" s="3"/>
+      <c r="T346" s="24"/>
       <c r="U346" s="3"/>
       <c r="V346" s="3"/>
       <c r="W346" s="3"/>
@@ -10885,7 +10894,7 @@
       <c r="Q347" s="3"/>
       <c r="R347" s="3"/>
       <c r="S347" s="3"/>
-      <c r="T347" s="3"/>
+      <c r="T347" s="24"/>
       <c r="U347" s="3"/>
       <c r="V347" s="3"/>
       <c r="W347" s="3"/>
@@ -10914,7 +10923,7 @@
       <c r="Q348" s="3"/>
       <c r="R348" s="3"/>
       <c r="S348" s="3"/>
-      <c r="T348" s="3"/>
+      <c r="T348" s="24"/>
       <c r="U348" s="3"/>
       <c r="V348" s="3"/>
       <c r="W348" s="3"/>
@@ -10943,7 +10952,7 @@
       <c r="Q349" s="3"/>
       <c r="R349" s="3"/>
       <c r="S349" s="3"/>
-      <c r="T349" s="3"/>
+      <c r="T349" s="24"/>
       <c r="U349" s="3"/>
       <c r="V349" s="3"/>
       <c r="W349" s="3"/>
@@ -10972,7 +10981,7 @@
       <c r="Q350" s="3"/>
       <c r="R350" s="3"/>
       <c r="S350" s="3"/>
-      <c r="T350" s="3"/>
+      <c r="T350" s="24"/>
       <c r="U350" s="3"/>
       <c r="V350" s="3"/>
       <c r="W350" s="3"/>
@@ -11001,7 +11010,7 @@
       <c r="Q351" s="3"/>
       <c r="R351" s="3"/>
       <c r="S351" s="3"/>
-      <c r="T351" s="3"/>
+      <c r="T351" s="24"/>
       <c r="U351" s="3"/>
       <c r="V351" s="3"/>
       <c r="W351" s="3"/>
@@ -11030,7 +11039,7 @@
       <c r="Q352" s="3"/>
       <c r="R352" s="3"/>
       <c r="S352" s="3"/>
-      <c r="T352" s="3"/>
+      <c r="T352" s="24"/>
       <c r="U352" s="3"/>
       <c r="V352" s="3"/>
       <c r="W352" s="3"/>
@@ -11059,7 +11068,7 @@
       <c r="Q353" s="3"/>
       <c r="R353" s="3"/>
       <c r="S353" s="3"/>
-      <c r="T353" s="3"/>
+      <c r="T353" s="24"/>
       <c r="U353" s="3"/>
       <c r="V353" s="3"/>
       <c r="W353" s="3"/>
@@ -11088,7 +11097,7 @@
       <c r="Q354" s="3"/>
       <c r="R354" s="3"/>
       <c r="S354" s="3"/>
-      <c r="T354" s="3"/>
+      <c r="T354" s="24"/>
       <c r="U354" s="3"/>
       <c r="V354" s="3"/>
       <c r="W354" s="3"/>
@@ -11117,7 +11126,7 @@
       <c r="Q355" s="3"/>
       <c r="R355" s="3"/>
       <c r="S355" s="3"/>
-      <c r="T355" s="3"/>
+      <c r="T355" s="24"/>
       <c r="U355" s="3"/>
       <c r="V355" s="3"/>
       <c r="W355" s="3"/>
@@ -11146,7 +11155,7 @@
       <c r="Q356" s="3"/>
       <c r="R356" s="3"/>
       <c r="S356" s="3"/>
-      <c r="T356" s="3"/>
+      <c r="T356" s="24"/>
       <c r="U356" s="3"/>
       <c r="V356" s="3"/>
       <c r="W356" s="3"/>
@@ -11175,7 +11184,7 @@
       <c r="Q357" s="3"/>
       <c r="R357" s="3"/>
       <c r="S357" s="3"/>
-      <c r="T357" s="3"/>
+      <c r="T357" s="24"/>
       <c r="U357" s="3"/>
       <c r="V357" s="3"/>
       <c r="W357" s="3"/>
@@ -11204,7 +11213,7 @@
       <c r="Q358" s="3"/>
       <c r="R358" s="3"/>
       <c r="S358" s="3"/>
-      <c r="T358" s="3"/>
+      <c r="T358" s="24"/>
       <c r="U358" s="3"/>
       <c r="V358" s="3"/>
       <c r="W358" s="3"/>
@@ -11233,7 +11242,7 @@
       <c r="Q359" s="3"/>
       <c r="R359" s="3"/>
       <c r="S359" s="3"/>
-      <c r="T359" s="3"/>
+      <c r="T359" s="24"/>
       <c r="U359" s="3"/>
       <c r="V359" s="3"/>
       <c r="W359" s="3"/>
@@ -11262,7 +11271,7 @@
       <c r="Q360" s="3"/>
       <c r="R360" s="3"/>
       <c r="S360" s="3"/>
-      <c r="T360" s="3"/>
+      <c r="T360" s="24"/>
       <c r="U360" s="3"/>
       <c r="V360" s="3"/>
       <c r="W360" s="3"/>
@@ -11291,7 +11300,7 @@
       <c r="Q361" s="3"/>
       <c r="R361" s="3"/>
       <c r="S361" s="3"/>
-      <c r="T361" s="3"/>
+      <c r="T361" s="24"/>
       <c r="U361" s="3"/>
       <c r="V361" s="3"/>
       <c r="W361" s="3"/>
@@ -11320,7 +11329,7 @@
       <c r="Q362" s="3"/>
       <c r="R362" s="3"/>
       <c r="S362" s="3"/>
-      <c r="T362" s="3"/>
+      <c r="T362" s="24"/>
       <c r="U362" s="3"/>
       <c r="V362" s="3"/>
       <c r="W362" s="3"/>
@@ -11349,7 +11358,7 @@
       <c r="Q363" s="3"/>
       <c r="R363" s="3"/>
       <c r="S363" s="3"/>
-      <c r="T363" s="3"/>
+      <c r="T363" s="24"/>
       <c r="U363" s="3"/>
       <c r="V363" s="3"/>
       <c r="W363" s="3"/>
@@ -11378,7 +11387,7 @@
       <c r="Q364" s="3"/>
       <c r="R364" s="3"/>
       <c r="S364" s="3"/>
-      <c r="T364" s="3"/>
+      <c r="T364" s="24"/>
       <c r="U364" s="3"/>
       <c r="V364" s="3"/>
       <c r="W364" s="3"/>
@@ -11407,7 +11416,7 @@
       <c r="Q365" s="3"/>
       <c r="R365" s="3"/>
       <c r="S365" s="3"/>
-      <c r="T365" s="3"/>
+      <c r="T365" s="24"/>
       <c r="U365" s="3"/>
       <c r="V365" s="3"/>
       <c r="W365" s="3"/>
@@ -11436,7 +11445,7 @@
       <c r="Q366" s="3"/>
       <c r="R366" s="3"/>
       <c r="S366" s="3"/>
-      <c r="T366" s="3"/>
+      <c r="T366" s="24"/>
       <c r="U366" s="3"/>
       <c r="V366" s="3"/>
       <c r="W366" s="3"/>
@@ -11465,7 +11474,7 @@
       <c r="Q367" s="3"/>
       <c r="R367" s="3"/>
       <c r="S367" s="3"/>
-      <c r="T367" s="3"/>
+      <c r="T367" s="24"/>
       <c r="U367" s="3"/>
       <c r="V367" s="3"/>
       <c r="W367" s="3"/>
@@ -11494,7 +11503,7 @@
       <c r="Q368" s="3"/>
       <c r="R368" s="3"/>
       <c r="S368" s="3"/>
-      <c r="T368" s="3"/>
+      <c r="T368" s="24"/>
       <c r="U368" s="3"/>
       <c r="V368" s="3"/>
       <c r="W368" s="3"/>
@@ -11523,7 +11532,7 @@
       <c r="Q369" s="3"/>
       <c r="R369" s="3"/>
       <c r="S369" s="3"/>
-      <c r="T369" s="3"/>
+      <c r="T369" s="24"/>
       <c r="U369" s="3"/>
       <c r="V369" s="3"/>
       <c r="W369" s="3"/>
@@ -11552,7 +11561,7 @@
       <c r="Q370" s="3"/>
       <c r="R370" s="3"/>
       <c r="S370" s="3"/>
-      <c r="T370" s="3"/>
+      <c r="T370" s="24"/>
       <c r="U370" s="3"/>
       <c r="V370" s="3"/>
       <c r="W370" s="3"/>
@@ -11581,7 +11590,7 @@
       <c r="Q371" s="3"/>
       <c r="R371" s="3"/>
       <c r="S371" s="3"/>
-      <c r="T371" s="3"/>
+      <c r="T371" s="24"/>
       <c r="U371" s="3"/>
       <c r="V371" s="3"/>
       <c r="W371" s="3"/>
@@ -11610,7 +11619,7 @@
       <c r="Q372" s="3"/>
       <c r="R372" s="3"/>
       <c r="S372" s="3"/>
-      <c r="T372" s="3"/>
+      <c r="T372" s="24"/>
       <c r="U372" s="3"/>
       <c r="V372" s="3"/>
       <c r="W372" s="3"/>
@@ -11639,7 +11648,7 @@
       <c r="Q373" s="3"/>
       <c r="R373" s="3"/>
       <c r="S373" s="3"/>
-      <c r="T373" s="3"/>
+      <c r="T373" s="24"/>
       <c r="U373" s="3"/>
       <c r="V373" s="3"/>
       <c r="W373" s="3"/>
@@ -11668,7 +11677,7 @@
       <c r="Q374" s="3"/>
       <c r="R374" s="3"/>
       <c r="S374" s="3"/>
-      <c r="T374" s="3"/>
+      <c r="T374" s="24"/>
       <c r="U374" s="3"/>
       <c r="V374" s="3"/>
       <c r="W374" s="3"/>
@@ -11697,7 +11706,7 @@
       <c r="Q375" s="3"/>
       <c r="R375" s="3"/>
       <c r="S375" s="3"/>
-      <c r="T375" s="3"/>
+      <c r="T375" s="24"/>
       <c r="U375" s="3"/>
       <c r="V375" s="3"/>
       <c r="W375" s="3"/>
@@ -11726,7 +11735,7 @@
       <c r="Q376" s="3"/>
       <c r="R376" s="3"/>
       <c r="S376" s="3"/>
-      <c r="T376" s="3"/>
+      <c r="T376" s="24"/>
       <c r="U376" s="3"/>
       <c r="V376" s="3"/>
       <c r="W376" s="3"/>
@@ -11755,7 +11764,7 @@
       <c r="Q377" s="3"/>
       <c r="R377" s="3"/>
       <c r="S377" s="3"/>
-      <c r="T377" s="3"/>
+      <c r="T377" s="24"/>
       <c r="U377" s="3"/>
       <c r="V377" s="3"/>
       <c r="W377" s="3"/>
@@ -11784,7 +11793,7 @@
       <c r="Q378" s="3"/>
       <c r="R378" s="3"/>
       <c r="S378" s="3"/>
-      <c r="T378" s="3"/>
+      <c r="T378" s="24"/>
       <c r="U378" s="3"/>
       <c r="V378" s="3"/>
       <c r="W378" s="3"/>
@@ -11813,7 +11822,7 @@
       <c r="Q379" s="3"/>
       <c r="R379" s="3"/>
       <c r="S379" s="3"/>
-      <c r="T379" s="3"/>
+      <c r="T379" s="24"/>
       <c r="U379" s="3"/>
       <c r="V379" s="3"/>
       <c r="W379" s="3"/>
@@ -11842,7 +11851,7 @@
       <c r="Q380" s="3"/>
       <c r="R380" s="3"/>
       <c r="S380" s="3"/>
-      <c r="T380" s="3"/>
+      <c r="T380" s="24"/>
       <c r="U380" s="3"/>
       <c r="V380" s="3"/>
       <c r="W380" s="3"/>
@@ -11871,7 +11880,7 @@
       <c r="Q381" s="3"/>
       <c r="R381" s="3"/>
       <c r="S381" s="3"/>
-      <c r="T381" s="3"/>
+      <c r="T381" s="24"/>
       <c r="U381" s="3"/>
       <c r="V381" s="3"/>
       <c r="W381" s="3"/>
@@ -11900,7 +11909,7 @@
       <c r="Q382" s="3"/>
       <c r="R382" s="3"/>
       <c r="S382" s="3"/>
-      <c r="T382" s="3"/>
+      <c r="T382" s="24"/>
       <c r="U382" s="3"/>
       <c r="V382" s="3"/>
       <c r="W382" s="3"/>
@@ -11929,7 +11938,7 @@
       <c r="Q383" s="3"/>
       <c r="R383" s="3"/>
       <c r="S383" s="3"/>
-      <c r="T383" s="3"/>
+      <c r="T383" s="24"/>
       <c r="U383" s="3"/>
       <c r="V383" s="3"/>
       <c r="W383" s="3"/>
@@ -11958,7 +11967,7 @@
       <c r="Q384" s="3"/>
       <c r="R384" s="3"/>
       <c r="S384" s="3"/>
-      <c r="T384" s="3"/>
+      <c r="T384" s="24"/>
       <c r="U384" s="3"/>
       <c r="V384" s="3"/>
       <c r="W384" s="3"/>
@@ -11987,7 +11996,7 @@
       <c r="Q385" s="3"/>
       <c r="R385" s="3"/>
       <c r="S385" s="3"/>
-      <c r="T385" s="3"/>
+      <c r="T385" s="24"/>
       <c r="U385" s="3"/>
       <c r="V385" s="3"/>
       <c r="W385" s="3"/>
@@ -12016,7 +12025,7 @@
       <c r="Q386" s="3"/>
       <c r="R386" s="3"/>
       <c r="S386" s="3"/>
-      <c r="T386" s="3"/>
+      <c r="T386" s="24"/>
       <c r="U386" s="3"/>
       <c r="V386" s="3"/>
       <c r="W386" s="3"/>
@@ -12045,7 +12054,7 @@
       <c r="Q387" s="3"/>
       <c r="R387" s="3"/>
       <c r="S387" s="3"/>
-      <c r="T387" s="3"/>
+      <c r="T387" s="24"/>
       <c r="U387" s="3"/>
       <c r="V387" s="3"/>
       <c r="W387" s="3"/>
@@ -12074,7 +12083,7 @@
       <c r="Q388" s="3"/>
       <c r="R388" s="3"/>
       <c r="S388" s="3"/>
-      <c r="T388" s="3"/>
+      <c r="T388" s="24"/>
       <c r="U388" s="3"/>
       <c r="V388" s="3"/>
       <c r="W388" s="3"/>
@@ -12103,7 +12112,7 @@
       <c r="Q389" s="3"/>
       <c r="R389" s="3"/>
       <c r="S389" s="3"/>
-      <c r="T389" s="3"/>
+      <c r="T389" s="24"/>
       <c r="U389" s="3"/>
       <c r="V389" s="3"/>
       <c r="W389" s="3"/>
@@ -12132,7 +12141,7 @@
       <c r="Q390" s="3"/>
       <c r="R390" s="3"/>
       <c r="S390" s="3"/>
-      <c r="T390" s="3"/>
+      <c r="T390" s="24"/>
       <c r="U390" s="3"/>
       <c r="V390" s="3"/>
       <c r="W390" s="3"/>
@@ -12161,7 +12170,7 @@
       <c r="Q391" s="3"/>
       <c r="R391" s="3"/>
       <c r="S391" s="3"/>
-      <c r="T391" s="3"/>
+      <c r="T391" s="24"/>
       <c r="U391" s="3"/>
       <c r="V391" s="3"/>
       <c r="W391" s="3"/>
@@ -12190,7 +12199,7 @@
       <c r="Q392" s="3"/>
       <c r="R392" s="3"/>
       <c r="S392" s="3"/>
-      <c r="T392" s="3"/>
+      <c r="T392" s="24"/>
       <c r="U392" s="3"/>
       <c r="V392" s="3"/>
       <c r="W392" s="3"/>
@@ -12219,7 +12228,7 @@
       <c r="Q393" s="3"/>
       <c r="R393" s="3"/>
       <c r="S393" s="3"/>
-      <c r="T393" s="3"/>
+      <c r="T393" s="24"/>
       <c r="U393" s="3"/>
       <c r="V393" s="3"/>
       <c r="W393" s="3"/>
@@ -12248,7 +12257,7 @@
       <c r="Q394" s="3"/>
       <c r="R394" s="3"/>
       <c r="S394" s="3"/>
-      <c r="T394" s="3"/>
+      <c r="T394" s="24"/>
       <c r="U394" s="3"/>
       <c r="V394" s="3"/>
       <c r="W394" s="3"/>
@@ -12277,7 +12286,7 @@
       <c r="Q395" s="3"/>
       <c r="R395" s="3"/>
       <c r="S395" s="3"/>
-      <c r="T395" s="3"/>
+      <c r="T395" s="24"/>
       <c r="U395" s="3"/>
       <c r="V395" s="3"/>
       <c r="W395" s="3"/>
@@ -12306,7 +12315,7 @@
       <c r="Q396" s="3"/>
       <c r="R396" s="3"/>
       <c r="S396" s="3"/>
-      <c r="T396" s="3"/>
+      <c r="T396" s="24"/>
       <c r="U396" s="3"/>
       <c r="V396" s="3"/>
       <c r="W396" s="3"/>
@@ -12335,7 +12344,7 @@
       <c r="Q397" s="3"/>
       <c r="R397" s="3"/>
       <c r="S397" s="3"/>
-      <c r="T397" s="3"/>
+      <c r="T397" s="24"/>
       <c r="U397" s="3"/>
       <c r="V397" s="3"/>
       <c r="W397" s="3"/>
@@ -12364,7 +12373,7 @@
       <c r="Q398" s="3"/>
       <c r="R398" s="3"/>
       <c r="S398" s="3"/>
-      <c r="T398" s="3"/>
+      <c r="T398" s="24"/>
       <c r="U398" s="3"/>
       <c r="V398" s="3"/>
       <c r="W398" s="3"/>
@@ -12393,7 +12402,7 @@
       <c r="Q399" s="3"/>
       <c r="R399" s="3"/>
       <c r="S399" s="3"/>
-      <c r="T399" s="3"/>
+      <c r="T399" s="24"/>
       <c r="U399" s="3"/>
       <c r="V399" s="3"/>
       <c r="W399" s="3"/>
@@ -12422,7 +12431,7 @@
       <c r="Q400" s="3"/>
       <c r="R400" s="3"/>
       <c r="S400" s="3"/>
-      <c r="T400" s="3"/>
+      <c r="T400" s="24"/>
       <c r="U400" s="3"/>
       <c r="V400" s="3"/>
       <c r="W400" s="3"/>
@@ -12451,7 +12460,7 @@
       <c r="Q401" s="3"/>
       <c r="R401" s="3"/>
       <c r="S401" s="3"/>
-      <c r="T401" s="3"/>
+      <c r="T401" s="24"/>
       <c r="U401" s="3"/>
       <c r="V401" s="3"/>
       <c r="W401" s="3"/>
@@ -12480,7 +12489,7 @@
       <c r="Q402" s="3"/>
       <c r="R402" s="3"/>
       <c r="S402" s="3"/>
-      <c r="T402" s="3"/>
+      <c r="T402" s="24"/>
       <c r="U402" s="3"/>
       <c r="V402" s="3"/>
       <c r="W402" s="3"/>
@@ -12509,7 +12518,7 @@
       <c r="Q403" s="3"/>
       <c r="R403" s="3"/>
       <c r="S403" s="3"/>
-      <c r="T403" s="3"/>
+      <c r="T403" s="24"/>
       <c r="U403" s="3"/>
       <c r="V403" s="3"/>
       <c r="W403" s="3"/>
@@ -12538,7 +12547,7 @@
       <c r="Q404" s="3"/>
       <c r="R404" s="3"/>
       <c r="S404" s="3"/>
-      <c r="T404" s="3"/>
+      <c r="T404" s="24"/>
       <c r="U404" s="3"/>
       <c r="V404" s="3"/>
       <c r="W404" s="3"/>
@@ -12567,7 +12576,7 @@
       <c r="Q405" s="3"/>
       <c r="R405" s="3"/>
       <c r="S405" s="3"/>
-      <c r="T405" s="3"/>
+      <c r="T405" s="24"/>
       <c r="U405" s="3"/>
       <c r="V405" s="3"/>
       <c r="W405" s="3"/>
@@ -12596,7 +12605,7 @@
       <c r="Q406" s="3"/>
       <c r="R406" s="3"/>
       <c r="S406" s="3"/>
-      <c r="T406" s="3"/>
+      <c r="T406" s="24"/>
       <c r="U406" s="3"/>
       <c r="V406" s="3"/>
       <c r="W406" s="3"/>
@@ -12625,7 +12634,7 @@
       <c r="Q407" s="3"/>
       <c r="R407" s="3"/>
       <c r="S407" s="3"/>
-      <c r="T407" s="3"/>
+      <c r="T407" s="24"/>
       <c r="U407" s="3"/>
       <c r="V407" s="3"/>
       <c r="W407" s="3"/>
@@ -12654,7 +12663,7 @@
       <c r="Q408" s="3"/>
       <c r="R408" s="3"/>
       <c r="S408" s="3"/>
-      <c r="T408" s="3"/>
+      <c r="T408" s="24"/>
       <c r="U408" s="3"/>
       <c r="V408" s="3"/>
       <c r="W408" s="3"/>
@@ -12683,7 +12692,7 @@
       <c r="Q409" s="3"/>
       <c r="R409" s="3"/>
       <c r="S409" s="3"/>
-      <c r="T409" s="3"/>
+      <c r="T409" s="24"/>
       <c r="U409" s="3"/>
       <c r="V409" s="3"/>
       <c r="W409" s="3"/>
@@ -12712,7 +12721,7 @@
       <c r="Q410" s="3"/>
       <c r="R410" s="3"/>
       <c r="S410" s="3"/>
-      <c r="T410" s="3"/>
+      <c r="T410" s="24"/>
       <c r="U410" s="3"/>
       <c r="V410" s="3"/>
       <c r="W410" s="3"/>
@@ -12741,7 +12750,7 @@
       <c r="Q411" s="3"/>
       <c r="R411" s="3"/>
       <c r="S411" s="3"/>
-      <c r="T411" s="3"/>
+      <c r="T411" s="24"/>
       <c r="U411" s="3"/>
       <c r="V411" s="3"/>
       <c r="W411" s="3"/>
@@ -12770,7 +12779,7 @@
       <c r="Q412" s="3"/>
       <c r="R412" s="3"/>
       <c r="S412" s="3"/>
-      <c r="T412" s="3"/>
+      <c r="T412" s="24"/>
       <c r="U412" s="3"/>
       <c r="V412" s="3"/>
       <c r="W412" s="3"/>
@@ -12799,7 +12808,7 @@
       <c r="Q413" s="3"/>
       <c r="R413" s="3"/>
       <c r="S413" s="3"/>
-      <c r="T413" s="3"/>
+      <c r="T413" s="24"/>
       <c r="U413" s="3"/>
       <c r="V413" s="3"/>
       <c r="W413" s="3"/>
@@ -12828,7 +12837,7 @@
       <c r="Q414" s="3"/>
       <c r="R414" s="3"/>
       <c r="S414" s="3"/>
-      <c r="T414" s="3"/>
+      <c r="T414" s="24"/>
       <c r="U414" s="3"/>
       <c r="V414" s="3"/>
       <c r="W414" s="3"/>
@@ -12857,7 +12866,7 @@
       <c r="Q415" s="3"/>
       <c r="R415" s="3"/>
       <c r="S415" s="3"/>
-      <c r="T415" s="3"/>
+      <c r="T415" s="24"/>
       <c r="U415" s="3"/>
       <c r="V415" s="3"/>
       <c r="W415" s="3"/>
@@ -12886,7 +12895,7 @@
       <c r="Q416" s="3"/>
       <c r="R416" s="3"/>
       <c r="S416" s="3"/>
-      <c r="T416" s="3"/>
+      <c r="T416" s="24"/>
       <c r="U416" s="3"/>
       <c r="V416" s="3"/>
       <c r="W416" s="3"/>
@@ -12915,7 +12924,7 @@
       <c r="Q417" s="3"/>
       <c r="R417" s="3"/>
       <c r="S417" s="3"/>
-      <c r="T417" s="3"/>
+      <c r="T417" s="24"/>
       <c r="U417" s="3"/>
       <c r="V417" s="3"/>
       <c r="W417" s="3"/>
@@ -12944,7 +12953,7 @@
       <c r="Q418" s="3"/>
       <c r="R418" s="3"/>
       <c r="S418" s="3"/>
-      <c r="T418" s="3"/>
+      <c r="T418" s="24"/>
       <c r="U418" s="3"/>
       <c r="V418" s="3"/>
       <c r="W418" s="3"/>
@@ -12973,7 +12982,7 @@
       <c r="Q419" s="3"/>
       <c r="R419" s="3"/>
       <c r="S419" s="3"/>
-      <c r="T419" s="3"/>
+      <c r="T419" s="24"/>
       <c r="U419" s="3"/>
       <c r="V419" s="3"/>
       <c r="W419" s="3"/>
@@ -13002,7 +13011,7 @@
       <c r="Q420" s="3"/>
       <c r="R420" s="3"/>
       <c r="S420" s="3"/>
-      <c r="T420" s="3"/>
+      <c r="T420" s="24"/>
       <c r="U420" s="3"/>
       <c r="V420" s="3"/>
       <c r="W420" s="3"/>
@@ -13031,7 +13040,7 @@
       <c r="Q421" s="3"/>
       <c r="R421" s="3"/>
       <c r="S421" s="3"/>
-      <c r="T421" s="3"/>
+      <c r="T421" s="24"/>
       <c r="U421" s="3"/>
       <c r="V421" s="3"/>
       <c r="W421" s="3"/>
@@ -13060,7 +13069,7 @@
       <c r="Q422" s="3"/>
       <c r="R422" s="3"/>
       <c r="S422" s="3"/>
-      <c r="T422" s="3"/>
+      <c r="T422" s="24"/>
       <c r="U422" s="3"/>
       <c r="V422" s="3"/>
       <c r="W422" s="3"/>
@@ -13089,7 +13098,7 @@
       <c r="Q423" s="3"/>
       <c r="R423" s="3"/>
       <c r="S423" s="3"/>
-      <c r="T423" s="3"/>
+      <c r="T423" s="24"/>
       <c r="U423" s="3"/>
       <c r="V423" s="3"/>
       <c r="W423" s="3"/>
@@ -13118,7 +13127,7 @@
       <c r="Q424" s="3"/>
       <c r="R424" s="3"/>
       <c r="S424" s="3"/>
-      <c r="T424" s="3"/>
+      <c r="T424" s="24"/>
       <c r="U424" s="3"/>
       <c r="V424" s="3"/>
       <c r="W424" s="3"/>
@@ -13147,7 +13156,7 @@
       <c r="Q425" s="3"/>
       <c r="R425" s="3"/>
       <c r="S425" s="3"/>
-      <c r="T425" s="3"/>
+      <c r="T425" s="24"/>
       <c r="U425" s="3"/>
       <c r="V425" s="3"/>
       <c r="W425" s="3"/>
@@ -13176,7 +13185,7 @@
       <c r="Q426" s="3"/>
       <c r="R426" s="3"/>
       <c r="S426" s="3"/>
-      <c r="T426" s="3"/>
+      <c r="T426" s="24"/>
       <c r="U426" s="3"/>
       <c r="V426" s="3"/>
       <c r="W426" s="3"/>
@@ -13205,7 +13214,7 @@
       <c r="Q427" s="3"/>
       <c r="R427" s="3"/>
       <c r="S427" s="3"/>
-      <c r="T427" s="3"/>
+      <c r="T427" s="24"/>
       <c r="U427" s="3"/>
       <c r="V427" s="3"/>
       <c r="W427" s="3"/>
@@ -13234,7 +13243,7 @@
       <c r="Q428" s="3"/>
       <c r="R428" s="3"/>
       <c r="S428" s="3"/>
-      <c r="T428" s="3"/>
+      <c r="T428" s="24"/>
       <c r="U428" s="3"/>
       <c r="V428" s="3"/>
       <c r="W428" s="3"/>
@@ -13263,7 +13272,7 @@
       <c r="Q429" s="3"/>
       <c r="R429" s="3"/>
       <c r="S429" s="3"/>
-      <c r="T429" s="3"/>
+      <c r="T429" s="24"/>
       <c r="U429" s="3"/>
       <c r="V429" s="3"/>
       <c r="W429" s="3"/>
@@ -13292,7 +13301,7 @@
       <c r="Q430" s="3"/>
       <c r="R430" s="3"/>
       <c r="S430" s="3"/>
-      <c r="T430" s="3"/>
+      <c r="T430" s="24"/>
       <c r="U430" s="3"/>
       <c r="V430" s="3"/>
       <c r="W430" s="3"/>
@@ -13321,7 +13330,7 @@
       <c r="Q431" s="3"/>
       <c r="R431" s="3"/>
       <c r="S431" s="3"/>
-      <c r="T431" s="3"/>
+      <c r="T431" s="24"/>
       <c r="U431" s="3"/>
       <c r="V431" s="3"/>
       <c r="W431" s="3"/>
@@ -13350,7 +13359,7 @@
       <c r="Q432" s="3"/>
       <c r="R432" s="3"/>
       <c r="S432" s="3"/>
-      <c r="T432" s="3"/>
+      <c r="T432" s="24"/>
       <c r="U432" s="3"/>
       <c r="V432" s="3"/>
       <c r="W432" s="3"/>
@@ -13379,7 +13388,7 @@
       <c r="Q433" s="3"/>
       <c r="R433" s="3"/>
       <c r="S433" s="3"/>
-      <c r="T433" s="3"/>
+      <c r="T433" s="24"/>
       <c r="U433" s="3"/>
       <c r="V433" s="3"/>
       <c r="W433" s="3"/>
@@ -13408,7 +13417,7 @@
       <c r="Q434" s="3"/>
       <c r="R434" s="3"/>
       <c r="S434" s="3"/>
-      <c r="T434" s="3"/>
+      <c r="T434" s="24"/>
       <c r="U434" s="3"/>
       <c r="V434" s="3"/>
       <c r="W434" s="3"/>
@@ -13437,7 +13446,7 @@
       <c r="Q435" s="3"/>
       <c r="R435" s="3"/>
       <c r="S435" s="3"/>
-      <c r="T435" s="3"/>
+      <c r="T435" s="24"/>
       <c r="U435" s="3"/>
       <c r="V435" s="3"/>
       <c r="W435" s="3"/>
@@ -13466,7 +13475,7 @@
       <c r="Q436" s="3"/>
       <c r="R436" s="3"/>
       <c r="S436" s="3"/>
-      <c r="T436" s="3"/>
+      <c r="T436" s="24"/>
       <c r="U436" s="3"/>
       <c r="V436" s="3"/>
       <c r="W436" s="3"/>
@@ -13495,7 +13504,7 @@
       <c r="Q437" s="3"/>
       <c r="R437" s="3"/>
       <c r="S437" s="3"/>
-      <c r="T437" s="3"/>
+      <c r="T437" s="24"/>
       <c r="U437" s="3"/>
       <c r="V437" s="3"/>
       <c r="W437" s="3"/>
@@ -13524,7 +13533,7 @@
       <c r="Q438" s="3"/>
       <c r="R438" s="3"/>
       <c r="S438" s="3"/>
-      <c r="T438" s="3"/>
+      <c r="T438" s="24"/>
       <c r="U438" s="3"/>
       <c r="V438" s="3"/>
       <c r="W438" s="3"/>
@@ -13553,7 +13562,7 @@
       <c r="Q439" s="3"/>
       <c r="R439" s="3"/>
       <c r="S439" s="3"/>
-      <c r="T439" s="3"/>
+      <c r="T439" s="24"/>
       <c r="U439" s="3"/>
       <c r="V439" s="3"/>
       <c r="W439" s="3"/>
@@ -13582,7 +13591,7 @@
       <c r="Q440" s="3"/>
       <c r="R440" s="3"/>
       <c r="S440" s="3"/>
-      <c r="T440" s="3"/>
+      <c r="T440" s="24"/>
       <c r="U440" s="3"/>
       <c r="V440" s="3"/>
       <c r="W440" s="3"/>
@@ -13611,7 +13620,7 @@
       <c r="Q441" s="3"/>
       <c r="R441" s="3"/>
       <c r="S441" s="3"/>
-      <c r="T441" s="3"/>
+      <c r="T441" s="24"/>
       <c r="U441" s="3"/>
       <c r="V441" s="3"/>
       <c r="W441" s="3"/>
@@ -13640,7 +13649,7 @@
       <c r="Q442" s="3"/>
       <c r="R442" s="3"/>
       <c r="S442" s="3"/>
-      <c r="T442" s="3"/>
+      <c r="T442" s="24"/>
       <c r="U442" s="3"/>
       <c r="V442" s="3"/>
       <c r="W442" s="3"/>
@@ -13669,7 +13678,7 @@
       <c r="Q443" s="3"/>
       <c r="R443" s="3"/>
       <c r="S443" s="3"/>
-      <c r="T443" s="3"/>
+      <c r="T443" s="24"/>
       <c r="U443" s="3"/>
       <c r="V443" s="3"/>
       <c r="W443" s="3"/>
@@ -13698,7 +13707,7 @@
       <c r="Q444" s="3"/>
       <c r="R444" s="3"/>
       <c r="S444" s="3"/>
-      <c r="T444" s="3"/>
+      <c r="T444" s="24"/>
       <c r="U444" s="3"/>
       <c r="V444" s="3"/>
       <c r="W444" s="3"/>
@@ -13727,7 +13736,7 @@
       <c r="Q445" s="3"/>
       <c r="R445" s="3"/>
       <c r="S445" s="3"/>
-      <c r="T445" s="3"/>
+      <c r="T445" s="24"/>
       <c r="U445" s="3"/>
       <c r="V445" s="3"/>
       <c r="W445" s="3"/>
@@ -13756,7 +13765,7 @@
       <c r="Q446" s="3"/>
       <c r="R446" s="3"/>
       <c r="S446" s="3"/>
-      <c r="T446" s="3"/>
+      <c r="T446" s="24"/>
       <c r="U446" s="3"/>
       <c r="V446" s="3"/>
       <c r="W446" s="3"/>
@@ -13785,7 +13794,7 @@
       <c r="Q447" s="3"/>
       <c r="R447" s="3"/>
       <c r="S447" s="3"/>
-      <c r="T447" s="3"/>
+      <c r="T447" s="24"/>
       <c r="U447" s="3"/>
       <c r="V447" s="3"/>
       <c r="W447" s="3"/>
@@ -13814,7 +13823,7 @@
       <c r="Q448" s="3"/>
       <c r="R448" s="3"/>
       <c r="S448" s="3"/>
-      <c r="T448" s="3"/>
+      <c r="T448" s="24"/>
       <c r="U448" s="3"/>
       <c r="V448" s="3"/>
       <c r="W448" s="3"/>
@@ -13843,7 +13852,7 @@
       <c r="Q449" s="3"/>
       <c r="R449" s="3"/>
       <c r="S449" s="3"/>
-      <c r="T449" s="3"/>
+      <c r="T449" s="24"/>
       <c r="U449" s="3"/>
       <c r="V449" s="3"/>
       <c r="W449" s="3"/>
@@ -13872,7 +13881,7 @@
       <c r="Q450" s="3"/>
       <c r="R450" s="3"/>
       <c r="S450" s="3"/>
-      <c r="T450" s="3"/>
+      <c r="T450" s="24"/>
       <c r="U450" s="3"/>
       <c r="V450" s="3"/>
       <c r="W450" s="3"/>
@@ -13901,7 +13910,7 @@
       <c r="Q451" s="3"/>
       <c r="R451" s="3"/>
       <c r="S451" s="3"/>
-      <c r="T451" s="3"/>
+      <c r="T451" s="24"/>
       <c r="U451" s="3"/>
       <c r="V451" s="3"/>
       <c r="W451" s="3"/>
@@ -13930,7 +13939,7 @@
       <c r="Q452" s="3"/>
       <c r="R452" s="3"/>
       <c r="S452" s="3"/>
-      <c r="T452" s="3"/>
+      <c r="T452" s="24"/>
       <c r="U452" s="3"/>
       <c r="V452" s="3"/>
       <c r="W452" s="3"/>
@@ -13959,7 +13968,7 @@
       <c r="Q453" s="3"/>
       <c r="R453" s="3"/>
       <c r="S453" s="3"/>
-      <c r="T453" s="3"/>
+      <c r="T453" s="24"/>
       <c r="U453" s="3"/>
       <c r="V453" s="3"/>
       <c r="W453" s="3"/>
@@ -13988,7 +13997,7 @@
       <c r="Q454" s="3"/>
       <c r="R454" s="3"/>
       <c r="S454" s="3"/>
-      <c r="T454" s="3"/>
+      <c r="T454" s="24"/>
       <c r="U454" s="3"/>
       <c r="V454" s="3"/>
       <c r="W454" s="3"/>
@@ -14017,7 +14026,7 @@
       <c r="Q455" s="3"/>
       <c r="R455" s="3"/>
       <c r="S455" s="3"/>
-      <c r="T455" s="3"/>
+      <c r="T455" s="24"/>
       <c r="U455" s="3"/>
       <c r="V455" s="3"/>
       <c r="W455" s="3"/>
@@ -14046,7 +14055,7 @@
       <c r="Q456" s="3"/>
       <c r="R456" s="3"/>
       <c r="S456" s="3"/>
-      <c r="T456" s="3"/>
+      <c r="T456" s="24"/>
       <c r="U456" s="3"/>
       <c r="V456" s="3"/>
       <c r="W456" s="3"/>
@@ -14075,7 +14084,7 @@
       <c r="Q457" s="3"/>
       <c r="R457" s="3"/>
       <c r="S457" s="3"/>
-      <c r="T457" s="3"/>
+      <c r="T457" s="24"/>
       <c r="U457" s="3"/>
       <c r="V457" s="3"/>
       <c r="W457" s="3"/>
@@ -14104,7 +14113,7 @@
       <c r="Q458" s="3"/>
       <c r="R458" s="3"/>
       <c r="S458" s="3"/>
-      <c r="T458" s="3"/>
+      <c r="T458" s="24"/>
       <c r="U458" s="3"/>
       <c r="V458" s="3"/>
       <c r="W458" s="3"/>
@@ -14133,7 +14142,7 @@
       <c r="Q459" s="3"/>
       <c r="R459" s="3"/>
       <c r="S459" s="3"/>
-      <c r="T459" s="3"/>
+      <c r="T459" s="24"/>
       <c r="U459" s="3"/>
       <c r="V459" s="3"/>
       <c r="W459" s="3"/>
@@ -14162,7 +14171,7 @@
       <c r="Q460" s="3"/>
       <c r="R460" s="3"/>
       <c r="S460" s="3"/>
-      <c r="T460" s="3"/>
+      <c r="T460" s="24"/>
       <c r="U460" s="3"/>
       <c r="V460" s="3"/>
       <c r="W460" s="3"/>
@@ -14191,7 +14200,7 @@
       <c r="Q461" s="3"/>
       <c r="R461" s="3"/>
       <c r="S461" s="3"/>
-      <c r="T461" s="3"/>
+      <c r="T461" s="24"/>
       <c r="U461" s="3"/>
       <c r="V461" s="3"/>
       <c r="W461" s="3"/>
@@ -14220,7 +14229,7 @@
       <c r="Q462" s="3"/>
       <c r="R462" s="3"/>
       <c r="S462" s="3"/>
-      <c r="T462" s="3"/>
+      <c r="T462" s="24"/>
       <c r="U462" s="3"/>
       <c r="V462" s="3"/>
       <c r="W462" s="3"/>
@@ -14249,7 +14258,7 @@
       <c r="Q463" s="3"/>
       <c r="R463" s="3"/>
       <c r="S463" s="3"/>
-      <c r="T463" s="3"/>
+      <c r="T463" s="24"/>
       <c r="U463" s="3"/>
       <c r="V463" s="3"/>
       <c r="W463" s="3"/>
@@ -14278,7 +14287,7 @@
       <c r="Q464" s="3"/>
       <c r="R464" s="3"/>
       <c r="S464" s="3"/>
-      <c r="T464" s="3"/>
+      <c r="T464" s="24"/>
       <c r="U464" s="3"/>
       <c r="V464" s="3"/>
       <c r="W464" s="3"/>
@@ -14307,7 +14316,7 @@
       <c r="Q465" s="3"/>
       <c r="R465" s="3"/>
       <c r="S465" s="3"/>
-      <c r="T465" s="3"/>
+      <c r="T465" s="24"/>
       <c r="U465" s="3"/>
       <c r="V465" s="3"/>
       <c r="W465" s="3"/>
@@ -14336,7 +14345,7 @@
       <c r="Q466" s="3"/>
       <c r="R466" s="3"/>
       <c r="S466" s="3"/>
-      <c r="T466" s="3"/>
+      <c r="T466" s="24"/>
       <c r="U466" s="3"/>
       <c r="V466" s="3"/>
       <c r="W466" s="3"/>
@@ -14365,7 +14374,7 @@
       <c r="Q467" s="3"/>
       <c r="R467" s="3"/>
       <c r="S467" s="3"/>
-      <c r="T467" s="3"/>
+      <c r="T467" s="24"/>
       <c r="U467" s="3"/>
       <c r="V467" s="3"/>
       <c r="W467" s="3"/>
@@ -14394,7 +14403,7 @@
       <c r="Q468" s="3"/>
       <c r="R468" s="3"/>
       <c r="S468" s="3"/>
-      <c r="T468" s="3"/>
+      <c r="T468" s="24"/>
       <c r="U468" s="3"/>
       <c r="V468" s="3"/>
       <c r="W468" s="3"/>
@@ -14423,7 +14432,7 @@
       <c r="Q469" s="3"/>
       <c r="R469" s="3"/>
       <c r="S469" s="3"/>
-      <c r="T469" s="3"/>
+      <c r="T469" s="24"/>
       <c r="U469" s="3"/>
       <c r="V469" s="3"/>
       <c r="W469" s="3"/>
@@ -14452,7 +14461,7 @@
       <c r="Q470" s="3"/>
       <c r="R470" s="3"/>
       <c r="S470" s="3"/>
-      <c r="T470" s="3"/>
+      <c r="T470" s="24"/>
       <c r="U470" s="3"/>
       <c r="V470" s="3"/>
       <c r="W470" s="3"/>
@@ -14481,7 +14490,7 @@
       <c r="Q471" s="3"/>
       <c r="R471" s="3"/>
       <c r="S471" s="3"/>
-      <c r="T471" s="3"/>
+      <c r="T471" s="24"/>
       <c r="U471" s="3"/>
       <c r="V471" s="3"/>
       <c r="W471" s="3"/>
@@ -14510,7 +14519,7 @@
       <c r="Q472" s="3"/>
       <c r="R472" s="3"/>
       <c r="S472" s="3"/>
-      <c r="T472" s="3"/>
+      <c r="T472" s="24"/>
       <c r="U472" s="3"/>
       <c r="V472" s="3"/>
       <c r="W472" s="3"/>
@@ -14539,7 +14548,7 @@
       <c r="Q473" s="3"/>
       <c r="R473" s="3"/>
       <c r="S473" s="3"/>
-      <c r="T473" s="3"/>
+      <c r="T473" s="24"/>
       <c r="U473" s="3"/>
       <c r="V473" s="3"/>
       <c r="W473" s="3"/>
@@ -14568,7 +14577,7 @@
       <c r="Q474" s="3"/>
       <c r="R474" s="3"/>
       <c r="S474" s="3"/>
-      <c r="T474" s="3"/>
+      <c r="T474" s="24"/>
       <c r="U474" s="3"/>
       <c r="V474" s="3"/>
       <c r="W474" s="3"/>
@@ -14597,7 +14606,7 @@
       <c r="Q475" s="3"/>
       <c r="R475" s="3"/>
       <c r="S475" s="3"/>
-      <c r="T475" s="3"/>
+      <c r="T475" s="24"/>
       <c r="U475" s="3"/>
       <c r="V475" s="3"/>
       <c r="W475" s="3"/>
@@ -14626,7 +14635,7 @@
       <c r="Q476" s="3"/>
       <c r="R476" s="3"/>
       <c r="S476" s="3"/>
-      <c r="T476" s="3"/>
+      <c r="T476" s="24"/>
       <c r="U476" s="3"/>
       <c r="V476" s="3"/>
       <c r="W476" s="3"/>
@@ -14655,7 +14664,7 @@
       <c r="Q477" s="3"/>
       <c r="R477" s="3"/>
       <c r="S477" s="3"/>
-      <c r="T477" s="3"/>
+      <c r="T477" s="24"/>
       <c r="U477" s="3"/>
       <c r="V477" s="3"/>
       <c r="W477" s="3"/>
@@ -14684,7 +14693,7 @@
       <c r="Q478" s="3"/>
       <c r="R478" s="3"/>
       <c r="S478" s="3"/>
-      <c r="T478" s="3"/>
+      <c r="T478" s="24"/>
       <c r="U478" s="3"/>
       <c r="V478" s="3"/>
       <c r="W478" s="3"/>
@@ -14713,7 +14722,7 @@
       <c r="Q479" s="3"/>
       <c r="R479" s="3"/>
       <c r="S479" s="3"/>
-      <c r="T479" s="3"/>
+      <c r="T479" s="24"/>
       <c r="U479" s="3"/>
       <c r="V479" s="3"/>
       <c r="W479" s="3"/>
@@ -14742,7 +14751,7 @@
       <c r="Q480" s="3"/>
       <c r="R480" s="3"/>
       <c r="S480" s="3"/>
-      <c r="T480" s="3"/>
+      <c r="T480" s="24"/>
       <c r="U480" s="3"/>
       <c r="V480" s="3"/>
       <c r="W480" s="3"/>
@@ -14771,7 +14780,7 @@
       <c r="Q481" s="3"/>
       <c r="R481" s="3"/>
       <c r="S481" s="3"/>
-      <c r="T481" s="3"/>
+      <c r="T481" s="24"/>
       <c r="U481" s="3"/>
       <c r="V481" s="3"/>
       <c r="W481" s="3"/>
@@ -14800,7 +14809,7 @@
       <c r="Q482" s="3"/>
       <c r="R482" s="3"/>
       <c r="S482" s="3"/>
-      <c r="T482" s="3"/>
+      <c r="T482" s="24"/>
       <c r="U482" s="3"/>
       <c r="V482" s="3"/>
       <c r="W482" s="3"/>
@@ -14829,7 +14838,7 @@
       <c r="Q483" s="3"/>
       <c r="R483" s="3"/>
       <c r="S483" s="3"/>
-      <c r="T483" s="3"/>
+      <c r="T483" s="24"/>
       <c r="U483" s="3"/>
       <c r="V483" s="3"/>
       <c r="W483" s="3"/>
@@ -14858,7 +14867,7 @@
       <c r="Q484" s="3"/>
       <c r="R484" s="3"/>
       <c r="S484" s="3"/>
-      <c r="T484" s="3"/>
+      <c r="T484" s="24"/>
       <c r="U484" s="3"/>
       <c r="V484" s="3"/>
       <c r="W484" s="3"/>
@@ -14887,7 +14896,7 @@
       <c r="Q485" s="3"/>
       <c r="R485" s="3"/>
       <c r="S485" s="3"/>
-      <c r="T485" s="3"/>
+      <c r="T485" s="24"/>
       <c r="U485" s="3"/>
       <c r="V485" s="3"/>
       <c r="W485" s="3"/>
@@ -14916,7 +14925,7 @@
       <c r="Q486" s="3"/>
       <c r="R486" s="3"/>
       <c r="S486" s="3"/>
-      <c r="T486" s="3"/>
+      <c r="T486" s="24"/>
       <c r="U486" s="3"/>
       <c r="V486" s="3"/>
       <c r="W486" s="3"/>
@@ -14945,7 +14954,7 @@
       <c r="Q487" s="3"/>
       <c r="R487" s="3"/>
       <c r="S487" s="3"/>
-      <c r="T487" s="3"/>
+      <c r="T487" s="24"/>
       <c r="U487" s="3"/>
       <c r="V487" s="3"/>
       <c r="W487" s="3"/>
@@ -14974,7 +14983,7 @@
       <c r="Q488" s="3"/>
       <c r="R488" s="3"/>
       <c r="S488" s="3"/>
-      <c r="T488" s="3"/>
+      <c r="T488" s="24"/>
       <c r="U488" s="3"/>
       <c r="V488" s="3"/>
       <c r="W488" s="3"/>
@@ -15003,7 +15012,7 @@
       <c r="Q489" s="3"/>
       <c r="R489" s="3"/>
       <c r="S489" s="3"/>
-      <c r="T489" s="3"/>
+      <c r="T489" s="24"/>
       <c r="U489" s="3"/>
       <c r="V489" s="3"/>
       <c r="W489" s="3"/>
@@ -15032,7 +15041,7 @@
       <c r="Q490" s="3"/>
       <c r="R490" s="3"/>
       <c r="S490" s="3"/>
-      <c r="T490" s="3"/>
+      <c r="T490" s="24"/>
       <c r="U490" s="3"/>
       <c r="V490" s="3"/>
       <c r="W490" s="3"/>
@@ -15061,7 +15070,7 @@
       <c r="Q491" s="3"/>
       <c r="R491" s="3"/>
       <c r="S491" s="3"/>
-      <c r="T491" s="3"/>
+      <c r="T491" s="24"/>
       <c r="U491" s="3"/>
       <c r="V491" s="3"/>
       <c r="W491" s="3"/>
@@ -15090,7 +15099,7 @@
       <c r="Q492" s="3"/>
       <c r="R492" s="3"/>
       <c r="S492" s="3"/>
-      <c r="T492" s="3"/>
+      <c r="T492" s="24"/>
       <c r="U492" s="3"/>
       <c r="V492" s="3"/>
       <c r="W492" s="3"/>
@@ -15119,7 +15128,7 @@
       <c r="Q493" s="3"/>
       <c r="R493" s="3"/>
       <c r="S493" s="3"/>
-      <c r="T493" s="3"/>
+      <c r="T493" s="24"/>
       <c r="U493" s="3"/>
       <c r="V493" s="3"/>
       <c r="W493" s="3"/>
@@ -15148,7 +15157,7 @@
       <c r="Q494" s="3"/>
       <c r="R494" s="3"/>
       <c r="S494" s="3"/>
-      <c r="T494" s="3"/>
+      <c r="T494" s="24"/>
       <c r="U494" s="3"/>
       <c r="V494" s="3"/>
       <c r="W494" s="3"/>
@@ -15177,7 +15186,7 @@
       <c r="Q495" s="3"/>
       <c r="R495" s="3"/>
       <c r="S495" s="3"/>
-      <c r="T495" s="3"/>
+      <c r="T495" s="24"/>
       <c r="U495" s="3"/>
       <c r="V495" s="3"/>
       <c r="W495" s="3"/>
@@ -15206,7 +15215,7 @@
       <c r="Q496" s="3"/>
       <c r="R496" s="3"/>
       <c r="S496" s="3"/>
-      <c r="T496" s="3"/>
+      <c r="T496" s="24"/>
       <c r="U496" s="3"/>
       <c r="V496" s="3"/>
       <c r="W496" s="3"/>
@@ -15235,7 +15244,7 @@
       <c r="Q497" s="3"/>
       <c r="R497" s="3"/>
       <c r="S497" s="3"/>
-      <c r="T497" s="3"/>
+      <c r="T497" s="24"/>
       <c r="U497" s="3"/>
       <c r="V497" s="3"/>
       <c r="W497" s="3"/>
@@ -15264,7 +15273,7 @@
       <c r="Q498" s="3"/>
       <c r="R498" s="3"/>
       <c r="S498" s="3"/>
-      <c r="T498" s="3"/>
+      <c r="T498" s="24"/>
       <c r="U498" s="3"/>
       <c r="V498" s="3"/>
       <c r="W498" s="3"/>
@@ -15293,7 +15302,7 @@
       <c r="Q499" s="3"/>
       <c r="R499" s="3"/>
       <c r="S499" s="3"/>
-      <c r="T499" s="3"/>
+      <c r="T499" s="24"/>
       <c r="U499" s="3"/>
       <c r="V499" s="3"/>
       <c r="W499" s="3"/>
@@ -15322,7 +15331,7 @@
       <c r="Q500" s="3"/>
       <c r="R500" s="3"/>
       <c r="S500" s="3"/>
-      <c r="T500" s="3"/>
+      <c r="T500" s="24"/>
       <c r="U500" s="3"/>
       <c r="V500" s="3"/>
       <c r="W500" s="3"/>
@@ -15351,7 +15360,7 @@
       <c r="Q501" s="3"/>
       <c r="R501" s="3"/>
       <c r="S501" s="3"/>
-      <c r="T501" s="3"/>
+      <c r="T501" s="24"/>
       <c r="U501" s="3"/>
       <c r="V501" s="3"/>
       <c r="W501" s="3"/>
@@ -15380,7 +15389,7 @@
       <c r="Q502" s="3"/>
       <c r="R502" s="3"/>
       <c r="S502" s="3"/>
-      <c r="T502" s="3"/>
+      <c r="T502" s="24"/>
       <c r="U502" s="3"/>
       <c r="V502" s="3"/>
       <c r="W502" s="3"/>
@@ -15409,7 +15418,7 @@
       <c r="Q503" s="3"/>
       <c r="R503" s="3"/>
       <c r="S503" s="3"/>
-      <c r="T503" s="3"/>
+      <c r="T503" s="24"/>
       <c r="U503" s="3"/>
       <c r="V503" s="3"/>
       <c r="W503" s="3"/>
@@ -15438,7 +15447,7 @@
       <c r="Q504" s="3"/>
       <c r="R504" s="3"/>
       <c r="S504" s="3"/>
-      <c r="T504" s="3"/>
+      <c r="T504" s="24"/>
       <c r="U504" s="3"/>
       <c r="V504" s="3"/>
       <c r="W504" s="3"/>
@@ -15467,7 +15476,7 @@
       <c r="Q505" s="3"/>
       <c r="R505" s="3"/>
       <c r="S505" s="3"/>
-      <c r="T505" s="3"/>
+      <c r="T505" s="24"/>
       <c r="U505" s="3"/>
       <c r="V505" s="3"/>
       <c r="W505" s="3"/>
@@ -15496,7 +15505,7 @@
       <c r="Q506" s="3"/>
       <c r="R506" s="3"/>
       <c r="S506" s="3"/>
-      <c r="T506" s="3"/>
+      <c r="T506" s="24"/>
       <c r="U506" s="3"/>
       <c r="V506" s="3"/>
       <c r="W506" s="3"/>
@@ -15525,7 +15534,7 @@
       <c r="Q507" s="3"/>
       <c r="R507" s="3"/>
       <c r="S507" s="3"/>
-      <c r="T507" s="3"/>
+      <c r="T507" s="24"/>
       <c r="U507" s="3"/>
       <c r="V507" s="3"/>
       <c r="W507" s="3"/>
@@ -15554,7 +15563,7 @@
       <c r="Q508" s="3"/>
       <c r="R508" s="3"/>
       <c r="S508" s="3"/>
-      <c r="T508" s="3"/>
+      <c r="T508" s="24"/>
       <c r="U508" s="3"/>
       <c r="V508" s="3"/>
       <c r="W508" s="3"/>
@@ -15583,7 +15592,7 @@
       <c r="Q509" s="3"/>
       <c r="R509" s="3"/>
       <c r="S509" s="3"/>
-      <c r="T509" s="3"/>
+      <c r="T509" s="24"/>
       <c r="U509" s="3"/>
       <c r="V509" s="3"/>
       <c r="W509" s="3"/>
@@ -15612,7 +15621,7 @@
       <c r="Q510" s="3"/>
       <c r="R510" s="3"/>
       <c r="S510" s="3"/>
-      <c r="T510" s="3"/>
+      <c r="T510" s="24"/>
       <c r="U510" s="3"/>
       <c r="V510" s="3"/>
       <c r="W510" s="3"/>
@@ -15641,7 +15650,7 @@
       <c r="Q511" s="3"/>
       <c r="R511" s="3"/>
       <c r="S511" s="3"/>
-      <c r="T511" s="3"/>
+      <c r="T511" s="24"/>
       <c r="U511" s="3"/>
       <c r="V511" s="3"/>
       <c r="W511" s="3"/>
@@ -15670,7 +15679,7 @@
       <c r="Q512" s="3"/>
       <c r="R512" s="3"/>
       <c r="S512" s="3"/>
-      <c r="T512" s="3"/>
+      <c r="T512" s="24"/>
       <c r="U512" s="3"/>
       <c r="V512" s="3"/>
       <c r="W512" s="3"/>
@@ -15699,7 +15708,7 @@
       <c r="Q513" s="3"/>
       <c r="R513" s="3"/>
       <c r="S513" s="3"/>
-      <c r="T513" s="3"/>
+      <c r="T513" s="24"/>
       <c r="U513" s="3"/>
       <c r="V513" s="3"/>
       <c r="W513" s="3"/>
@@ -15728,7 +15737,7 @@
       <c r="Q514" s="3"/>
       <c r="R514" s="3"/>
       <c r="S514" s="3"/>
-      <c r="T514" s="3"/>
+      <c r="T514" s="24"/>
       <c r="U514" s="3"/>
       <c r="V514" s="3"/>
       <c r="W514" s="3"/>
@@ -15757,7 +15766,7 @@
       <c r="Q515" s="3"/>
       <c r="R515" s="3"/>
       <c r="S515" s="3"/>
-      <c r="T515" s="3"/>
+      <c r="T515" s="24"/>
       <c r="U515" s="3"/>
       <c r="V515" s="3"/>
       <c r="W515" s="3"/>
@@ -15786,7 +15795,7 @@
       <c r="Q516" s="3"/>
       <c r="R516" s="3"/>
       <c r="S516" s="3"/>
-      <c r="T516" s="3"/>
+      <c r="T516" s="24"/>
       <c r="U516" s="3"/>
       <c r="V516" s="3"/>
       <c r="W516" s="3"/>
@@ -15815,7 +15824,7 @@
       <c r="Q517" s="3"/>
       <c r="R517" s="3"/>
       <c r="S517" s="3"/>
-      <c r="T517" s="3"/>
+      <c r="T517" s="24"/>
       <c r="U517" s="3"/>
       <c r="V517" s="3"/>
       <c r="W517" s="3"/>
@@ -15844,7 +15853,7 @@
       <c r="Q518" s="3"/>
       <c r="R518" s="3"/>
       <c r="S518" s="3"/>
-      <c r="T518" s="3"/>
+      <c r="T518" s="24"/>
       <c r="U518" s="3"/>
       <c r="V518" s="3"/>
       <c r="W518" s="3"/>
@@ -15873,7 +15882,7 @@
       <c r="Q519" s="3"/>
       <c r="R519" s="3"/>
       <c r="S519" s="3"/>
-      <c r="T519" s="3"/>
+      <c r="T519" s="24"/>
       <c r="U519" s="3"/>
       <c r="V519" s="3"/>
       <c r="W519" s="3"/>
@@ -15902,7 +15911,7 @@
       <c r="Q520" s="3"/>
       <c r="R520" s="3"/>
       <c r="S520" s="3"/>
-      <c r="T520" s="3"/>
+      <c r="T520" s="24"/>
       <c r="U520" s="3"/>
       <c r="V520" s="3"/>
       <c r="W520" s="3"/>
@@ -15931,7 +15940,7 @@
       <c r="Q521" s="3"/>
       <c r="R521" s="3"/>
       <c r="S521" s="3"/>
-      <c r="T521" s="3"/>
+      <c r="T521" s="24"/>
       <c r="U521" s="3"/>
       <c r="V521" s="3"/>
       <c r="W521" s="3"/>
@@ -15960,7 +15969,7 @@
       <c r="Q522" s="3"/>
       <c r="R522" s="3"/>
       <c r="S522" s="3"/>
-      <c r="T522" s="3"/>
+      <c r="T522" s="24"/>
       <c r="U522" s="3"/>
       <c r="V522" s="3"/>
       <c r="W522" s="3"/>
@@ -15989,7 +15998,7 @@
       <c r="Q523" s="3"/>
       <c r="R523" s="3"/>
       <c r="S523" s="3"/>
-      <c r="T523" s="3"/>
+      <c r="T523" s="24"/>
       <c r="U523" s="3"/>
       <c r="V523" s="3"/>
       <c r="W523" s="3"/>
@@ -16018,7 +16027,7 @@
       <c r="Q524" s="3"/>
       <c r="R524" s="3"/>
       <c r="S524" s="3"/>
-      <c r="T524" s="3"/>
+      <c r="T524" s="24"/>
       <c r="U524" s="3"/>
       <c r="V524" s="3"/>
       <c r="W524" s="3"/>
@@ -16047,7 +16056,7 @@
       <c r="Q525" s="3"/>
       <c r="R525" s="3"/>
       <c r="S525" s="3"/>
-      <c r="T525" s="3"/>
+      <c r="T525" s="24"/>
       <c r="U525" s="3"/>
       <c r="V525" s="3"/>
       <c r="W525" s="3"/>
@@ -16076,7 +16085,7 @@
       <c r="Q526" s="3"/>
       <c r="R526" s="3"/>
       <c r="S526" s="3"/>
-      <c r="T526" s="3"/>
+      <c r="T526" s="24"/>
       <c r="U526" s="3"/>
       <c r="V526" s="3"/>
       <c r="W526" s="3"/>
@@ -16105,7 +16114,7 @@
       <c r="Q527" s="3"/>
       <c r="R527" s="3"/>
       <c r="S527" s="3"/>
-      <c r="T527" s="3"/>
+      <c r="T527" s="24"/>
       <c r="U527" s="3"/>
       <c r="V527" s="3"/>
       <c r="W527" s="3"/>
@@ -16134,7 +16143,7 @@
       <c r="Q528" s="3"/>
       <c r="R528" s="3"/>
       <c r="S528" s="3"/>
-      <c r="T528" s="3"/>
+      <c r="T528" s="24"/>
       <c r="U528" s="3"/>
       <c r="V528" s="3"/>
       <c r="W528" s="3"/>
@@ -16163,7 +16172,7 @@
       <c r="Q529" s="3"/>
       <c r="R529" s="3"/>
       <c r="S529" s="3"/>
-      <c r="T529" s="3"/>
+      <c r="T529" s="24"/>
       <c r="U529" s="3"/>
       <c r="V529" s="3"/>
       <c r="W529" s="3"/>
@@ -16192,7 +16201,7 @@
       <c r="Q530" s="3"/>
       <c r="R530" s="3"/>
       <c r="S530" s="3"/>
-      <c r="T530" s="3"/>
+      <c r="T530" s="24"/>
       <c r="U530" s="3"/>
       <c r="V530" s="3"/>
       <c r="W530" s="3"/>
@@ -16221,7 +16230,7 @@
       <c r="Q531" s="3"/>
       <c r="R531" s="3"/>
       <c r="S531" s="3"/>
-      <c r="T531" s="3"/>
+      <c r="T531" s="24"/>
       <c r="U531" s="3"/>
       <c r="V531" s="3"/>
       <c r="W531" s="3"/>
@@ -16250,7 +16259,7 @@
       <c r="Q532" s="3"/>
       <c r="R532" s="3"/>
       <c r="S532" s="3"/>
-      <c r="T532" s="3"/>
+      <c r="T532" s="24"/>
       <c r="U532" s="3"/>
       <c r="V532" s="3"/>
       <c r="W532" s="3"/>
@@ -16279,7 +16288,7 @@
       <c r="Q533" s="3"/>
       <c r="R533" s="3"/>
       <c r="S533" s="3"/>
-      <c r="T533" s="3"/>
+      <c r="T533" s="24"/>
       <c r="U533" s="3"/>
       <c r="V533" s="3"/>
       <c r="W533" s="3"/>
@@ -16308,7 +16317,7 @@
       <c r="Q534" s="3"/>
       <c r="R534" s="3"/>
       <c r="S534" s="3"/>
-      <c r="T534" s="3"/>
+      <c r="T534" s="24"/>
       <c r="U534" s="3"/>
       <c r="V534" s="3"/>
       <c r="W534" s="3"/>
@@ -16337,7 +16346,7 @@
       <c r="Q535" s="3"/>
       <c r="R535" s="3"/>
       <c r="S535" s="3"/>
-      <c r="T535" s="3"/>
+      <c r="T535" s="24"/>
       <c r="U535" s="3"/>
       <c r="V535" s="3"/>
       <c r="W535" s="3"/>
@@ -16366,7 +16375,7 @@
       <c r="Q536" s="3"/>
       <c r="R536" s="3"/>
       <c r="S536" s="3"/>
-      <c r="T536" s="3"/>
+      <c r="T536" s="24"/>
       <c r="U536" s="3"/>
       <c r="V536" s="3"/>
       <c r="W536" s="3"/>
@@ -16395,7 +16404,7 @@
       <c r="Q537" s="3"/>
       <c r="R537" s="3"/>
       <c r="S537" s="3"/>
-      <c r="T537" s="3"/>
+      <c r="T537" s="24"/>
       <c r="U537" s="3"/>
       <c r="V537" s="3"/>
       <c r="W537" s="3"/>
@@ -16424,7 +16433,7 @@
       <c r="Q538" s="3"/>
       <c r="R538" s="3"/>
       <c r="S538" s="3"/>
-      <c r="T538" s="3"/>
+      <c r="T538" s="24"/>
       <c r="U538" s="3"/>
       <c r="V538" s="3"/>
       <c r="W538" s="3"/>
@@ -16453,7 +16462,7 @@
       <c r="Q539" s="3"/>
       <c r="R539" s="3"/>
       <c r="S539" s="3"/>
-      <c r="T539" s="3"/>
+      <c r="T539" s="24"/>
       <c r="U539" s="3"/>
       <c r="V539" s="3"/>
       <c r="W539" s="3"/>
@@ -16482,7 +16491,7 @@
       <c r="Q540" s="3"/>
       <c r="R540" s="3"/>
       <c r="S540" s="3"/>
-      <c r="T540" s="3"/>
+      <c r="T540" s="24"/>
       <c r="U540" s="3"/>
       <c r="V540" s="3"/>
       <c r="W540" s="3"/>
@@ -16511,7 +16520,7 @@
       <c r="Q541" s="3"/>
       <c r="R541" s="3"/>
       <c r="S541" s="3"/>
-      <c r="T541" s="3"/>
+      <c r="T541" s="24"/>
       <c r="U541" s="3"/>
       <c r="V541" s="3"/>
       <c r="W541" s="3"/>
@@ -16540,7 +16549,7 @@
       <c r="Q542" s="3"/>
       <c r="R542" s="3"/>
       <c r="S542" s="3"/>
-      <c r="T542" s="3"/>
+      <c r="T542" s="24"/>
       <c r="U542" s="3"/>
       <c r="V542" s="3"/>
       <c r="W542" s="3"/>
@@ -16569,7 +16578,7 @@
       <c r="Q543" s="3"/>
       <c r="R543" s="3"/>
       <c r="S543" s="3"/>
-      <c r="T543" s="3"/>
+      <c r="T543" s="24"/>
       <c r="U543" s="3"/>
       <c r="V543" s="3"/>
       <c r="W543" s="3"/>
@@ -16598,7 +16607,7 @@
       <c r="Q544" s="3"/>
       <c r="R544" s="3"/>
       <c r="S544" s="3"/>
-      <c r="T544" s="3"/>
+      <c r="T544" s="24"/>
       <c r="U544" s="3"/>
       <c r="V544" s="3"/>
       <c r="W544" s="3"/>
@@ -16627,7 +16636,7 @@
       <c r="Q545" s="3"/>
       <c r="R545" s="3"/>
       <c r="S545" s="3"/>
-      <c r="T545" s="3"/>
+      <c r="T545" s="24"/>
       <c r="U545" s="3"/>
       <c r="V545" s="3"/>
       <c r="W545" s="3"/>
@@ -16656,7 +16665,7 @@
       <c r="Q546" s="3"/>
       <c r="R546" s="3"/>
       <c r="S546" s="3"/>
-      <c r="T546" s="3"/>
+      <c r="T546" s="24"/>
       <c r="U546" s="3"/>
       <c r="V546" s="3"/>
       <c r="W546" s="3"/>
@@ -16685,7 +16694,7 @@
       <c r="Q547" s="3"/>
       <c r="R547" s="3"/>
       <c r="S547" s="3"/>
-      <c r="T547" s="3"/>
+      <c r="T547" s="24"/>
       <c r="U547" s="3"/>
       <c r="V547" s="3"/>
       <c r="W547" s="3"/>
@@ -16714,7 +16723,7 @@
       <c r="Q548" s="3"/>
       <c r="R548" s="3"/>
       <c r="S548" s="3"/>
-      <c r="T548" s="3"/>
+      <c r="T548" s="24"/>
       <c r="U548" s="3"/>
       <c r="V548" s="3"/>
       <c r="W548" s="3"/>
@@ -16743,7 +16752,7 @@
       <c r="Q549" s="3"/>
       <c r="R549" s="3"/>
       <c r="S549" s="3"/>
-      <c r="T549" s="3"/>
+      <c r="T549" s="24"/>
       <c r="U549" s="3"/>
       <c r="V549" s="3"/>
       <c r="W549" s="3"/>
@@ -16772,7 +16781,7 @@
       <c r="Q550" s="3"/>
       <c r="R550" s="3"/>
       <c r="S550" s="3"/>
-      <c r="T550" s="3"/>
+      <c r="T550" s="24"/>
       <c r="U550" s="3"/>
       <c r="V550" s="3"/>
       <c r="W550" s="3"/>
@@ -16801,7 +16810,7 @@
       <c r="Q551" s="3"/>
       <c r="R551" s="3"/>
       <c r="S551" s="3"/>
-      <c r="T551" s="3"/>
+      <c r="T551" s="24"/>
       <c r="U551" s="3"/>
       <c r="V551" s="3"/>
       <c r="W551" s="3"/>
@@ -16830,7 +16839,7 @@
       <c r="Q552" s="3"/>
       <c r="R552" s="3"/>
       <c r="S552" s="3"/>
-      <c r="T552" s="3"/>
+      <c r="T552" s="24"/>
       <c r="U552" s="3"/>
       <c r="V552" s="3"/>
       <c r="W552" s="3"/>
@@ -16859,7 +16868,7 @@
       <c r="Q553" s="3"/>
       <c r="R553" s="3"/>
       <c r="S553" s="3"/>
-      <c r="T553" s="3"/>
+      <c r="T553" s="24"/>
       <c r="U553" s="3"/>
       <c r="V553" s="3"/>
       <c r="W553" s="3"/>
@@ -16888,7 +16897,7 @@
       <c r="Q554" s="3"/>
       <c r="R554" s="3"/>
       <c r="S554" s="3"/>
-      <c r="T554" s="3"/>
+      <c r="T554" s="24"/>
       <c r="U554" s="3"/>
       <c r="V554" s="3"/>
       <c r="W554" s="3"/>
@@ -16917,7 +16926,7 @@
       <c r="Q555" s="3"/>
       <c r="R555" s="3"/>
       <c r="S555" s="3"/>
-      <c r="T555" s="3"/>
+      <c r="T555" s="24"/>
       <c r="U555" s="3"/>
       <c r="V555" s="3"/>
       <c r="W555" s="3"/>
@@ -16946,7 +16955,7 @@
       <c r="Q556" s="3"/>
       <c r="R556" s="3"/>
       <c r="S556" s="3"/>
-      <c r="T556" s="3"/>
+      <c r="T556" s="24"/>
       <c r="U556" s="3"/>
       <c r="V556" s="3"/>
       <c r="W556" s="3"/>
@@ -16975,7 +16984,7 @@
       <c r="Q557" s="3"/>
       <c r="R557" s="3"/>
       <c r="S557" s="3"/>
-      <c r="T557" s="3"/>
+      <c r="T557" s="24"/>
       <c r="U557" s="3"/>
       <c r="V557" s="3"/>
       <c r="W557" s="3"/>
@@ -17004,7 +17013,7 @@
       <c r="Q558" s="3"/>
       <c r="R558" s="3"/>
       <c r="S558" s="3"/>
-      <c r="T558" s="3"/>
+      <c r="T558" s="24"/>
       <c r="U558" s="3"/>
       <c r="V558" s="3"/>
       <c r="W558" s="3"/>
@@ -17033,7 +17042,7 @@
       <c r="Q559" s="3"/>
       <c r="R559" s="3"/>
       <c r="S559" s="3"/>
-      <c r="T559" s="3"/>
+      <c r="T559" s="24"/>
       <c r="U559" s="3"/>
       <c r="V559" s="3"/>
       <c r="W559" s="3"/>
@@ -17062,7 +17071,7 @@
       <c r="Q560" s="3"/>
       <c r="R560" s="3"/>
       <c r="S560" s="3"/>
-      <c r="T560" s="3"/>
+      <c r="T560" s="24"/>
       <c r="U560" s="3"/>
       <c r="V560" s="3"/>
       <c r="W560" s="3"/>
@@ -17091,7 +17100,7 @@
       <c r="Q561" s="3"/>
       <c r="R561" s="3"/>
       <c r="S561" s="3"/>
-      <c r="T561" s="3"/>
+      <c r="T561" s="24"/>
       <c r="U561" s="3"/>
       <c r="V561" s="3"/>
       <c r="W561" s="3"/>
@@ -17120,7 +17129,7 @@
       <c r="Q562" s="3"/>
       <c r="R562" s="3"/>
       <c r="S562" s="3"/>
-      <c r="T562" s="3"/>
+      <c r="T562" s="24"/>
       <c r="U562" s="3"/>
       <c r="V562" s="3"/>
       <c r="W562" s="3"/>
@@ -17149,7 +17158,7 @@
       <c r="Q563" s="3"/>
       <c r="R563" s="3"/>
       <c r="S563" s="3"/>
-      <c r="T563" s="3"/>
+      <c r="T563" s="24"/>
       <c r="U563" s="3"/>
       <c r="V563" s="3"/>
       <c r="W563" s="3"/>
@@ -17178,7 +17187,7 @@
       <c r="Q564" s="3"/>
       <c r="R564" s="3"/>
       <c r="S564" s="3"/>
-      <c r="T564" s="3"/>
+      <c r="T564" s="24"/>
       <c r="U564" s="3"/>
       <c r="V564" s="3"/>
       <c r="W564" s="3"/>
@@ -17207,7 +17216,7 @@
       <c r="Q565" s="3"/>
       <c r="R565" s="3"/>
       <c r="S565" s="3"/>
-      <c r="T565" s="3"/>
+      <c r="T565" s="24"/>
       <c r="U565" s="3"/>
       <c r="V565" s="3"/>
       <c r="W565" s="3"/>
@@ -17236,7 +17245,7 @@
       <c r="Q566" s="3"/>
       <c r="R566" s="3"/>
       <c r="S566" s="3"/>
-      <c r="T566" s="3"/>
+      <c r="T566" s="24"/>
       <c r="U566" s="3"/>
       <c r="V566" s="3"/>
       <c r="W566" s="3"/>
@@ -17265,7 +17274,7 @@
       <c r="Q567" s="3"/>
       <c r="R567" s="3"/>
       <c r="S567" s="3"/>
-      <c r="T567" s="3"/>
+      <c r="T567" s="24"/>
       <c r="U567" s="3"/>
       <c r="V567" s="3"/>
       <c r="W567" s="3"/>
@@ -17294,7 +17303,7 @@
       <c r="Q568" s="3"/>
       <c r="R568" s="3"/>
       <c r="S568" s="3"/>
-      <c r="T568" s="3"/>
+      <c r="T568" s="24"/>
       <c r="U568" s="3"/>
       <c r="V568" s="3"/>
       <c r="W568" s="3"/>
@@ -17323,7 +17332,7 @@
       <c r="Q569" s="3"/>
       <c r="R569" s="3"/>
       <c r="S569" s="3"/>
-      <c r="T569" s="3"/>
+      <c r="T569" s="24"/>
       <c r="U569" s="3"/>
       <c r="V569" s="3"/>
       <c r="W569" s="3"/>
@@ -17352,7 +17361,7 @@
       <c r="Q570" s="3"/>
       <c r="R570" s="3"/>
       <c r="S570" s="3"/>
-      <c r="T570" s="3"/>
+      <c r="T570" s="24"/>
       <c r="U570" s="3"/>
       <c r="V570" s="3"/>
       <c r="W570" s="3"/>
@@ -17381,7 +17390,7 @@
       <c r="Q571" s="3"/>
       <c r="R571" s="3"/>
       <c r="S571" s="3"/>
-      <c r="T571" s="3"/>
+      <c r="T571" s="24"/>
       <c r="U571" s="3"/>
       <c r="V571" s="3"/>
       <c r="W571" s="3"/>
@@ -17410,7 +17419,7 @@
       <c r="Q572" s="3"/>
       <c r="R572" s="3"/>
       <c r="S572" s="3"/>
-      <c r="T572" s="3"/>
+      <c r="T572" s="24"/>
       <c r="U572" s="3"/>
       <c r="V572" s="3"/>
       <c r="W572" s="3"/>
@@ -17439,7 +17448,7 @@
       <c r="Q573" s="3"/>
       <c r="R573" s="3"/>
       <c r="S573" s="3"/>
-      <c r="T573" s="3"/>
+      <c r="T573" s="24"/>
       <c r="U573" s="3"/>
       <c r="V573" s="3"/>
       <c r="W573" s="3"/>
@@ -17468,7 +17477,7 @@
       <c r="Q574" s="3"/>
       <c r="R574" s="3"/>
       <c r="S574" s="3"/>
-      <c r="T574" s="3"/>
+      <c r="T574" s="24"/>
       <c r="U574" s="3"/>
       <c r="V574" s="3"/>
       <c r="W574" s="3"/>
@@ -17497,7 +17506,7 @@
       <c r="Q575" s="3"/>
       <c r="R575" s="3"/>
       <c r="S575" s="3"/>
-      <c r="T575" s="3"/>
+      <c r="T575" s="24"/>
       <c r="U575" s="3"/>
       <c r="V575" s="3"/>
       <c r="W575" s="3"/>
@@ -17526,7 +17535,7 @@
       <c r="Q576" s="3"/>
       <c r="R576" s="3"/>
       <c r="S576" s="3"/>
-      <c r="T576" s="3"/>
+      <c r="T576" s="24"/>
       <c r="U576" s="3"/>
       <c r="V576" s="3"/>
       <c r="W576" s="3"/>
@@ -17555,7 +17564,7 @@
       <c r="Q577" s="3"/>
       <c r="R577" s="3"/>
       <c r="S577" s="3"/>
-      <c r="T577" s="3"/>
+      <c r="T577" s="24"/>
       <c r="U577" s="3"/>
       <c r="V577" s="3"/>
       <c r="W577" s="3"/>
@@ -17584,7 +17593,7 @@
       <c r="Q578" s="3"/>
       <c r="R578" s="3"/>
       <c r="S578" s="3"/>
-      <c r="T578" s="3"/>
+      <c r="T578" s="24"/>
       <c r="U578" s="3"/>
       <c r="V578" s="3"/>
       <c r="W578" s="3"/>
@@ -17613,7 +17622,7 @@
       <c r="Q579" s="3"/>
       <c r="R579" s="3"/>
       <c r="S579" s="3"/>
-      <c r="T579" s="3"/>
+      <c r="T579" s="24"/>
       <c r="U579" s="3"/>
       <c r="V579" s="3"/>
       <c r="W579" s="3"/>
@@ -17642,7 +17651,7 @@
       <c r="Q580" s="3"/>
       <c r="R580" s="3"/>
       <c r="S580" s="3"/>
-      <c r="T580" s="3"/>
+      <c r="T580" s="24"/>
       <c r="U580" s="3"/>
       <c r="V580" s="3"/>
       <c r="W580" s="3"/>
@@ -17671,7 +17680,7 @@
       <c r="Q581" s="3"/>
       <c r="R581" s="3"/>
       <c r="S581" s="3"/>
-      <c r="T581" s="3"/>
+      <c r="T581" s="24"/>
       <c r="U581" s="3"/>
       <c r="V581" s="3"/>
       <c r="W581" s="3"/>
@@ -17700,7 +17709,7 @@
       <c r="Q582" s="3"/>
       <c r="R582" s="3"/>
       <c r="S582" s="3"/>
-      <c r="T582" s="3"/>
+      <c r="T582" s="24"/>
       <c r="U582" s="3"/>
       <c r="V582" s="3"/>
       <c r="W582" s="3"/>
@@ -17729,7 +17738,7 @@
       <c r="Q583" s="3"/>
       <c r="R583" s="3"/>
       <c r="S583" s="3"/>
-      <c r="T583" s="3"/>
+      <c r="T583" s="24"/>
       <c r="U583" s="3"/>
       <c r="V583" s="3"/>
       <c r="W583" s="3"/>
@@ -17758,7 +17767,7 @@
       <c r="Q584" s="3"/>
       <c r="R584" s="3"/>
       <c r="S584" s="3"/>
-      <c r="T584" s="3"/>
+      <c r="T584" s="24"/>
       <c r="U584" s="3"/>
       <c r="V584" s="3"/>
       <c r="W584" s="3"/>
@@ -17787,7 +17796,7 @@
       <c r="Q585" s="3"/>
       <c r="R585" s="3"/>
       <c r="S585" s="3"/>
-      <c r="T585" s="3"/>
+      <c r="T585" s="24"/>
       <c r="U585" s="3"/>
       <c r="V585" s="3"/>
       <c r="W585" s="3"/>
@@ -17816,7 +17825,7 @@
       <c r="Q586" s="3"/>
       <c r="R586" s="3"/>
       <c r="S586" s="3"/>
-      <c r="T586" s="3"/>
+      <c r="T586" s="24"/>
       <c r="U586" s="3"/>
       <c r="V586" s="3"/>
       <c r="W586" s="3"/>
@@ -17845,7 +17854,7 @@
       <c r="Q587" s="3"/>
       <c r="R587" s="3"/>
       <c r="S587" s="3"/>
-      <c r="T587" s="3"/>
+      <c r="T587" s="24"/>
       <c r="U587" s="3"/>
       <c r="V587" s="3"/>
       <c r="W587" s="3"/>
@@ -17874,7 +17883,7 @@
       <c r="Q588" s="3"/>
       <c r="R588" s="3"/>
       <c r="S588" s="3"/>
-      <c r="T588" s="3"/>
+      <c r="T588" s="24"/>
       <c r="U588" s="3"/>
       <c r="V588" s="3"/>
       <c r="W588" s="3"/>
@@ -17903,7 +17912,7 @@
       <c r="Q589" s="3"/>
       <c r="R589" s="3"/>
       <c r="S589" s="3"/>
-      <c r="T589" s="3"/>
+      <c r="T589" s="24"/>
       <c r="U589" s="3"/>
       <c r="V589" s="3"/>
       <c r="W589" s="3"/>
@@ -17932,7 +17941,7 @@
       <c r="Q590" s="3"/>
       <c r="R590" s="3"/>
       <c r="S590" s="3"/>
-      <c r="T590" s="3"/>
+      <c r="T590" s="24"/>
       <c r="U590" s="3"/>
       <c r="V590" s="3"/>
       <c r="W590" s="3"/>
@@ -17961,7 +17970,7 @@
       <c r="Q591" s="3"/>
       <c r="R591" s="3"/>
       <c r="S591" s="3"/>
-      <c r="T591" s="3"/>
+      <c r="T591" s="24"/>
       <c r="U591" s="3"/>
       <c r="V591" s="3"/>
       <c r="W591" s="3"/>
@@ -17990,7 +17999,7 @@
       <c r="Q592" s="3"/>
       <c r="R592" s="3"/>
       <c r="S592" s="3"/>
-      <c r="T592" s="3"/>
+      <c r="T592" s="24"/>
       <c r="U592" s="3"/>
       <c r="V592" s="3"/>
       <c r="W592" s="3"/>
@@ -18019,7 +18028,7 @@
       <c r="Q593" s="3"/>
       <c r="R593" s="3"/>
       <c r="S593" s="3"/>
-      <c r="T593" s="3"/>
+      <c r="T593" s="24"/>
       <c r="U593" s="3"/>
       <c r="V593" s="3"/>
       <c r="W593" s="3"/>
@@ -18048,7 +18057,7 @@
       <c r="Q594" s="3"/>
       <c r="R594" s="3"/>
       <c r="S594" s="3"/>
-      <c r="T594" s="3"/>
+      <c r="T594" s="24"/>
       <c r="U594" s="3"/>
       <c r="V594" s="3"/>
       <c r="W594" s="3"/>
@@ -18077,7 +18086,7 @@
       <c r="Q595" s="3"/>
       <c r="R595" s="3"/>
       <c r="S595" s="3"/>
-      <c r="T595" s="3"/>
+      <c r="T595" s="24"/>
       <c r="U595" s="3"/>
       <c r="V595" s="3"/>
       <c r="W595" s="3"/>
@@ -18106,7 +18115,7 @@
       <c r="Q596" s="3"/>
       <c r="R596" s="3"/>
       <c r="S596" s="3"/>
-      <c r="T596" s="3"/>
+      <c r="T596" s="24"/>
       <c r="U596" s="3"/>
       <c r="V596" s="3"/>
       <c r="W596" s="3"/>
@@ -18135,7 +18144,7 @@
       <c r="Q597" s="3"/>
       <c r="R597" s="3"/>
       <c r="S597" s="3"/>
-      <c r="T597" s="3"/>
+      <c r="T597" s="24"/>
       <c r="U597" s="3"/>
       <c r="V597" s="3"/>
       <c r="W597" s="3"/>
@@ -18164,7 +18173,7 @@
       <c r="Q598" s="3"/>
       <c r="R598" s="3"/>
       <c r="S598" s="3"/>
-      <c r="T598" s="3"/>
+      <c r="T598" s="24"/>
       <c r="U598" s="3"/>
       <c r="V598" s="3"/>
       <c r="W598" s="3"/>
@@ -18193,7 +18202,7 @@
       <c r="Q599" s="3"/>
       <c r="R599" s="3"/>
       <c r="S599" s="3"/>
-      <c r="T599" s="3"/>
+      <c r="T599" s="24"/>
       <c r="U599" s="3"/>
       <c r="V599" s="3"/>
       <c r="W599" s="3"/>
@@ -18222,7 +18231,7 @@
       <c r="Q600" s="3"/>
       <c r="R600" s="3"/>
       <c r="S600" s="3"/>
-      <c r="T600" s="3"/>
+      <c r="T600" s="24"/>
       <c r="U600" s="3"/>
       <c r="V600" s="3"/>
       <c r="W600" s="3"/>
@@ -18251,7 +18260,7 @@
       <c r="Q601" s="3"/>
       <c r="R601" s="3"/>
       <c r="S601" s="3"/>
-      <c r="T601" s="3"/>
+      <c r="T601" s="24"/>
       <c r="U601" s="3"/>
       <c r="V601" s="3"/>
       <c r="W601" s="3"/>
@@ -18280,7 +18289,7 @@
       <c r="Q602" s="3"/>
       <c r="R602" s="3"/>
       <c r="S602" s="3"/>
-      <c r="T602" s="3"/>
+      <c r="T602" s="24"/>
       <c r="U602" s="3"/>
       <c r="V602" s="3"/>
       <c r="W602" s="3"/>
@@ -18309,7 +18318,7 @@
       <c r="Q603" s="3"/>
       <c r="R603" s="3"/>
       <c r="S603" s="3"/>
-      <c r="T603" s="3"/>
+      <c r="T603" s="24"/>
       <c r="U603" s="3"/>
       <c r="V603" s="3"/>
       <c r="W603" s="3"/>
@@ -18338,7 +18347,7 @@
       <c r="Q604" s="3"/>
       <c r="R604" s="3"/>
       <c r="S604" s="3"/>
-      <c r="T604" s="3"/>
+      <c r="T604" s="24"/>
       <c r="U604" s="3"/>
       <c r="V604" s="3"/>
       <c r="W604" s="3"/>
@@ -18367,7 +18376,7 @@
       <c r="Q605" s="3"/>
       <c r="R605" s="3"/>
       <c r="S605" s="3"/>
-      <c r="T605" s="3"/>
+      <c r="T605" s="24"/>
       <c r="U605" s="3"/>
       <c r="V605" s="3"/>
       <c r="W605" s="3"/>
@@ -18396,7 +18405,7 @@
       <c r="Q606" s="3"/>
       <c r="R606" s="3"/>
       <c r="S606" s="3"/>
-      <c r="T606" s="3"/>
+      <c r="T606" s="24"/>
       <c r="U606" s="3"/>
       <c r="V606" s="3"/>
       <c r="W606" s="3"/>
@@ -18425,7 +18434,7 @@
       <c r="Q607" s="3"/>
       <c r="R607" s="3"/>
       <c r="S607" s="3"/>
-      <c r="T607" s="3"/>
+      <c r="T607" s="24"/>
       <c r="U607" s="3"/>
       <c r="V607" s="3"/>
       <c r="W607" s="3"/>
@@ -18454,7 +18463,7 @@
       <c r="Q608" s="3"/>
       <c r="R608" s="3"/>
       <c r="S608" s="3"/>
-      <c r="T608" s="3"/>
+      <c r="T608" s="24"/>
       <c r="U608" s="3"/>
       <c r="V608" s="3"/>
       <c r="W608" s="3"/>
@@ -18483,7 +18492,7 @@
       <c r="Q609" s="3"/>
       <c r="R609" s="3"/>
       <c r="S609" s="3"/>
-      <c r="T609" s="3"/>
+      <c r="T609" s="24"/>
       <c r="U609" s="3"/>
       <c r="V609" s="3"/>
       <c r="W609" s="3"/>
@@ -18512,7 +18521,7 @@
       <c r="Q610" s="3"/>
       <c r="R610" s="3"/>
       <c r="S610" s="3"/>
-      <c r="T610" s="3"/>
+      <c r="T610" s="24"/>
       <c r="U610" s="3"/>
       <c r="V610" s="3"/>
       <c r="W610" s="3"/>
@@ -18541,7 +18550,7 @@
       <c r="Q611" s="3"/>
       <c r="R611" s="3"/>
       <c r="S611" s="3"/>
-      <c r="T611" s="3"/>
+      <c r="T611" s="24"/>
       <c r="U611" s="3"/>
       <c r="V611" s="3"/>
       <c r="W611" s="3"/>
@@ -18570,7 +18579,7 @@
       <c r="Q612" s="3"/>
       <c r="R612" s="3"/>
       <c r="S612" s="3"/>
-      <c r="T612" s="3"/>
+      <c r="T612" s="24"/>
       <c r="U612" s="3"/>
       <c r="V612" s="3"/>
       <c r="W612" s="3"/>
@@ -18599,7 +18608,7 @@
       <c r="Q613" s="3"/>
       <c r="R613" s="3"/>
       <c r="S613" s="3"/>
-      <c r="T613" s="3"/>
+      <c r="T613" s="24"/>
       <c r="U613" s="3"/>
       <c r="V613" s="3"/>
       <c r="W613" s="3"/>
@@ -18628,7 +18637,7 @@
       <c r="Q614" s="3"/>
       <c r="R614" s="3"/>
       <c r="S614" s="3"/>
-      <c r="T614" s="3"/>
+      <c r="T614" s="24"/>
       <c r="U614" s="3"/>
       <c r="V614" s="3"/>
       <c r="W614" s="3"/>
@@ -18657,7 +18666,7 @@
       <c r="Q615" s="3"/>
       <c r="R615" s="3"/>
       <c r="S615" s="3"/>
-      <c r="T615" s="3"/>
+      <c r="T615" s="24"/>
       <c r="U615" s="3"/>
       <c r="V615" s="3"/>
       <c r="W615" s="3"/>
@@ -18686,7 +18695,7 @@
       <c r="Q616" s="3"/>
       <c r="R616" s="3"/>
       <c r="S616" s="3"/>
-      <c r="T616" s="3"/>
+      <c r="T616" s="24"/>
       <c r="U616" s="3"/>
       <c r="V616" s="3"/>
       <c r="W616" s="3"/>
@@ -18715,7 +18724,7 @@
       <c r="Q617" s="3"/>
       <c r="R617" s="3"/>
       <c r="S617" s="3"/>
-      <c r="T617" s="3"/>
+      <c r="T617" s="24"/>
       <c r="U617" s="3"/>
       <c r="V617" s="3"/>
       <c r="W617" s="3"/>
@@ -18744,7 +18753,7 @@
       <c r="Q618" s="3"/>
       <c r="R618" s="3"/>
       <c r="S618" s="3"/>
-      <c r="T618" s="3"/>
+      <c r="T618" s="24"/>
       <c r="U618" s="3"/>
       <c r="V618" s="3"/>
       <c r="W618" s="3"/>
@@ -18773,7 +18782,7 @@
       <c r="Q619" s="3"/>
       <c r="R619" s="3"/>
       <c r="S619" s="3"/>
-      <c r="T619" s="3"/>
+      <c r="T619" s="24"/>
       <c r="U619" s="3"/>
       <c r="V619" s="3"/>
       <c r="W619" s="3"/>
@@ -18802,7 +18811,7 @@
       <c r="Q620" s="3"/>
       <c r="R620" s="3"/>
       <c r="S620" s="3"/>
-      <c r="T620" s="3"/>
+      <c r="T620" s="24"/>
       <c r="U620" s="3"/>
       <c r="V620" s="3"/>
       <c r="W620" s="3"/>
@@ -18831,7 +18840,7 @@
       <c r="Q621" s="3"/>
       <c r="R621" s="3"/>
       <c r="S621" s="3"/>
-      <c r="T621" s="3"/>
+      <c r="T621" s="24"/>
       <c r="U621" s="3"/>
       <c r="V621" s="3"/>
       <c r="W621" s="3"/>
@@ -18860,7 +18869,7 @@
       <c r="Q622" s="3"/>
       <c r="R622" s="3"/>
       <c r="S622" s="3"/>
-      <c r="T622" s="3"/>
+      <c r="T622" s="24"/>
       <c r="U622" s="3"/>
       <c r="V622" s="3"/>
       <c r="W622" s="3"/>
@@ -18889,7 +18898,7 @@
       <c r="Q623" s="3"/>
       <c r="R623" s="3"/>
       <c r="S623" s="3"/>
-      <c r="T623" s="3"/>
+      <c r="T623" s="24"/>
       <c r="U623" s="3"/>
       <c r="V623" s="3"/>
       <c r="W623" s="3"/>
@@ -18918,7 +18927,7 @@
       <c r="Q624" s="3"/>
       <c r="R624" s="3"/>
       <c r="S624" s="3"/>
-      <c r="T624" s="3"/>
+      <c r="T624" s="24"/>
       <c r="U624" s="3"/>
       <c r="V624" s="3"/>
       <c r="W624" s="3"/>
@@ -18947,7 +18956,7 @@
       <c r="Q625" s="3"/>
       <c r="R625" s="3"/>
       <c r="S625" s="3"/>
-      <c r="T625" s="3"/>
+      <c r="T625" s="24"/>
       <c r="U625" s="3"/>
       <c r="V625" s="3"/>
       <c r="W625" s="3"/>
@@ -18976,7 +18985,7 @@
       <c r="Q626" s="3"/>
       <c r="R626" s="3"/>
       <c r="S626" s="3"/>
-      <c r="T626" s="3"/>
+      <c r="T626" s="24"/>
       <c r="U626" s="3"/>
       <c r="V626" s="3"/>
       <c r="W626" s="3"/>
@@ -19005,7 +19014,7 @@
       <c r="Q627" s="3"/>
       <c r="R627" s="3"/>
       <c r="S627" s="3"/>
-      <c r="T627" s="3"/>
+      <c r="T627" s="24"/>
       <c r="U627" s="3"/>
       <c r="V627" s="3"/>
       <c r="W627" s="3"/>
@@ -19034,7 +19043,7 @@
       <c r="Q628" s="3"/>
       <c r="R628" s="3"/>
       <c r="S628" s="3"/>
-      <c r="T628" s="3"/>
+      <c r="T628" s="24"/>
       <c r="U628" s="3"/>
       <c r="V628" s="3"/>
       <c r="W628" s="3"/>
@@ -19063,7 +19072,7 @@
       <c r="Q629" s="3"/>
       <c r="R629" s="3"/>
       <c r="S629" s="3"/>
-      <c r="T629" s="3"/>
+      <c r="T629" s="24"/>
       <c r="U629" s="3"/>
       <c r="V629" s="3"/>
       <c r="W629" s="3"/>
@@ -19092,7 +19101,7 @@
       <c r="Q630" s="3"/>
       <c r="R630" s="3"/>
       <c r="S630" s="3"/>
-      <c r="T630" s="3"/>
+      <c r="T630" s="24"/>
       <c r="U630" s="3"/>
       <c r="V630" s="3"/>
       <c r="W630" s="3"/>
@@ -19121,7 +19130,7 @@
       <c r="Q631" s="3"/>
       <c r="R631" s="3"/>
       <c r="S631" s="3"/>
-      <c r="T631" s="3"/>
+      <c r="T631" s="24"/>
       <c r="U631" s="3"/>
       <c r="V631" s="3"/>
       <c r="W631" s="3"/>
@@ -19150,7 +19159,7 @@
       <c r="Q632" s="3"/>
       <c r="R632" s="3"/>
       <c r="S632" s="3"/>
-      <c r="T632" s="3"/>
+      <c r="T632" s="24"/>
       <c r="U632" s="3"/>
       <c r="V632" s="3"/>
       <c r="W632" s="3"/>
@@ -19179,7 +19188,7 @@
       <c r="Q633" s="3"/>
       <c r="R633" s="3"/>
       <c r="S633" s="3"/>
-      <c r="T633" s="3"/>
+      <c r="T633" s="24"/>
       <c r="U633" s="3"/>
       <c r="V633" s="3"/>
       <c r="W633" s="3"/>
@@ -19208,7 +19217,7 @@
       <c r="Q634" s="3"/>
       <c r="R634" s="3"/>
       <c r="S634" s="3"/>
-      <c r="T634" s="3"/>
+      <c r="T634" s="24"/>
       <c r="U634" s="3"/>
       <c r="V634" s="3"/>
       <c r="W634" s="3"/>
@@ -19237,7 +19246,7 @@
       <c r="Q635" s="3"/>
       <c r="R635" s="3"/>
       <c r="S635" s="3"/>
-      <c r="T635" s="3"/>
+      <c r="T635" s="24"/>
       <c r="U635" s="3"/>
       <c r="V635" s="3"/>
       <c r="W635" s="3"/>
@@ -19266,7 +19275,7 @@
       <c r="Q636" s="3"/>
       <c r="R636" s="3"/>
       <c r="S636" s="3"/>
-      <c r="T636" s="3"/>
+      <c r="T636" s="24"/>
       <c r="U636" s="3"/>
       <c r="V636" s="3"/>
       <c r="W636" s="3"/>
@@ -19295,7 +19304,7 @@
       <c r="Q637" s="3"/>
       <c r="R637" s="3"/>
       <c r="S637" s="3"/>
-      <c r="T637" s="3"/>
+      <c r="T637" s="24"/>
       <c r="U637" s="3"/>
       <c r="V637" s="3"/>
       <c r="W637" s="3"/>
@@ -19324,7 +19333,7 @@
       <c r="Q638" s="3"/>
       <c r="R638" s="3"/>
       <c r="S638" s="3"/>
-      <c r="T638" s="3"/>
+      <c r="T638" s="24"/>
       <c r="U638" s="3"/>
       <c r="V638" s="3"/>
       <c r="W638" s="3"/>
@@ -19353,7 +19362,7 @@
       <c r="Q639" s="3"/>
       <c r="R639" s="3"/>
       <c r="S639" s="3"/>
-      <c r="T639" s="3"/>
+      <c r="T639" s="24"/>
       <c r="U639" s="3"/>
       <c r="V639" s="3"/>
       <c r="W639" s="3"/>
@@ -19382,7 +19391,7 @@
       <c r="Q640" s="3"/>
       <c r="R640" s="3"/>
       <c r="S640" s="3"/>
-      <c r="T640" s="3"/>
+      <c r="T640" s="24"/>
       <c r="U640" s="3"/>
       <c r="V640" s="3"/>
       <c r="W640" s="3"/>
@@ -19411,7 +19420,7 @@
       <c r="Q641" s="3"/>
       <c r="R641" s="3"/>
       <c r="S641" s="3"/>
-      <c r="T641" s="3"/>
+      <c r="T641" s="24"/>
       <c r="U641" s="3"/>
       <c r="V641" s="3"/>
       <c r="W641" s="3"/>
@@ -19440,7 +19449,7 @@
       <c r="Q642" s="3"/>
       <c r="R642" s="3"/>
       <c r="S642" s="3"/>
-      <c r="T642" s="3"/>
+      <c r="T642" s="24"/>
       <c r="U642" s="3"/>
       <c r="V642" s="3"/>
       <c r="W642" s="3"/>
@@ -19469,7 +19478,7 @@
       <c r="Q643" s="3"/>
       <c r="R643" s="3"/>
       <c r="S643" s="3"/>
-      <c r="T643" s="3"/>
+      <c r="T643" s="24"/>
       <c r="U643" s="3"/>
       <c r="V643" s="3"/>
       <c r="W643" s="3"/>
@@ -19498,7 +19507,7 @@
       <c r="Q644" s="3"/>
       <c r="R644" s="3"/>
       <c r="S644" s="3"/>
-      <c r="T644" s="3"/>
+      <c r="T644" s="24"/>
       <c r="U644" s="3"/>
       <c r="V644" s="3"/>
       <c r="W644" s="3"/>
@@ -19527,7 +19536,7 @@
       <c r="Q645" s="3"/>
       <c r="R645" s="3"/>
       <c r="S645" s="3"/>
-      <c r="T645" s="3"/>
+      <c r="T645" s="24"/>
       <c r="U645" s="3"/>
       <c r="V645" s="3"/>
       <c r="W645" s="3"/>
@@ -19556,7 +19565,7 @@
       <c r="Q646" s="3"/>
       <c r="R646" s="3"/>
       <c r="S646" s="3"/>
-      <c r="T646" s="3"/>
+      <c r="T646" s="24"/>
       <c r="U646" s="3"/>
       <c r="V646" s="3"/>
       <c r="W646" s="3"/>
@@ -19585,7 +19594,7 @@
       <c r="Q647" s="3"/>
       <c r="R647" s="3"/>
       <c r="S647" s="3"/>
-      <c r="T647" s="3"/>
+      <c r="T647" s="24"/>
       <c r="U647" s="3"/>
       <c r="V647" s="3"/>
       <c r="W647" s="3"/>
@@ -19614,7 +19623,7 @@
       <c r="Q648" s="3"/>
       <c r="R648" s="3"/>
       <c r="S648" s="3"/>
-      <c r="T648" s="3"/>
+      <c r="T648" s="24"/>
       <c r="U648" s="3"/>
       <c r="V648" s="3"/>
       <c r="W648" s="3"/>
@@ -19643,7 +19652,7 @@
       <c r="Q649" s="3"/>
       <c r="R649" s="3"/>
       <c r="S649" s="3"/>
-      <c r="T649" s="3"/>
+      <c r="T649" s="24"/>
       <c r="U649" s="3"/>
       <c r="V649" s="3"/>
       <c r="W649" s="3"/>
@@ -19672,7 +19681,7 @@
       <c r="Q650" s="3"/>
       <c r="R650" s="3"/>
       <c r="S650" s="3"/>
-      <c r="T650" s="3"/>
+      <c r="T650" s="24"/>
       <c r="U650" s="3"/>
       <c r="V650" s="3"/>
       <c r="W650" s="3"/>
@@ -19701,7 +19710,7 @@
       <c r="Q651" s="3"/>
       <c r="R651" s="3"/>
       <c r="S651" s="3"/>
-      <c r="T651" s="3"/>
+      <c r="T651" s="24"/>
       <c r="U651" s="3"/>
       <c r="V651" s="3"/>
       <c r="W651" s="3"/>
@@ -19730,7 +19739,7 @@
       <c r="Q652" s="3"/>
       <c r="R652" s="3"/>
       <c r="S652" s="3"/>
-      <c r="T652" s="3"/>
+      <c r="T652" s="24"/>
       <c r="U652" s="3"/>
       <c r="V652" s="3"/>
       <c r="W652" s="3"/>
@@ -19759,7 +19768,7 @@
       <c r="Q653" s="3"/>
       <c r="R653" s="3"/>
       <c r="S653" s="3"/>
-      <c r="T653" s="3"/>
+      <c r="T653" s="24"/>
       <c r="U653" s="3"/>
       <c r="V653" s="3"/>
       <c r="W653" s="3"/>
@@ -19788,7 +19797,7 @@
       <c r="Q654" s="3"/>
       <c r="R654" s="3"/>
       <c r="S654" s="3"/>
-      <c r="T654" s="3"/>
+      <c r="T654" s="24"/>
       <c r="U654" s="3"/>
       <c r="V654" s="3"/>
       <c r="W654" s="3"/>
@@ -19817,7 +19826,7 @@
       <c r="Q655" s="3"/>
       <c r="R655" s="3"/>
       <c r="S655" s="3"/>
-      <c r="T655" s="3"/>
+      <c r="T655" s="24"/>
       <c r="U655" s="3"/>
       <c r="V655" s="3"/>
       <c r="W655" s="3"/>
@@ -19846,7 +19855,7 @@
       <c r="Q656" s="3"/>
       <c r="R656" s="3"/>
       <c r="S656" s="3"/>
-      <c r="T656" s="3"/>
+      <c r="T656" s="24"/>
       <c r="U656" s="3"/>
       <c r="V656" s="3"/>
       <c r="W656" s="3"/>
@@ -19875,7 +19884,7 @@
       <c r="Q657" s="3"/>
       <c r="R657" s="3"/>
       <c r="S657" s="3"/>
-      <c r="T657" s="3"/>
+      <c r="T657" s="24"/>
       <c r="U657" s="3"/>
       <c r="V657" s="3"/>
       <c r="W657" s="3"/>
@@ -19904,7 +19913,7 @@
       <c r="Q658" s="3"/>
       <c r="R658" s="3"/>
       <c r="S658" s="3"/>
-      <c r="T658" s="3"/>
+      <c r="T658" s="24"/>
       <c r="U658" s="3"/>
       <c r="V658" s="3"/>
       <c r="W658" s="3"/>
@@ -19933,7 +19942,7 @@
       <c r="Q659" s="3"/>
       <c r="R659" s="3"/>
       <c r="S659" s="3"/>
-      <c r="T659" s="3"/>
+      <c r="T659" s="24"/>
       <c r="U659" s="3"/>
       <c r="V659" s="3"/>
       <c r="W659" s="3"/>
@@ -19962,7 +19971,7 @@
       <c r="Q660" s="3"/>
       <c r="R660" s="3"/>
       <c r="S660" s="3"/>
-      <c r="T660" s="3"/>
+      <c r="T660" s="24"/>
       <c r="U660" s="3"/>
       <c r="V660" s="3"/>
       <c r="W660" s="3"/>
@@ -19991,7 +20000,7 @@
       <c r="Q661" s="3"/>
       <c r="R661" s="3"/>
       <c r="S661" s="3"/>
-      <c r="T661" s="3"/>
+      <c r="T661" s="24"/>
       <c r="U661" s="3"/>
       <c r="V661" s="3"/>
       <c r="W661" s="3"/>
@@ -20020,7 +20029,7 @@
       <c r="Q662" s="3"/>
       <c r="R662" s="3"/>
       <c r="S662" s="3"/>
-      <c r="T662" s="3"/>
+      <c r="T662" s="24"/>
       <c r="U662" s="3"/>
       <c r="V662" s="3"/>
       <c r="W662" s="3"/>
@@ -20049,7 +20058,7 @@
       <c r="Q663" s="3"/>
       <c r="R663" s="3"/>
       <c r="S663" s="3"/>
-      <c r="T663" s="3"/>
+      <c r="T663" s="24"/>
       <c r="U663" s="3"/>
       <c r="V663" s="3"/>
       <c r="W663" s="3"/>
@@ -20078,7 +20087,7 @@
       <c r="Q664" s="3"/>
       <c r="R664" s="3"/>
       <c r="S664" s="3"/>
-      <c r="T664" s="3"/>
+      <c r="T664" s="24"/>
       <c r="U664" s="3"/>
       <c r="V664" s="3"/>
       <c r="W664" s="3"/>
@@ -20107,7 +20116,7 @@
       <c r="Q665" s="3"/>
       <c r="R665" s="3"/>
       <c r="S665" s="3"/>
-      <c r="T665" s="3"/>
+      <c r="T665" s="24"/>
       <c r="U665" s="3"/>
       <c r="V665" s="3"/>
       <c r="W665" s="3"/>
@@ -20136,7 +20145,7 @@
       <c r="Q666" s="3"/>
       <c r="R666" s="3"/>
       <c r="S666" s="3"/>
-      <c r="T666" s="3"/>
+      <c r="T666" s="24"/>
       <c r="U666" s="3"/>
       <c r="V666" s="3"/>
       <c r="W666" s="3"/>
@@ -20165,7 +20174,7 @@
       <c r="Q667" s="3"/>
       <c r="R667" s="3"/>
       <c r="S667" s="3"/>
-      <c r="T667" s="3"/>
+      <c r="T667" s="24"/>
       <c r="U667" s="3"/>
       <c r="V667" s="3"/>
       <c r="W667" s="3"/>
@@ -20194,7 +20203,7 @@
       <c r="Q668" s="3"/>
       <c r="R668" s="3"/>
       <c r="S668" s="3"/>
-      <c r="T668" s="3"/>
+      <c r="T668" s="24"/>
       <c r="U668" s="3"/>
       <c r="V668" s="3"/>
       <c r="W668" s="3"/>
@@ -20223,7 +20232,7 @@
       <c r="Q669" s="3"/>
       <c r="R669" s="3"/>
       <c r="S669" s="3"/>
-      <c r="T669" s="3"/>
+      <c r="T669" s="24"/>
       <c r="U669" s="3"/>
       <c r="V669" s="3"/>
       <c r="W669" s="3"/>
@@ -20252,7 +20261,7 @@
       <c r="Q670" s="3"/>
       <c r="R670" s="3"/>
       <c r="S670" s="3"/>
-      <c r="T670" s="3"/>
+      <c r="T670" s="24"/>
       <c r="U670" s="3"/>
       <c r="V670" s="3"/>
       <c r="W670" s="3"/>
@@ -20281,7 +20290,7 @@
       <c r="Q671" s="3"/>
       <c r="R671" s="3"/>
       <c r="S671" s="3"/>
-      <c r="T671" s="3"/>
+      <c r="T671" s="24"/>
       <c r="U671" s="3"/>
       <c r="V671" s="3"/>
       <c r="W671" s="3"/>
@@ -20310,7 +20319,7 @@
       <c r="Q672" s="3"/>
       <c r="R672" s="3"/>
       <c r="S672" s="3"/>
-      <c r="T672" s="3"/>
+      <c r="T672" s="24"/>
       <c r="U672" s="3"/>
       <c r="V672" s="3"/>
       <c r="W672" s="3"/>
@@ -20339,7 +20348,7 @@
       <c r="Q673" s="3"/>
       <c r="R673" s="3"/>
       <c r="S673" s="3"/>
-      <c r="T673" s="3"/>
+      <c r="T673" s="24"/>
       <c r="U673" s="3"/>
       <c r="V673" s="3"/>
       <c r="W673" s="3"/>
@@ -20368,7 +20377,7 @@
       <c r="Q674" s="3"/>
       <c r="R674" s="3"/>
       <c r="S674" s="3"/>
-      <c r="T674" s="3"/>
+      <c r="T674" s="24"/>
       <c r="U674" s="3"/>
       <c r="V674" s="3"/>
       <c r="W674" s="3"/>
@@ -20397,7 +20406,7 @@
       <c r="Q675" s="3"/>
       <c r="R675" s="3"/>
       <c r="S675" s="3"/>
-      <c r="T675" s="3"/>
+      <c r="T675" s="24"/>
       <c r="U675" s="3"/>
       <c r="V675" s="3"/>
       <c r="W675" s="3"/>
@@ -20426,7 +20435,7 @@
       <c r="Q676" s="3"/>
       <c r="R676" s="3"/>
       <c r="S676" s="3"/>
-      <c r="T676" s="3"/>
+      <c r="T676" s="24"/>
       <c r="U676" s="3"/>
       <c r="V676" s="3"/>
       <c r="W676" s="3"/>
@@ -20455,7 +20464,7 @@
       <c r="Q677" s="3"/>
       <c r="R677" s="3"/>
       <c r="S677" s="3"/>
-      <c r="T677" s="3"/>
+      <c r="T677" s="24"/>
       <c r="U677" s="3"/>
       <c r="V677" s="3"/>
       <c r="W677" s="3"/>
@@ -20484,7 +20493,7 @@
       <c r="Q678" s="3"/>
       <c r="R678" s="3"/>
       <c r="S678" s="3"/>
-      <c r="T678" s="3"/>
+      <c r="T678" s="24"/>
       <c r="U678" s="3"/>
       <c r="V678" s="3"/>
       <c r="W678" s="3"/>
@@ -20513,7 +20522,7 @@
       <c r="Q679" s="3"/>
       <c r="R679" s="3"/>
       <c r="S679" s="3"/>
-      <c r="T679" s="3"/>
+      <c r="T679" s="24"/>
       <c r="U679" s="3"/>
       <c r="V679" s="3"/>
       <c r="W679" s="3"/>
@@ -20542,7 +20551,7 @@
       <c r="Q680" s="3"/>
       <c r="R680" s="3"/>
       <c r="S680" s="3"/>
-      <c r="T680" s="3"/>
+      <c r="T680" s="24"/>
       <c r="U680" s="3"/>
       <c r="V680" s="3"/>
       <c r="W680" s="3"/>
@@ -20571,7 +20580,7 @@
       <c r="Q681" s="3"/>
       <c r="R681" s="3"/>
       <c r="S681" s="3"/>
-      <c r="T681" s="3"/>
+      <c r="T681" s="24"/>
       <c r="U681" s="3"/>
       <c r="V681" s="3"/>
       <c r="W681" s="3"/>
@@ -20600,7 +20609,7 @@
       <c r="Q682" s="3"/>
       <c r="R682" s="3"/>
       <c r="S682" s="3"/>
-      <c r="T682" s="3"/>
+      <c r="T682" s="24"/>
       <c r="U682" s="3"/>
       <c r="V682" s="3"/>
       <c r="W682" s="3"/>
@@ -20629,7 +20638,7 @@
       <c r="Q683" s="3"/>
       <c r="R683" s="3"/>
       <c r="S683" s="3"/>
-      <c r="T683" s="3"/>
+      <c r="T683" s="24"/>
       <c r="U683" s="3"/>
       <c r="V683" s="3"/>
       <c r="W683" s="3"/>
@@ -20658,7 +20667,7 @@
       <c r="Q684" s="3"/>
       <c r="R684" s="3"/>
       <c r="S684" s="3"/>
-      <c r="T684" s="3"/>
+      <c r="T684" s="24"/>
       <c r="U684" s="3"/>
       <c r="V684" s="3"/>
       <c r="W684" s="3"/>
@@ -20687,7 +20696,7 @@
       <c r="Q685" s="3"/>
       <c r="R685" s="3"/>
       <c r="S685" s="3"/>
-      <c r="T685" s="3"/>
+      <c r="T685" s="24"/>
       <c r="U685" s="3"/>
       <c r="V685" s="3"/>
       <c r="W685" s="3"/>
@@ -20716,7 +20725,7 @@
       <c r="Q686" s="3"/>
       <c r="R686" s="3"/>
       <c r="S686" s="3"/>
-      <c r="T686" s="3"/>
+      <c r="T686" s="24"/>
       <c r="U686" s="3"/>
       <c r="V686" s="3"/>
       <c r="W686" s="3"/>
@@ -20745,7 +20754,7 @@
       <c r="Q687" s="3"/>
       <c r="R687" s="3"/>
       <c r="S687" s="3"/>
-      <c r="T687" s="3"/>
+      <c r="T687" s="24"/>
       <c r="U687" s="3"/>
       <c r="V687" s="3"/>
       <c r="W687" s="3"/>
@@ -20774,7 +20783,7 @@
       <c r="Q688" s="3"/>
       <c r="R688" s="3"/>
       <c r="S688" s="3"/>
-      <c r="T688" s="3"/>
+      <c r="T688" s="24"/>
       <c r="U688" s="3"/>
       <c r="V688" s="3"/>
       <c r="W688" s="3"/>
@@ -20803,7 +20812,7 @@
       <c r="Q689" s="3"/>
       <c r="R689" s="3"/>
       <c r="S689" s="3"/>
-      <c r="T689" s="3"/>
+      <c r="T689" s="24"/>
       <c r="U689" s="3"/>
       <c r="V689" s="3"/>
       <c r="W689" s="3"/>
@@ -20832,7 +20841,7 @@
       <c r="Q690" s="3"/>
       <c r="R690" s="3"/>
       <c r="S690" s="3"/>
-      <c r="T690" s="3"/>
+      <c r="T690" s="24"/>
       <c r="U690" s="3"/>
       <c r="V690" s="3"/>
       <c r="W690" s="3"/>
@@ -20861,7 +20870,7 @@
       <c r="Q691" s="3"/>
       <c r="R691" s="3"/>
       <c r="S691" s="3"/>
-      <c r="T691" s="3"/>
+      <c r="T691" s="24"/>
       <c r="U691" s="3"/>
       <c r="V691" s="3"/>
       <c r="W691" s="3"/>
@@ -20890,7 +20899,7 @@
       <c r="Q692" s="3"/>
       <c r="R692" s="3"/>
       <c r="S692" s="3"/>
-      <c r="T692" s="3"/>
+      <c r="T692" s="24"/>
       <c r="U692" s="3"/>
       <c r="V692" s="3"/>
       <c r="W692" s="3"/>
@@ -20919,7 +20928,7 @@
       <c r="Q693" s="3"/>
       <c r="R693" s="3"/>
       <c r="S693" s="3"/>
-      <c r="T693" s="3"/>
+      <c r="T693" s="24"/>
       <c r="U693" s="3"/>
       <c r="V693" s="3"/>
       <c r="W693" s="3"/>
@@ -20948,7 +20957,7 @@
       <c r="Q694" s="3"/>
       <c r="R694" s="3"/>
       <c r="S694" s="3"/>
-      <c r="T694" s="3"/>
+      <c r="T694" s="24"/>
       <c r="U694" s="3"/>
       <c r="V694" s="3"/>
       <c r="W694" s="3"/>
@@ -20977,7 +20986,7 @@
       <c r="Q695" s="3"/>
       <c r="R695" s="3"/>
       <c r="S695" s="3"/>
-      <c r="T695" s="3"/>
+      <c r="T695" s="24"/>
       <c r="U695" s="3"/>
       <c r="V695" s="3"/>
       <c r="W695" s="3"/>
@@ -21006,7 +21015,7 @@
       <c r="Q696" s="3"/>
       <c r="R696" s="3"/>
       <c r="S696" s="3"/>
-      <c r="T696" s="3"/>
+      <c r="T696" s="24"/>
       <c r="U696" s="3"/>
       <c r="V696" s="3"/>
       <c r="W696" s="3"/>
@@ -21035,7 +21044,7 @@
       <c r="Q697" s="3"/>
       <c r="R697" s="3"/>
       <c r="S697" s="3"/>
-      <c r="T697" s="3"/>
+      <c r="T697" s="24"/>
       <c r="U697" s="3"/>
       <c r="V697" s="3"/>
       <c r="W697" s="3"/>
@@ -21064,7 +21073,7 @@
       <c r="Q698" s="3"/>
       <c r="R698" s="3"/>
       <c r="S698" s="3"/>
-      <c r="T698" s="3"/>
+      <c r="T698" s="24"/>
       <c r="U698" s="3"/>
       <c r="V698" s="3"/>
       <c r="W698" s="3"/>
@@ -21093,7 +21102,7 @@
       <c r="Q699" s="3"/>
       <c r="R699" s="3"/>
       <c r="S699" s="3"/>
-      <c r="T699" s="3"/>
+      <c r="T699" s="24"/>
       <c r="U699" s="3"/>
       <c r="V699" s="3"/>
       <c r="W699" s="3"/>
@@ -21122,7 +21131,7 @@
       <c r="Q700" s="3"/>
       <c r="R700" s="3"/>
       <c r="S700" s="3"/>
-      <c r="T700" s="3"/>
+      <c r="T700" s="24"/>
       <c r="U700" s="3"/>
       <c r="V700" s="3"/>
       <c r="W700" s="3"/>
@@ -21151,7 +21160,7 @@
       <c r="Q701" s="3"/>
       <c r="R701" s="3"/>
       <c r="S701" s="3"/>
-      <c r="T701" s="3"/>
+      <c r="T701" s="24"/>
       <c r="U701" s="3"/>
       <c r="V701" s="3"/>
       <c r="W701" s="3"/>
@@ -21180,7 +21189,7 @@
       <c r="Q702" s="3"/>
       <c r="R702" s="3"/>
       <c r="S702" s="3"/>
-      <c r="T702" s="3"/>
+      <c r="T702" s="24"/>
       <c r="U702" s="3"/>
       <c r="V702" s="3"/>
       <c r="W702" s="3"/>
@@ -21209,7 +21218,7 @@
       <c r="Q703" s="3"/>
       <c r="R703" s="3"/>
       <c r="S703" s="3"/>
-      <c r="T703" s="3"/>
+      <c r="T703" s="24"/>
       <c r="U703" s="3"/>
       <c r="V703" s="3"/>
       <c r="W703" s="3"/>
@@ -21238,7 +21247,7 @@
       <c r="Q704" s="3"/>
       <c r="R704" s="3"/>
       <c r="S704" s="3"/>
-      <c r="T704" s="3"/>
+      <c r="T704" s="24"/>
       <c r="U704" s="3"/>
       <c r="V704" s="3"/>
       <c r="W704" s="3"/>
@@ -21267,7 +21276,7 @@
       <c r="Q705" s="3"/>
       <c r="R705" s="3"/>
       <c r="S705" s="3"/>
-      <c r="T705" s="3"/>
+      <c r="T705" s="24"/>
       <c r="U705" s="3"/>
       <c r="V705" s="3"/>
       <c r="W705" s="3"/>
@@ -21296,7 +21305,7 @@
       <c r="Q706" s="3"/>
       <c r="R706" s="3"/>
       <c r="S706" s="3"/>
-      <c r="T706" s="3"/>
+      <c r="T706" s="24"/>
       <c r="U706" s="3"/>
       <c r="V706" s="3"/>
       <c r="W706" s="3"/>
@@ -21325,7 +21334,7 @@
       <c r="Q707" s="3"/>
       <c r="R707" s="3"/>
       <c r="S707" s="3"/>
-      <c r="T707" s="3"/>
+      <c r="T707" s="24"/>
       <c r="U707" s="3"/>
       <c r="V707" s="3"/>
       <c r="W707" s="3"/>
@@ -21354,7 +21363,7 @@
       <c r="Q708" s="3"/>
       <c r="R708" s="3"/>
       <c r="S708" s="3"/>
-      <c r="T708" s="3"/>
+      <c r="T708" s="24"/>
       <c r="U708" s="3"/>
       <c r="V708" s="3"/>
       <c r="W708" s="3"/>
@@ -21383,7 +21392,7 @@
       <c r="Q709" s="3"/>
       <c r="R709" s="3"/>
       <c r="S709" s="3"/>
-      <c r="T709" s="3"/>
+      <c r="T709" s="24"/>
       <c r="U709" s="3"/>
       <c r="V709" s="3"/>
       <c r="W709" s="3"/>
@@ -21412,7 +21421,7 @@
       <c r="Q710" s="3"/>
       <c r="R710" s="3"/>
       <c r="S710" s="3"/>
-      <c r="T710" s="3"/>
+      <c r="T710" s="24"/>
       <c r="U710" s="3"/>
       <c r="V710" s="3"/>
       <c r="W710" s="3"/>
@@ -21441,7 +21450,7 @@
       <c r="Q711" s="3"/>
       <c r="R711" s="3"/>
       <c r="S711" s="3"/>
-      <c r="T711" s="3"/>
+      <c r="T711" s="24"/>
       <c r="U711" s="3"/>
       <c r="V711" s="3"/>
       <c r="W711" s="3"/>
@@ -21470,7 +21479,7 @@
       <c r="Q712" s="3"/>
       <c r="R712" s="3"/>
       <c r="S712" s="3"/>
-      <c r="T712" s="3"/>
+      <c r="T712" s="24"/>
       <c r="U712" s="3"/>
       <c r="V712" s="3"/>
       <c r="W712" s="3"/>
@@ -21499,7 +21508,7 @@
       <c r="Q713" s="3"/>
       <c r="R713" s="3"/>
       <c r="S713" s="3"/>
-      <c r="T713" s="3"/>
+      <c r="T713" s="24"/>
       <c r="U713" s="3"/>
       <c r="V713" s="3"/>
       <c r="W713" s="3"/>
@@ -21528,7 +21537,7 @@
       <c r="Q714" s="3"/>
       <c r="R714" s="3"/>
       <c r="S714" s="3"/>
-      <c r="T714" s="3"/>
+      <c r="T714" s="24"/>
       <c r="U714" s="3"/>
       <c r="V714" s="3"/>
       <c r="W714" s="3"/>
@@ -21557,7 +21566,7 @@
       <c r="Q715" s="3"/>
       <c r="R715" s="3"/>
       <c r="S715" s="3"/>
-      <c r="T715" s="3"/>
+      <c r="T715" s="24"/>
       <c r="U715" s="3"/>
       <c r="V715" s="3"/>
       <c r="W715" s="3"/>
@@ -21586,7 +21595,7 @@
       <c r="Q716" s="3"/>
       <c r="R716" s="3"/>
       <c r="S716" s="3"/>
-      <c r="T716" s="3"/>
+      <c r="T716" s="24"/>
       <c r="U716" s="3"/>
       <c r="V716" s="3"/>
       <c r="W716" s="3"/>
@@ -21615,7 +21624,7 @@
       <c r="Q717" s="3"/>
       <c r="R717" s="3"/>
       <c r="S717" s="3"/>
-      <c r="T717" s="3"/>
+      <c r="T717" s="24"/>
       <c r="U717" s="3"/>
       <c r="V717" s="3"/>
       <c r="W717" s="3"/>
@@ -21644,7 +21653,7 @@
       <c r="Q718" s="3"/>
       <c r="R718" s="3"/>
       <c r="S718" s="3"/>
-      <c r="T718" s="3"/>
+      <c r="T718" s="24"/>
       <c r="U718" s="3"/>
       <c r="V718" s="3"/>
       <c r="W718" s="3"/>
@@ -21673,7 +21682,7 @@
       <c r="Q719" s="3"/>
       <c r="R719" s="3"/>
       <c r="S719" s="3"/>
-      <c r="T719" s="3"/>
+      <c r="T719" s="24"/>
       <c r="U719" s="3"/>
       <c r="V719" s="3"/>
       <c r="W719" s="3"/>
@@ -21702,7 +21711,7 @@
       <c r="Q720" s="3"/>
       <c r="R720" s="3"/>
       <c r="S720" s="3"/>
-      <c r="T720" s="3"/>
+      <c r="T720" s="24"/>
       <c r="U720" s="3"/>
       <c r="V720" s="3"/>
       <c r="W720" s="3"/>
@@ -21731,7 +21740,7 @@
       <c r="Q721" s="3"/>
       <c r="R721" s="3"/>
       <c r="S721" s="3"/>
-      <c r="T721" s="3"/>
+      <c r="T721" s="24"/>
       <c r="U721" s="3"/>
       <c r="V721" s="3"/>
       <c r="W721" s="3"/>
@@ -21760,7 +21769,7 @@
       <c r="Q722" s="3"/>
       <c r="R722" s="3"/>
       <c r="S722" s="3"/>
-      <c r="T722" s="3"/>
+      <c r="T722" s="24"/>
       <c r="U722" s="3"/>
       <c r="V722" s="3"/>
       <c r="W722" s="3"/>
@@ -21789,7 +21798,7 @@
       <c r="Q723" s="3"/>
       <c r="R723" s="3"/>
       <c r="S723" s="3"/>
-      <c r="T723" s="3"/>
+      <c r="T723" s="24"/>
       <c r="U723" s="3"/>
       <c r="V723" s="3"/>
       <c r="W723" s="3"/>
@@ -21818,7 +21827,7 @@
       <c r="Q724" s="3"/>
       <c r="R724" s="3"/>
       <c r="S724" s="3"/>
-      <c r="T724" s="3"/>
+      <c r="T724" s="24"/>
       <c r="U724" s="3"/>
       <c r="V724" s="3"/>
       <c r="W724" s="3"/>
@@ -21847,7 +21856,7 @@
       <c r="Q725" s="3"/>
       <c r="R725" s="3"/>
       <c r="S725" s="3"/>
-      <c r="T725" s="3"/>
+      <c r="T725" s="24"/>
       <c r="U725" s="3"/>
       <c r="V725" s="3"/>
       <c r="W725" s="3"/>
@@ -21876,7 +21885,7 @@
       <c r="Q726" s="3"/>
       <c r="R726" s="3"/>
       <c r="S726" s="3"/>
-      <c r="T726" s="3"/>
+      <c r="T726" s="24"/>
       <c r="U726" s="3"/>
       <c r="V726" s="3"/>
       <c r="W726" s="3"/>
@@ -21905,7 +21914,7 @@
       <c r="Q727" s="3"/>
       <c r="R727" s="3"/>
       <c r="S727" s="3"/>
-      <c r="T727" s="3"/>
+      <c r="T727" s="24"/>
       <c r="U727" s="3"/>
       <c r="V727" s="3"/>
       <c r="W727" s="3"/>
@@ -21934,7 +21943,7 @@
       <c r="Q728" s="3"/>
       <c r="R728" s="3"/>
       <c r="S728" s="3"/>
-      <c r="T728" s="3"/>
+      <c r="T728" s="24"/>
       <c r="U728" s="3"/>
       <c r="V728" s="3"/>
       <c r="W728" s="3"/>
@@ -21963,7 +21972,7 @@
       <c r="Q729" s="3"/>
       <c r="R729" s="3"/>
       <c r="S729" s="3"/>
-      <c r="T729" s="3"/>
+      <c r="T729" s="24"/>
       <c r="U729" s="3"/>
       <c r="V729" s="3"/>
       <c r="W729" s="3"/>
@@ -21992,7 +22001,7 @@
       <c r="Q730" s="3"/>
       <c r="R730" s="3"/>
       <c r="S730" s="3"/>
-      <c r="T730" s="3"/>
+      <c r="T730" s="24"/>
       <c r="U730" s="3"/>
       <c r="V730" s="3"/>
       <c r="W730" s="3"/>
@@ -22021,7 +22030,7 @@
       <c r="Q731" s="3"/>
       <c r="R731" s="3"/>
       <c r="S731" s="3"/>
-      <c r="T731" s="3"/>
+      <c r="T731" s="24"/>
       <c r="U731" s="3"/>
       <c r="V731" s="3"/>
       <c r="W731" s="3"/>
@@ -22050,7 +22059,7 @@
       <c r="Q732" s="3"/>
       <c r="R732" s="3"/>
       <c r="S732" s="3"/>
-      <c r="T732" s="3"/>
+      <c r="T732" s="24"/>
       <c r="U732" s="3"/>
       <c r="V732" s="3"/>
       <c r="W732" s="3"/>
@@ -22079,7 +22088,7 @@
       <c r="Q733" s="3"/>
       <c r="R733" s="3"/>
       <c r="S733" s="3"/>
-      <c r="T733" s="3"/>
+      <c r="T733" s="24"/>
       <c r="U733" s="3"/>
       <c r="V733" s="3"/>
       <c r="W733" s="3"/>
@@ -22108,7 +22117,7 @@
       <c r="Q734" s="3"/>
       <c r="R734" s="3"/>
       <c r="S734" s="3"/>
-      <c r="T734" s="3"/>
+      <c r="T734" s="24"/>
       <c r="U734" s="3"/>
       <c r="V734" s="3"/>
       <c r="W734" s="3"/>
@@ -22137,7 +22146,7 @@
       <c r="Q735" s="3"/>
       <c r="R735" s="3"/>
       <c r="S735" s="3"/>
-      <c r="T735" s="3"/>
+      <c r="T735" s="24"/>
       <c r="U735" s="3"/>
       <c r="V735" s="3"/>
       <c r="W735" s="3"/>
@@ -22166,7 +22175,7 @@
       <c r="Q736" s="3"/>
       <c r="R736" s="3"/>
       <c r="S736" s="3"/>
-      <c r="T736" s="3"/>
+      <c r="T736" s="24"/>
       <c r="U736" s="3"/>
       <c r="V736" s="3"/>
       <c r="W736" s="3"/>
@@ -22195,7 +22204,7 @@
       <c r="Q737" s="3"/>
       <c r="R737" s="3"/>
       <c r="S737" s="3"/>
-      <c r="T737" s="3"/>
+      <c r="T737" s="24"/>
       <c r="U737" s="3"/>
       <c r="V737" s="3"/>
       <c r="W737" s="3"/>
@@ -22224,7 +22233,7 @@
       <c r="Q738" s="3"/>
       <c r="R738" s="3"/>
       <c r="S738" s="3"/>
-      <c r="T738" s="3"/>
+      <c r="T738" s="24"/>
       <c r="U738" s="3"/>
       <c r="V738" s="3"/>
       <c r="W738" s="3"/>
@@ -22253,7 +22262,7 @@
       <c r="Q739" s="3"/>
       <c r="R739" s="3"/>
       <c r="S739" s="3"/>
-      <c r="T739" s="3"/>
+      <c r="T739" s="24"/>
       <c r="U739" s="3"/>
       <c r="V739" s="3"/>
       <c r="W739" s="3"/>
@@ -22282,7 +22291,7 @@
       <c r="Q740" s="3"/>
       <c r="R740" s="3"/>
       <c r="S740" s="3"/>
-      <c r="T740" s="3"/>
+      <c r="T740" s="24"/>
       <c r="U740" s="3"/>
       <c r="V740" s="3"/>
       <c r="W740" s="3"/>
@@ -22311,7 +22320,7 @@
       <c r="Q741" s="3"/>
       <c r="R741" s="3"/>
       <c r="S741" s="3"/>
-      <c r="T741" s="3"/>
+      <c r="T741" s="24"/>
       <c r="U741" s="3"/>
       <c r="V741" s="3"/>
       <c r="W741" s="3"/>
@@ -22340,7 +22349,7 @@
       <c r="Q742" s="3"/>
       <c r="R742" s="3"/>
       <c r="S742" s="3"/>
-      <c r="T742" s="3"/>
+      <c r="T742" s="24"/>
       <c r="U742" s="3"/>
       <c r="V742" s="3"/>
       <c r="W742" s="3"/>
@@ -22369,7 +22378,7 @@
       <c r="Q743" s="3"/>
       <c r="R743" s="3"/>
       <c r="S743" s="3"/>
-      <c r="T743" s="3"/>
+      <c r="T743" s="24"/>
       <c r="U743" s="3"/>
       <c r="V743" s="3"/>
       <c r="W743" s="3"/>
@@ -22398,7 +22407,7 @@
       <c r="Q744" s="3"/>
       <c r="R744" s="3"/>
       <c r="S744" s="3"/>
-      <c r="T744" s="3"/>
+      <c r="T744" s="24"/>
       <c r="U744" s="3"/>
       <c r="V744" s="3"/>
       <c r="W744" s="3"/>
@@ -22427,7 +22436,7 @@
       <c r="Q745" s="3"/>
       <c r="R745" s="3"/>
       <c r="S745" s="3"/>
-      <c r="T745" s="3"/>
+      <c r="T745" s="24"/>
       <c r="U745" s="3"/>
       <c r="V745" s="3"/>
       <c r="W745" s="3"/>
@@ -22456,7 +22465,7 @@
       <c r="Q746" s="3"/>
       <c r="R746" s="3"/>
       <c r="S746" s="3"/>
-      <c r="T746" s="3"/>
+      <c r="T746" s="24"/>
       <c r="U746" s="3"/>
       <c r="V746" s="3"/>
       <c r="W746" s="3"/>
@@ -22485,7 +22494,7 @@
       <c r="Q747" s="3"/>
       <c r="R747" s="3"/>
       <c r="S747" s="3"/>
-      <c r="T747" s="3"/>
+      <c r="T747" s="24"/>
       <c r="U747" s="3"/>
       <c r="V747" s="3"/>
       <c r="W747" s="3"/>
@@ -22514,7 +22523,7 @@
       <c r="Q748" s="3"/>
       <c r="R748" s="3"/>
       <c r="S748" s="3"/>
-      <c r="T748" s="3"/>
+      <c r="T748" s="24"/>
       <c r="U748" s="3"/>
       <c r="V748" s="3"/>
       <c r="W748" s="3"/>
@@ -22543,7 +22552,7 @@
       <c r="Q749" s="3"/>
       <c r="R749" s="3"/>
       <c r="S749" s="3"/>
-      <c r="T749" s="3"/>
+      <c r="T749" s="24"/>
       <c r="U749" s="3"/>
       <c r="V749" s="3"/>
       <c r="W749" s="3"/>
@@ -22572,7 +22581,7 @@
       <c r="Q750" s="3"/>
       <c r="R750" s="3"/>
       <c r="S750" s="3"/>
-      <c r="T750" s="3"/>
+      <c r="T750" s="24"/>
       <c r="U750" s="3"/>
       <c r="V750" s="3"/>
       <c r="W750" s="3"/>
@@ -22601,7 +22610,7 @@
       <c r="Q751" s="3"/>
       <c r="R751" s="3"/>
       <c r="S751" s="3"/>
-      <c r="T751" s="3"/>
+      <c r="T751" s="24"/>
       <c r="U751" s="3"/>
       <c r="V751" s="3"/>
       <c r="W751" s="3"/>
@@ -22630,7 +22639,7 @@
       <c r="Q752" s="3"/>
       <c r="R752" s="3"/>
       <c r="S752" s="3"/>
-      <c r="T752" s="3"/>
+      <c r="T752" s="24"/>
       <c r="U752" s="3"/>
       <c r="V752" s="3"/>
       <c r="W752" s="3"/>
@@ -22659,7 +22668,7 @@
       <c r="Q753" s="3"/>
       <c r="R753" s="3"/>
       <c r="S753" s="3"/>
-      <c r="T753" s="3"/>
+      <c r="T753" s="24"/>
       <c r="U753" s="3"/>
       <c r="V753" s="3"/>
       <c r="W753" s="3"/>
@@ -22688,7 +22697,7 @@
       <c r="Q754" s="3"/>
       <c r="R754" s="3"/>
       <c r="S754" s="3"/>
-      <c r="T754" s="3"/>
+      <c r="T754" s="24"/>
       <c r="U754" s="3"/>
       <c r="V754" s="3"/>
       <c r="W754" s="3"/>
@@ -22717,7 +22726,7 @@
       <c r="Q755" s="3"/>
       <c r="R755" s="3"/>
       <c r="S755" s="3"/>
-      <c r="T755" s="3"/>
+      <c r="T755" s="24"/>
       <c r="U755" s="3"/>
       <c r="V755" s="3"/>
       <c r="W755" s="3"/>
@@ -22746,7 +22755,7 @@
       <c r="Q756" s="3"/>
       <c r="R756" s="3"/>
       <c r="S756" s="3"/>
-      <c r="T756" s="3"/>
+      <c r="T756" s="24"/>
       <c r="U756" s="3"/>
       <c r="V756" s="3"/>
       <c r="W756" s="3"/>
@@ -22775,7 +22784,7 @@
       <c r="Q757" s="3"/>
       <c r="R757" s="3"/>
       <c r="S757" s="3"/>
-      <c r="T757" s="3"/>
+      <c r="T757" s="24"/>
       <c r="U757" s="3"/>
       <c r="V757" s="3"/>
       <c r="W757" s="3"/>
@@ -22804,7 +22813,7 @@
       <c r="Q758" s="3"/>
       <c r="R758" s="3"/>
       <c r="S758" s="3"/>
-      <c r="T758" s="3"/>
+      <c r="T758" s="24"/>
       <c r="U758" s="3"/>
       <c r="V758" s="3"/>
       <c r="W758" s="3"/>
@@ -22833,7 +22842,7 @@
       <c r="Q759" s="3"/>
       <c r="R759" s="3"/>
       <c r="S759" s="3"/>
-      <c r="T759" s="3"/>
+      <c r="T759" s="24"/>
       <c r="U759" s="3"/>
       <c r="V759" s="3"/>
       <c r="W759" s="3"/>
@@ -22862,7 +22871,7 @@
       <c r="Q760" s="3"/>
       <c r="R760" s="3"/>
       <c r="S760" s="3"/>
-      <c r="T760" s="3"/>
+      <c r="T760" s="24"/>
       <c r="U760" s="3"/>
       <c r="V760" s="3"/>
       <c r="W760" s="3"/>
@@ -22891,7 +22900,7 @@
       <c r="Q761" s="3"/>
       <c r="R761" s="3"/>
       <c r="S761" s="3"/>
-      <c r="T761" s="3"/>
+      <c r="T761" s="24"/>
       <c r="U761" s="3"/>
       <c r="V761" s="3"/>
       <c r="W761" s="3"/>
@@ -22920,7 +22929,7 @@
       <c r="Q762" s="3"/>
       <c r="R762" s="3"/>
       <c r="S762" s="3"/>
-      <c r="T762" s="3"/>
+      <c r="T762" s="24"/>
       <c r="U762" s="3"/>
       <c r="V762" s="3"/>
       <c r="W762" s="3"/>
@@ -22949,7 +22958,7 @@
       <c r="Q763" s="3"/>
       <c r="R763" s="3"/>
       <c r="S763" s="3"/>
-      <c r="T763" s="3"/>
+      <c r="T763" s="24"/>
       <c r="U763" s="3"/>
       <c r="V763" s="3"/>
       <c r="W763" s="3"/>
@@ -22978,7 +22987,7 @@
       <c r="Q764" s="3"/>
       <c r="R764" s="3"/>
       <c r="S764" s="3"/>
-      <c r="T764" s="3"/>
+      <c r="T764" s="24"/>
       <c r="U764" s="3"/>
       <c r="V764" s="3"/>
       <c r="W764" s="3"/>
@@ -23007,7 +23016,7 @@
       <c r="Q765" s="3"/>
       <c r="R765" s="3"/>
       <c r="S765" s="3"/>
-      <c r="T765" s="3"/>
+      <c r="T765" s="24"/>
       <c r="U765" s="3"/>
       <c r="V765" s="3"/>
       <c r="W765" s="3"/>
@@ -23036,7 +23045,7 @@
       <c r="Q766" s="3"/>
       <c r="R766" s="3"/>
       <c r="S766" s="3"/>
-      <c r="T766" s="3"/>
+      <c r="T766" s="24"/>
       <c r="U766" s="3"/>
       <c r="V766" s="3"/>
       <c r="W766" s="3"/>
@@ -23065,7 +23074,7 @@
       <c r="Q767" s="3"/>
       <c r="R767" s="3"/>
       <c r="S767" s="3"/>
-      <c r="T767" s="3"/>
+      <c r="T767" s="24"/>
       <c r="U767" s="3"/>
       <c r="V767" s="3"/>
       <c r="W767" s="3"/>
@@ -23094,7 +23103,7 @@
       <c r="Q768" s="3"/>
       <c r="R768" s="3"/>
       <c r="S768" s="3"/>
-      <c r="T768" s="3"/>
+      <c r="T768" s="24"/>
       <c r="U768" s="3"/>
       <c r="V768" s="3"/>
       <c r="W768" s="3"/>
@@ -23123,7 +23132,7 @@
       <c r="Q769" s="3"/>
       <c r="R769" s="3"/>
       <c r="S769" s="3"/>
-      <c r="T769" s="3"/>
+      <c r="T769" s="24"/>
       <c r="U769" s="3"/>
       <c r="V769" s="3"/>
       <c r="W769" s="3"/>
@@ -23152,7 +23161,7 @@
       <c r="Q770" s="3"/>
       <c r="R770" s="3"/>
       <c r="S770" s="3"/>
-      <c r="T770" s="3"/>
+      <c r="T770" s="24"/>
       <c r="U770" s="3"/>
       <c r="V770" s="3"/>
       <c r="W770" s="3"/>
@@ -23181,7 +23190,7 @@
       <c r="Q771" s="3"/>
       <c r="R771" s="3"/>
       <c r="S771" s="3"/>
-      <c r="T771" s="3"/>
+      <c r="T771" s="24"/>
       <c r="U771" s="3"/>
       <c r="V771" s="3"/>
       <c r="W771" s="3"/>
@@ -23210,7 +23219,7 @@
       <c r="Q772" s="3"/>
       <c r="R772" s="3"/>
       <c r="S772" s="3"/>
-      <c r="T772" s="3"/>
+      <c r="T772" s="24"/>
       <c r="U772" s="3"/>
       <c r="V772" s="3"/>
       <c r="W772" s="3"/>
@@ -23239,7 +23248,7 @@
       <c r="Q773" s="3"/>
       <c r="R773" s="3"/>
       <c r="S773" s="3"/>
-      <c r="T773" s="3"/>
+      <c r="T773" s="24"/>
       <c r="U773" s="3"/>
       <c r="V773" s="3"/>
       <c r="W773" s="3"/>
@@ -23268,7 +23277,7 @@
       <c r="Q774" s="3"/>
       <c r="R774" s="3"/>
       <c r="S774" s="3"/>
-      <c r="T774" s="3"/>
+      <c r="T774" s="24"/>
       <c r="U774" s="3"/>
       <c r="V774" s="3"/>
       <c r="W774" s="3"/>
@@ -23297,7 +23306,7 @@
       <c r="Q775" s="3"/>
       <c r="R775" s="3"/>
       <c r="S775" s="3"/>
-      <c r="T775" s="3"/>
+      <c r="T775" s="24"/>
       <c r="U775" s="3"/>
       <c r="V775" s="3"/>
       <c r="W775" s="3"/>
@@ -23326,7 +23335,7 @@
       <c r="Q776" s="3"/>
       <c r="R776" s="3"/>
       <c r="S776" s="3"/>
-      <c r="T776" s="3"/>
+      <c r="T776" s="24"/>
       <c r="U776" s="3"/>
       <c r="V776" s="3"/>
       <c r="W776" s="3"/>
@@ -23355,7 +23364,7 @@
       <c r="Q777" s="3"/>
       <c r="R777" s="3"/>
       <c r="S777" s="3"/>
-      <c r="T777" s="3"/>
+      <c r="T777" s="24"/>
       <c r="U777" s="3"/>
       <c r="V777" s="3"/>
       <c r="W777" s="3"/>
@@ -23384,7 +23393,7 @@
       <c r="Q778" s="3"/>
       <c r="R778" s="3"/>
       <c r="S778" s="3"/>
-      <c r="T778" s="3"/>
+      <c r="T778" s="24"/>
       <c r="U778" s="3"/>
       <c r="V778" s="3"/>
       <c r="W778" s="3"/>
@@ -23413,7 +23422,7 @@
       <c r="Q779" s="3"/>
       <c r="R779" s="3"/>
       <c r="S779" s="3"/>
-      <c r="T779" s="3"/>
+      <c r="T779" s="24"/>
       <c r="U779" s="3"/>
       <c r="V779" s="3"/>
       <c r="W779" s="3"/>
@@ -23442,7 +23451,7 @@
       <c r="Q780" s="3"/>
       <c r="R780" s="3"/>
       <c r="S780" s="3"/>
-      <c r="T780" s="3"/>
+      <c r="T780" s="24"/>
       <c r="U780" s="3"/>
       <c r="V780" s="3"/>
       <c r="W780" s="3"/>
@@ -23471,7 +23480,7 @@
       <c r="Q781" s="3"/>
       <c r="R781" s="3"/>
       <c r="S781" s="3"/>
-      <c r="T781" s="3"/>
+      <c r="T781" s="24"/>
       <c r="U781" s="3"/>
       <c r="V781" s="3"/>
       <c r="W781" s="3"/>
@@ -23500,7 +23509,7 @@
       <c r="Q782" s="3"/>
       <c r="R782" s="3"/>
       <c r="S782" s="3"/>
-      <c r="T782" s="3"/>
+      <c r="T782" s="24"/>
       <c r="U782" s="3"/>
       <c r="V782" s="3"/>
       <c r="W782" s="3"/>
@@ -23529,7 +23538,7 @@
       <c r="Q783" s="3"/>
       <c r="R783" s="3"/>
       <c r="S783" s="3"/>
-      <c r="T783" s="3"/>
+      <c r="T783" s="24"/>
       <c r="U783" s="3"/>
       <c r="V783" s="3"/>
       <c r="W783" s="3"/>
@@ -23558,7 +23567,7 @@
       <c r="Q784" s="3"/>
       <c r="R784" s="3"/>
       <c r="S784" s="3"/>
-      <c r="T784" s="3"/>
+      <c r="T784" s="24"/>
       <c r="U784" s="3"/>
       <c r="V784" s="3"/>
       <c r="W784" s="3"/>
@@ -23587,7 +23596,7 @@
       <c r="Q785" s="3"/>
       <c r="R785" s="3"/>
       <c r="S785" s="3"/>
-      <c r="T785" s="3"/>
+      <c r="T785" s="24"/>
       <c r="U785" s="3"/>
       <c r="V785" s="3"/>
       <c r="W785" s="3"/>
@@ -23616,7 +23625,7 @@
       <c r="Q786" s="3"/>
       <c r="R786" s="3"/>
       <c r="S786" s="3"/>
-      <c r="T786" s="3"/>
+      <c r="T786" s="24"/>
       <c r="U786" s="3"/>
       <c r="V786" s="3"/>
       <c r="W786" s="3"/>
@@ -23645,7 +23654,7 @@
       <c r="Q787" s="3"/>
       <c r="R787" s="3"/>
       <c r="S787" s="3"/>
-      <c r="T787" s="3"/>
+      <c r="T787" s="24"/>
       <c r="U787" s="3"/>
       <c r="V787" s="3"/>
       <c r="W787" s="3"/>
@@ -23674,7 +23683,7 @@
       <c r="Q788" s="3"/>
       <c r="R788" s="3"/>
       <c r="S788" s="3"/>
-      <c r="T788" s="3"/>
+      <c r="T788" s="24"/>
       <c r="U788" s="3"/>
       <c r="V788" s="3"/>
       <c r="W788" s="3"/>
@@ -23703,7 +23712,7 @@
       <c r="Q789" s="3"/>
       <c r="R789" s="3"/>
       <c r="S789" s="3"/>
-      <c r="T789" s="3"/>
+      <c r="T789" s="24"/>
       <c r="U789" s="3"/>
       <c r="V789" s="3"/>
       <c r="W789" s="3"/>
@@ -23732,7 +23741,7 @@
       <c r="Q790" s="3"/>
       <c r="R790" s="3"/>
       <c r="S790" s="3"/>
-      <c r="T790" s="3"/>
+      <c r="T790" s="24"/>
       <c r="U790" s="3"/>
       <c r="V790" s="3"/>
       <c r="W790" s="3"/>
@@ -23761,7 +23770,7 @@
       <c r="Q791" s="3"/>
       <c r="R791" s="3"/>
       <c r="S791" s="3"/>
-      <c r="T791" s="3"/>
+      <c r="T791" s="24"/>
       <c r="U791" s="3"/>
       <c r="V791" s="3"/>
       <c r="W791" s="3"/>
@@ -23790,7 +23799,7 @@
       <c r="Q792" s="3"/>
       <c r="R792" s="3"/>
       <c r="S792" s="3"/>
-      <c r="T792" s="3"/>
+      <c r="T792" s="24"/>
       <c r="U792" s="3"/>
       <c r="V792" s="3"/>
       <c r="W792" s="3"/>
@@ -23819,7 +23828,7 @@
       <c r="Q793" s="3"/>
       <c r="R793" s="3"/>
       <c r="S793" s="3"/>
-      <c r="T793" s="3"/>
+      <c r="T793" s="24"/>
       <c r="U793" s="3"/>
       <c r="V793" s="3"/>
       <c r="W793" s="3"/>
@@ -23848,7 +23857,7 @@
       <c r="Q794" s="3"/>
       <c r="R794" s="3"/>
       <c r="S794" s="3"/>
-      <c r="T794" s="3"/>
+      <c r="T794" s="24"/>
       <c r="U794" s="3"/>
       <c r="V794" s="3"/>
       <c r="W794" s="3"/>
@@ -23877,7 +23886,7 @@
       <c r="Q795" s="3"/>
       <c r="R795" s="3"/>
       <c r="S795" s="3"/>
-      <c r="T795" s="3"/>
+      <c r="T795" s="24"/>
       <c r="U795" s="3"/>
       <c r="V795" s="3"/>
       <c r="W795" s="3"/>
@@ -23906,7 +23915,7 @@
       <c r="Q796" s="3"/>
       <c r="R796" s="3"/>
       <c r="S796" s="3"/>
-      <c r="T796" s="3"/>
+      <c r="T796" s="24"/>
       <c r="U796" s="3"/>
       <c r="V796" s="3"/>
       <c r="W796" s="3"/>
@@ -23935,7 +23944,7 @@
       <c r="Q797" s="3"/>
       <c r="R797" s="3"/>
       <c r="S797" s="3"/>
-      <c r="T797" s="3"/>
+      <c r="T797" s="24"/>
       <c r="U797" s="3"/>
       <c r="V797" s="3"/>
       <c r="W797" s="3"/>
@@ -23964,7 +23973,7 @@
       <c r="Q798" s="3"/>
       <c r="R798" s="3"/>
       <c r="S798" s="3"/>
-      <c r="T798" s="3"/>
+      <c r="T798" s="24"/>
       <c r="U798" s="3"/>
       <c r="V798" s="3"/>
       <c r="W798" s="3"/>
@@ -23993,7 +24002,7 @@
       <c r="Q799" s="3"/>
       <c r="R799" s="3"/>
       <c r="S799" s="3"/>
-      <c r="T799" s="3"/>
+      <c r="T799" s="24"/>
       <c r="U799" s="3"/>
       <c r="V799" s="3"/>
       <c r="W799" s="3"/>
@@ -24022,7 +24031,7 @@
       <c r="Q800" s="3"/>
       <c r="R800" s="3"/>
       <c r="S800" s="3"/>
-      <c r="T800" s="3"/>
+      <c r="T800" s="24"/>
       <c r="U800" s="3"/>
       <c r="V800" s="3"/>
       <c r="W800" s="3"/>
@@ -24051,7 +24060,7 @@
       <c r="Q801" s="3"/>
       <c r="R801" s="3"/>
       <c r="S801" s="3"/>
-      <c r="T801" s="3"/>
+      <c r="T801" s="24"/>
       <c r="U801" s="3"/>
       <c r="V801" s="3"/>
       <c r="W801" s="3"/>
@@ -24080,7 +24089,7 @@
       <c r="Q802" s="3"/>
       <c r="R802" s="3"/>
       <c r="S802" s="3"/>
-      <c r="T802" s="3"/>
+      <c r="T802" s="24"/>
       <c r="U802" s="3"/>
       <c r="V802" s="3"/>
       <c r="W802" s="3"/>
@@ -24109,7 +24118,7 @@
       <c r="Q803" s="3"/>
       <c r="R803" s="3"/>
       <c r="S803" s="3"/>
-      <c r="T803" s="3"/>
+      <c r="T803" s="24"/>
       <c r="U803" s="3"/>
       <c r="V803" s="3"/>
       <c r="W803" s="3"/>
@@ -24138,7 +24147,7 @@
       <c r="Q804" s="3"/>
       <c r="R804" s="3"/>
       <c r="S804" s="3"/>
-      <c r="T804" s="3"/>
+      <c r="T804" s="24"/>
       <c r="U804" s="3"/>
       <c r="V804" s="3"/>
       <c r="W804" s="3"/>
@@ -24167,7 +24176,7 @@
       <c r="Q805" s="3"/>
       <c r="R805" s="3"/>
       <c r="S805" s="3"/>
-      <c r="T805" s="3"/>
+      <c r="T805" s="24"/>
       <c r="U805" s="3"/>
       <c r="V805" s="3"/>
       <c r="W805" s="3"/>
@@ -24196,7 +24205,7 @@
       <c r="Q806" s="3"/>
       <c r="R806" s="3"/>
       <c r="S806" s="3"/>
-      <c r="T806" s="3"/>
+      <c r="T806" s="24"/>
       <c r="U806" s="3"/>
       <c r="V806" s="3"/>
       <c r="W806" s="3"/>
@@ -24225,7 +24234,7 @@
       <c r="Q807" s="3"/>
       <c r="R807" s="3"/>
       <c r="S807" s="3"/>
-      <c r="T807" s="3"/>
+      <c r="T807" s="24"/>
       <c r="U807" s="3"/>
       <c r="V807" s="3"/>
       <c r="W807" s="3"/>
@@ -24254,7 +24263,7 @@
       <c r="Q808" s="3"/>
       <c r="R808" s="3"/>
       <c r="S808" s="3"/>
-      <c r="T808" s="3"/>
+      <c r="T808" s="24"/>
       <c r="U808" s="3"/>
       <c r="V808" s="3"/>
       <c r="W808" s="3"/>
@@ -24283,7 +24292,7 @@
       <c r="Q809" s="3"/>
       <c r="R809" s="3"/>
       <c r="S809" s="3"/>
-      <c r="T809" s="3"/>
+      <c r="T809" s="24"/>
       <c r="U809" s="3"/>
       <c r="V809" s="3"/>
       <c r="W809" s="3"/>
@@ -24312,7 +24321,7 @@
       <c r="Q810" s="3"/>
       <c r="R810" s="3"/>
       <c r="S810" s="3"/>
-      <c r="T810" s="3"/>
+      <c r="T810" s="24"/>
       <c r="U810" s="3"/>
       <c r="V810" s="3"/>
       <c r="W810" s="3"/>
@@ -24341,7 +24350,7 @@
       <c r="Q811" s="3"/>
       <c r="R811" s="3"/>
       <c r="S811" s="3"/>
-      <c r="T811" s="3"/>
+      <c r="T811" s="24"/>
       <c r="U811" s="3"/>
       <c r="V811" s="3"/>
       <c r="W811" s="3"/>
@@ -24370,7 +24379,7 @@
       <c r="Q812" s="3"/>
       <c r="R812" s="3"/>
       <c r="S812" s="3"/>
-      <c r="T812" s="3"/>
+      <c r="T812" s="24"/>
       <c r="U812" s="3"/>
       <c r="V812" s="3"/>
       <c r="W812" s="3"/>
@@ -24399,7 +24408,7 @@
       <c r="Q813" s="3"/>
       <c r="R813" s="3"/>
       <c r="S813" s="3"/>
-      <c r="T813" s="3"/>
+      <c r="T813" s="24"/>
       <c r="U813" s="3"/>
       <c r="V813" s="3"/>
       <c r="W813" s="3"/>
@@ -24428,7 +24437,7 @@
       <c r="Q814" s="3"/>
       <c r="R814" s="3"/>
       <c r="S814" s="3"/>
-      <c r="T814" s="3"/>
+      <c r="T814" s="24"/>
       <c r="U814" s="3"/>
       <c r="V814" s="3"/>
       <c r="W814" s="3"/>
@@ -24457,7 +24466,7 @@
       <c r="Q815" s="3"/>
       <c r="R815" s="3"/>
       <c r="S815" s="3"/>
-      <c r="T815" s="3"/>
+      <c r="T815" s="24"/>
       <c r="U815" s="3"/>
       <c r="V815" s="3"/>
       <c r="W815" s="3"/>
@@ -24486,7 +24495,7 @@
       <c r="Q816" s="3"/>
       <c r="R816" s="3"/>
       <c r="S816" s="3"/>
-      <c r="T816" s="3"/>
+      <c r="T816" s="24"/>
       <c r="U816" s="3"/>
       <c r="V816" s="3"/>
       <c r="W816" s="3"/>
@@ -24515,7 +24524,7 @@
       <c r="Q817" s="3"/>
       <c r="R817" s="3"/>
       <c r="S817" s="3"/>
-      <c r="T817" s="3"/>
+      <c r="T817" s="24"/>
       <c r="U817" s="3"/>
       <c r="V817" s="3"/>
       <c r="W817" s="3"/>
@@ -24544,7 +24553,7 @@
       <c r="Q818" s="3"/>
       <c r="R818" s="3"/>
       <c r="S818" s="3"/>
-      <c r="T818" s="3"/>
+      <c r="T818" s="24"/>
       <c r="U818" s="3"/>
       <c r="V818" s="3"/>
       <c r="W818" s="3"/>
@@ -24573,7 +24582,7 @@
       <c r="Q819" s="3"/>
       <c r="R819" s="3"/>
       <c r="S819" s="3"/>
-      <c r="T819" s="3"/>
+      <c r="T819" s="24"/>
       <c r="U819" s="3"/>
       <c r="V819" s="3"/>
       <c r="W819" s="3"/>
@@ -24602,7 +24611,7 @@
       <c r="Q820" s="3"/>
       <c r="R820" s="3"/>
       <c r="S820" s="3"/>
-      <c r="T820" s="3"/>
+      <c r="T820" s="24"/>
       <c r="U820" s="3"/>
       <c r="V820" s="3"/>
       <c r="W820" s="3"/>
@@ -24631,7 +24640,7 @@
       <c r="Q821" s="3"/>
       <c r="R821" s="3"/>
       <c r="S821" s="3"/>
-      <c r="T821" s="3"/>
+      <c r="T821" s="24"/>
       <c r="U821" s="3"/>
       <c r="V821" s="3"/>
       <c r="W821" s="3"/>
@@ -24660,7 +24669,7 @@
       <c r="Q822" s="3"/>
       <c r="R822" s="3"/>
       <c r="S822" s="3"/>
-      <c r="T822" s="3"/>
+      <c r="T822" s="24"/>
       <c r="U822" s="3"/>
       <c r="V822" s="3"/>
       <c r="W822" s="3"/>
@@ -24689,7 +24698,7 @@
       <c r="Q823" s="3"/>
       <c r="R823" s="3"/>
       <c r="S823" s="3"/>
-      <c r="T823" s="3"/>
+      <c r="T823" s="24"/>
       <c r="U823" s="3"/>
       <c r="V823" s="3"/>
       <c r="W823" s="3"/>
@@ -24718,7 +24727,7 @@
       <c r="Q824" s="3"/>
       <c r="R824" s="3"/>
       <c r="S824" s="3"/>
-      <c r="T824" s="3"/>
+      <c r="T824" s="24"/>
       <c r="U824" s="3"/>
       <c r="V824" s="3"/>
       <c r="W824" s="3"/>
@@ -24747,7 +24756,7 @@
       <c r="Q825" s="3"/>
       <c r="R825" s="3"/>
       <c r="S825" s="3"/>
-      <c r="T825" s="3"/>
+      <c r="T825" s="24"/>
       <c r="U825" s="3"/>
       <c r="V825" s="3"/>
       <c r="W825" s="3"/>
@@ -24776,7 +24785,7 @@
       <c r="Q826" s="3"/>
       <c r="R826" s="3"/>
       <c r="S826" s="3"/>
-      <c r="T826" s="3"/>
+      <c r="T826" s="24"/>
       <c r="U826" s="3"/>
       <c r="V826" s="3"/>
       <c r="W826" s="3"/>
@@ -24805,7 +24814,7 @@
       <c r="Q827" s="3"/>
       <c r="R827" s="3"/>
       <c r="S827" s="3"/>
-      <c r="T827" s="3"/>
+      <c r="T827" s="24"/>
       <c r="U827" s="3"/>
       <c r="V827" s="3"/>
       <c r="W827" s="3"/>
@@ -24834,7 +24843,7 @@
       <c r="Q828" s="3"/>
       <c r="R828" s="3"/>
       <c r="S828" s="3"/>
-      <c r="T828" s="3"/>
+      <c r="T828" s="24"/>
       <c r="U828" s="3"/>
       <c r="V828" s="3"/>
       <c r="W828" s="3"/>
@@ -24863,7 +24872,7 @@
       <c r="Q829" s="3"/>
       <c r="R829" s="3"/>
       <c r="S829" s="3"/>
-      <c r="T829" s="3"/>
+      <c r="T829" s="24"/>
       <c r="U829" s="3"/>
       <c r="V829" s="3"/>
       <c r="W829" s="3"/>
@@ -24892,7 +24901,7 @@
       <c r="Q830" s="3"/>
       <c r="R830" s="3"/>
       <c r="S830" s="3"/>
-      <c r="T830" s="3"/>
+      <c r="T830" s="24"/>
       <c r="U830" s="3"/>
       <c r="V830" s="3"/>
       <c r="W830" s="3"/>
@@ -24921,7 +24930,7 @@
       <c r="Q831" s="3"/>
       <c r="R831" s="3"/>
       <c r="S831" s="3"/>
-      <c r="T831" s="3"/>
+      <c r="T831" s="24"/>
       <c r="U831" s="3"/>
       <c r="V831" s="3"/>
       <c r="W831" s="3"/>
@@ -24950,7 +24959,7 @@
       <c r="Q832" s="3"/>
       <c r="R832" s="3"/>
       <c r="S832" s="3"/>
-      <c r="T832" s="3"/>
+      <c r="T832" s="24"/>
       <c r="U832" s="3"/>
       <c r="V832" s="3"/>
       <c r="W832" s="3"/>
@@ -24979,7 +24988,7 @@
       <c r="Q833" s="3"/>
       <c r="R833" s="3"/>
       <c r="S833" s="3"/>
-      <c r="T833" s="3"/>
+      <c r="T833" s="24"/>
       <c r="U833" s="3"/>
       <c r="V833" s="3"/>
       <c r="W833" s="3"/>
@@ -25008,7 +25017,7 @@
       <c r="Q834" s="3"/>
       <c r="R834" s="3"/>
       <c r="S834" s="3"/>
-      <c r="T834" s="3"/>
+      <c r="T834" s="24"/>
       <c r="U834" s="3"/>
       <c r="V834" s="3"/>
       <c r="W834" s="3"/>
@@ -25037,7 +25046,7 @@
       <c r="Q835" s="3"/>
       <c r="R835" s="3"/>
       <c r="S835" s="3"/>
-      <c r="T835" s="3"/>
+      <c r="T835" s="24"/>
       <c r="U835" s="3"/>
       <c r="V835" s="3"/>
       <c r="W835" s="3"/>
@@ -25066,7 +25075,7 @@
       <c r="Q836" s="3"/>
       <c r="R836" s="3"/>
       <c r="S836" s="3"/>
-      <c r="T836" s="3"/>
+      <c r="T836" s="24"/>
       <c r="U836" s="3"/>
       <c r="V836" s="3"/>
       <c r="W836" s="3"/>
@@ -25095,7 +25104,7 @@
       <c r="Q837" s="3"/>
       <c r="R837" s="3"/>
       <c r="S837" s="3"/>
-      <c r="T837" s="3"/>
+      <c r="T837" s="24"/>
       <c r="U837" s="3"/>
       <c r="V837" s="3"/>
       <c r="W837" s="3"/>
@@ -25124,7 +25133,7 @@
       <c r="Q838" s="3"/>
       <c r="R838" s="3"/>
       <c r="S838" s="3"/>
-      <c r="T838" s="3"/>
+      <c r="T838" s="24"/>
       <c r="U838" s="3"/>
       <c r="V838" s="3"/>
       <c r="W838" s="3"/>
@@ -25153,7 +25162,7 @@
       <c r="Q839" s="3"/>
       <c r="R839" s="3"/>
       <c r="S839" s="3"/>
-      <c r="T839" s="3"/>
+      <c r="T839" s="24"/>
       <c r="U839" s="3"/>
       <c r="V839" s="3"/>
       <c r="W839" s="3"/>
@@ -25182,7 +25191,7 @@
       <c r="Q840" s="3"/>
       <c r="R840" s="3"/>
       <c r="S840" s="3"/>
-      <c r="T840" s="3"/>
+      <c r="T840" s="24"/>
       <c r="U840" s="3"/>
       <c r="V840" s="3"/>
       <c r="W840" s="3"/>
@@ -25211,7 +25220,7 @@
       <c r="Q841" s="3"/>
       <c r="R841" s="3"/>
       <c r="S841" s="3"/>
-      <c r="T841" s="3"/>
+      <c r="T841" s="24"/>
       <c r="U841" s="3"/>
       <c r="V841" s="3"/>
       <c r="W841" s="3"/>
@@ -25240,7 +25249,7 @@
       <c r="Q842" s="3"/>
       <c r="R842" s="3"/>
       <c r="S842" s="3"/>
-      <c r="T842" s="3"/>
+      <c r="T842" s="24"/>
       <c r="U842" s="3"/>
       <c r="V842" s="3"/>
       <c r="W842" s="3"/>
@@ -25269,7 +25278,7 @@
       <c r="Q843" s="3"/>
       <c r="R843" s="3"/>
       <c r="S843" s="3"/>
-      <c r="T843" s="3"/>
+      <c r="T843" s="24"/>
       <c r="U843" s="3"/>
       <c r="V843" s="3"/>
       <c r="W843" s="3"/>
@@ -25298,7 +25307,7 @@
       <c r="Q844" s="3"/>
       <c r="R844" s="3"/>
       <c r="S844" s="3"/>
-      <c r="T844" s="3"/>
+      <c r="T844" s="24"/>
       <c r="U844" s="3"/>
       <c r="V844" s="3"/>
       <c r="W844" s="3"/>
@@ -25327,7 +25336,7 @@
       <c r="Q845" s="3"/>
       <c r="R845" s="3"/>
       <c r="S845" s="3"/>
-      <c r="T845" s="3"/>
+      <c r="T845" s="24"/>
       <c r="U845" s="3"/>
       <c r="V845" s="3"/>
       <c r="W845" s="3"/>
@@ -25356,7 +25365,7 @@
       <c r="Q846" s="3"/>
       <c r="R846" s="3"/>
       <c r="S846" s="3"/>
-      <c r="T846" s="3"/>
+      <c r="T846" s="24"/>
       <c r="U846" s="3"/>
       <c r="V846" s="3"/>
       <c r="W846" s="3"/>
@@ -25385,7 +25394,7 @@
       <c r="Q847" s="3"/>
       <c r="R847" s="3"/>
       <c r="S847" s="3"/>
-      <c r="T847" s="3"/>
+      <c r="T847" s="24"/>
       <c r="U847" s="3"/>
       <c r="V847" s="3"/>
       <c r="W847" s="3"/>
@@ -25414,7 +25423,7 @@
       <c r="Q848" s="3"/>
       <c r="R848" s="3"/>
       <c r="S848" s="3"/>
-      <c r="T848" s="3"/>
+      <c r="T848" s="24"/>
       <c r="U848" s="3"/>
       <c r="V848" s="3"/>
       <c r="W848" s="3"/>
@@ -25443,7 +25452,7 @@
       <c r="Q849" s="3"/>
       <c r="R849" s="3"/>
       <c r="S849" s="3"/>
-      <c r="T849" s="3"/>
+      <c r="T849" s="24"/>
       <c r="U849" s="3"/>
       <c r="V849" s="3"/>
       <c r="W849" s="3"/>
@@ -25472,7 +25481,7 @@
       <c r="Q850" s="3"/>
       <c r="R850" s="3"/>
       <c r="S850" s="3"/>
-      <c r="T850" s="3"/>
+      <c r="T850" s="24"/>
       <c r="U850" s="3"/>
       <c r="V850" s="3"/>
       <c r="W850" s="3"/>
@@ -25501,7 +25510,7 @@
       <c r="Q851" s="3"/>
       <c r="R851" s="3"/>
       <c r="S851" s="3"/>
-      <c r="T851" s="3"/>
+      <c r="T851" s="24"/>
       <c r="U851" s="3"/>
       <c r="V851" s="3"/>
       <c r="W851" s="3"/>
@@ -25530,7 +25539,7 @@
       <c r="Q852" s="3"/>
       <c r="R852" s="3"/>
       <c r="S852" s="3"/>
-      <c r="T852" s="3"/>
+      <c r="T852" s="24"/>
       <c r="U852" s="3"/>
       <c r="V852" s="3"/>
       <c r="W852" s="3"/>
@@ -25559,7 +25568,7 @@
       <c r="Q853" s="3"/>
       <c r="R853" s="3"/>
       <c r="S853" s="3"/>
-      <c r="T853" s="3"/>
+      <c r="T853" s="24"/>
       <c r="U853" s="3"/>
       <c r="V853" s="3"/>
       <c r="W853" s="3"/>
@@ -25588,7 +25597,7 @@
       <c r="Q854" s="3"/>
       <c r="R854" s="3"/>
       <c r="S854" s="3"/>
-      <c r="T854" s="3"/>
+      <c r="T854" s="24"/>
       <c r="U854" s="3"/>
       <c r="V854" s="3"/>
       <c r="W854" s="3"/>
@@ -25617,7 +25626,7 @@
       <c r="Q855" s="3"/>
       <c r="R855" s="3"/>
       <c r="S855" s="3"/>
-      <c r="T855" s="3"/>
+      <c r="T855" s="24"/>
       <c r="U855" s="3"/>
       <c r="V855" s="3"/>
       <c r="W855" s="3"/>
@@ -25646,7 +25655,7 @@
       <c r="Q856" s="3"/>
       <c r="R856" s="3"/>
       <c r="S856" s="3"/>
-      <c r="T856" s="3"/>
+      <c r="T856" s="24"/>
       <c r="U856" s="3"/>
       <c r="V856" s="3"/>
       <c r="W856" s="3"/>
@@ -25675,7 +25684,7 @@
       <c r="Q857" s="3"/>
       <c r="R857" s="3"/>
       <c r="S857" s="3"/>
-      <c r="T857" s="3"/>
+      <c r="T857" s="24"/>
       <c r="U857" s="3"/>
       <c r="V857" s="3"/>
       <c r="W857" s="3"/>
@@ -25704,7 +25713,7 @@
       <c r="Q858" s="3"/>
       <c r="R858" s="3"/>
       <c r="S858" s="3"/>
-      <c r="T858" s="3"/>
+      <c r="T858" s="24"/>
       <c r="U858" s="3"/>
       <c r="V858" s="3"/>
       <c r="W858" s="3"/>
@@ -25733,7 +25742,7 @@
       <c r="Q859" s="3"/>
       <c r="R859" s="3"/>
       <c r="S859" s="3"/>
-      <c r="T859" s="3"/>
+      <c r="T859" s="24"/>
       <c r="U859" s="3"/>
       <c r="V859" s="3"/>
       <c r="W859" s="3"/>
@@ -25762,7 +25771,7 @@
       <c r="Q860" s="3"/>
       <c r="R860" s="3"/>
       <c r="S860" s="3"/>
-      <c r="T860" s="3"/>
+      <c r="T860" s="24"/>
       <c r="U860" s="3"/>
       <c r="V860" s="3"/>
       <c r="W860" s="3"/>
@@ -25791,7 +25800,7 @@
       <c r="Q861" s="3"/>
       <c r="R861" s="3"/>
       <c r="S861" s="3"/>
-      <c r="T861" s="3"/>
+      <c r="T861" s="24"/>
       <c r="U861" s="3"/>
       <c r="V861" s="3"/>
       <c r="W861" s="3"/>
@@ -25820,7 +25829,7 @@
       <c r="Q862" s="3"/>
       <c r="R862" s="3"/>
       <c r="S862" s="3"/>
-      <c r="T862" s="3"/>
+      <c r="T862" s="24"/>
       <c r="U862" s="3"/>
       <c r="V862" s="3"/>
       <c r="W862" s="3"/>
@@ -25849,7 +25858,7 @@
       <c r="Q863" s="3"/>
       <c r="R863" s="3"/>
       <c r="S863" s="3"/>
-      <c r="T863" s="3"/>
+      <c r="T863" s="24"/>
       <c r="U863" s="3"/>
       <c r="V863" s="3"/>
       <c r="W863" s="3"/>
@@ -25878,7 +25887,7 @@
       <c r="Q864" s="3"/>
       <c r="R864" s="3"/>
       <c r="S864" s="3"/>
-      <c r="T864" s="3"/>
+      <c r="T864" s="24"/>
       <c r="U864" s="3"/>
       <c r="V864" s="3"/>
       <c r="W864" s="3"/>
@@ -25907,7 +25916,7 @@
       <c r="Q865" s="3"/>
       <c r="R865" s="3"/>
       <c r="S865" s="3"/>
-      <c r="T865" s="3"/>
+      <c r="T865" s="24"/>
       <c r="U865" s="3"/>
       <c r="V865" s="3"/>
       <c r="W865" s="3"/>
@@ -25936,7 +25945,7 @@
       <c r="Q866" s="3"/>
       <c r="R866" s="3"/>
       <c r="S866" s="3"/>
-      <c r="T866" s="3"/>
+      <c r="T866" s="24"/>
       <c r="U866" s="3"/>
       <c r="V866" s="3"/>
       <c r="W866" s="3"/>
@@ -25965,7 +25974,7 @@
       <c r="Q867" s="3"/>
       <c r="R867" s="3"/>
       <c r="S867" s="3"/>
-      <c r="T867" s="3"/>
+      <c r="T867" s="24"/>
       <c r="U867" s="3"/>
       <c r="V867" s="3"/>
       <c r="W867" s="3"/>
@@ -25994,7 +26003,7 @@
       <c r="Q868" s="3"/>
       <c r="R868" s="3"/>
       <c r="S868" s="3"/>
-      <c r="T868" s="3"/>
+      <c r="T868" s="24"/>
       <c r="U868" s="3"/>
       <c r="V868" s="3"/>
       <c r="W868" s="3"/>
@@ -26023,7 +26032,7 @@
       <c r="Q869" s="3"/>
       <c r="R869" s="3"/>
       <c r="S869" s="3"/>
-      <c r="T869" s="3"/>
+      <c r="T869" s="24"/>
       <c r="U869" s="3"/>
       <c r="V869" s="3"/>
       <c r="W869" s="3"/>
@@ -26052,7 +26061,7 @@
       <c r="Q870" s="3"/>
       <c r="R870" s="3"/>
       <c r="S870" s="3"/>
-      <c r="T870" s="3"/>
+      <c r="T870" s="24"/>
       <c r="U870" s="3"/>
       <c r="V870" s="3"/>
       <c r="W870" s="3"/>
@@ -26081,7 +26090,7 @@
       <c r="Q871" s="3"/>
       <c r="R871" s="3"/>
       <c r="S871" s="3"/>
-      <c r="T871" s="3"/>
+      <c r="T871" s="24"/>
       <c r="U871" s="3"/>
       <c r="V871" s="3"/>
       <c r="W871" s="3"/>
@@ -26110,7 +26119,7 @@
       <c r="Q872" s="3"/>
       <c r="R872" s="3"/>
       <c r="S872" s="3"/>
-      <c r="T872" s="3"/>
+      <c r="T872" s="24"/>
       <c r="U872" s="3"/>
       <c r="V872" s="3"/>
       <c r="W872" s="3"/>
@@ -26139,7 +26148,7 @@
       <c r="Q873" s="3"/>
       <c r="R873" s="3"/>
       <c r="S873" s="3"/>
-      <c r="T873" s="3"/>
+      <c r="T873" s="24"/>
       <c r="U873" s="3"/>
       <c r="V873" s="3"/>
       <c r="W873" s="3"/>
@@ -26168,7 +26177,7 @@
       <c r="Q874" s="3"/>
       <c r="R874" s="3"/>
       <c r="S874" s="3"/>
-      <c r="T874" s="3"/>
+      <c r="T874" s="24"/>
       <c r="U874" s="3"/>
       <c r="V874" s="3"/>
       <c r="W874" s="3"/>
@@ -26197,7 +26206,7 @@
       <c r="Q875" s="3"/>
       <c r="R875" s="3"/>
       <c r="S875" s="3"/>
-      <c r="T875" s="3"/>
+      <c r="T875" s="24"/>
       <c r="U875" s="3"/>
       <c r="V875" s="3"/>
       <c r="W875" s="3"/>
@@ -26226,7 +26235,7 @@
       <c r="Q876" s="3"/>
       <c r="R876" s="3"/>
       <c r="S876" s="3"/>
-      <c r="T876" s="3"/>
+      <c r="T876" s="24"/>
       <c r="U876" s="3"/>
       <c r="V876" s="3"/>
       <c r="W876" s="3"/>
@@ -26255,7 +26264,7 @@
       <c r="Q877" s="3"/>
       <c r="R877" s="3"/>
       <c r="S877" s="3"/>
-      <c r="T877" s="3"/>
+      <c r="T877" s="24"/>
       <c r="U877" s="3"/>
       <c r="V877" s="3"/>
       <c r="W877" s="3"/>
@@ -26284,7 +26293,7 @@
       <c r="Q878" s="3"/>
       <c r="R878" s="3"/>
       <c r="S878" s="3"/>
-      <c r="T878" s="3"/>
+      <c r="T878" s="24"/>
       <c r="U878" s="3"/>
       <c r="V878" s="3"/>
       <c r="W878" s="3"/>
@@ -26313,7 +26322,7 @@
       <c r="Q879" s="3"/>
       <c r="R879" s="3"/>
       <c r="S879" s="3"/>
-      <c r="T879" s="3"/>
+      <c r="T879" s="24"/>
       <c r="U879" s="3"/>
       <c r="V879" s="3"/>
       <c r="W879" s="3"/>
@@ -26342,7 +26351,7 @@
       <c r="Q880" s="3"/>
       <c r="R880" s="3"/>
       <c r="S880" s="3"/>
-      <c r="T880" s="3"/>
+      <c r="T880" s="24"/>
       <c r="U880" s="3"/>
       <c r="V880" s="3"/>
       <c r="W880" s="3"/>
@@ -26371,7 +26380,7 @@
       <c r="Q881" s="3"/>
       <c r="R881" s="3"/>
       <c r="S881" s="3"/>
-      <c r="T881" s="3"/>
+      <c r="T881" s="24"/>
       <c r="U881" s="3"/>
       <c r="V881" s="3"/>
       <c r="W881" s="3"/>
@@ -26400,7 +26409,7 @@
       <c r="Q882" s="3"/>
       <c r="R882" s="3"/>
       <c r="S882" s="3"/>
-      <c r="T882" s="3"/>
+      <c r="T882" s="24"/>
       <c r="U882" s="3"/>
       <c r="V882" s="3"/>
       <c r="W882" s="3"/>
@@ -26429,7 +26438,7 @@
       <c r="Q883" s="3"/>
       <c r="R883" s="3"/>
       <c r="S883" s="3"/>
-      <c r="T883" s="3"/>
+      <c r="T883" s="24"/>
       <c r="U883" s="3"/>
       <c r="V883" s="3"/>
       <c r="W883" s="3"/>
@@ -26458,7 +26467,7 @@
       <c r="Q884" s="3"/>
       <c r="R884" s="3"/>
       <c r="S884" s="3"/>
-      <c r="T884" s="3"/>
+      <c r="T884" s="24"/>
       <c r="U884" s="3"/>
       <c r="V884" s="3"/>
       <c r="W884" s="3"/>
@@ -26487,7 +26496,7 @@
       <c r="Q885" s="3"/>
       <c r="R885" s="3"/>
       <c r="S885" s="3"/>
-      <c r="T885" s="3"/>
+      <c r="T885" s="24"/>
       <c r="U885" s="3"/>
       <c r="V885" s="3"/>
       <c r="W885" s="3"/>
@@ -26516,7 +26525,7 @@
       <c r="Q886" s="3"/>
       <c r="R886" s="3"/>
       <c r="S886" s="3"/>
-      <c r="T886" s="3"/>
+      <c r="T886" s="24"/>
       <c r="U886" s="3"/>
       <c r="V886" s="3"/>
       <c r="W886" s="3"/>
@@ -26545,7 +26554,7 @@
       <c r="Q887" s="3"/>
       <c r="R887" s="3"/>
       <c r="S887" s="3"/>
-      <c r="T887" s="3"/>
+      <c r="T887" s="24"/>
       <c r="U887" s="3"/>
       <c r="V887" s="3"/>
       <c r="W887" s="3"/>
@@ -26574,7 +26583,7 @@
       <c r="Q888" s="3"/>
       <c r="R888" s="3"/>
       <c r="S888" s="3"/>
-      <c r="T888" s="3"/>
+      <c r="T888" s="24"/>
       <c r="U888" s="3"/>
       <c r="V888" s="3"/>
       <c r="W888" s="3"/>
@@ -26603,7 +26612,7 @@
       <c r="Q889" s="3"/>
       <c r="R889" s="3"/>
       <c r="S889" s="3"/>
-      <c r="T889" s="3"/>
+      <c r="T889" s="24"/>
       <c r="U889" s="3"/>
       <c r="V889" s="3"/>
       <c r="W889" s="3"/>
@@ -26632,7 +26641,7 @@
       <c r="Q890" s="3"/>
       <c r="R890" s="3"/>
       <c r="S890" s="3"/>
-      <c r="T890" s="3"/>
+      <c r="T890" s="24"/>
       <c r="U890" s="3"/>
       <c r="V890" s="3"/>
       <c r="W890" s="3"/>
@@ -26661,7 +26670,7 @@
       <c r="Q891" s="3"/>
       <c r="R891" s="3"/>
       <c r="S891" s="3"/>
-      <c r="T891" s="3"/>
+      <c r="T891" s="24"/>
       <c r="U891" s="3"/>
       <c r="V891" s="3"/>
       <c r="W891" s="3"/>
@@ -26690,7 +26699,7 @@
       <c r="Q892" s="3"/>
       <c r="R892" s="3"/>
       <c r="S892" s="3"/>
-      <c r="T892" s="3"/>
+      <c r="T892" s="24"/>
       <c r="U892" s="3"/>
       <c r="V892" s="3"/>
       <c r="W892" s="3"/>
@@ -26719,7 +26728,7 @@
       <c r="Q893" s="3"/>
       <c r="R893" s="3"/>
       <c r="S893" s="3"/>
-      <c r="T893" s="3"/>
+      <c r="T893" s="24"/>
       <c r="U893" s="3"/>
       <c r="V893" s="3"/>
       <c r="W893" s="3"/>
@@ -26748,7 +26757,7 @@
       <c r="Q894" s="3"/>
       <c r="R894" s="3"/>
       <c r="S894" s="3"/>
-      <c r="T894" s="3"/>
+      <c r="T894" s="24"/>
       <c r="U894" s="3"/>
       <c r="V894" s="3"/>
       <c r="W894" s="3"/>
@@ -26777,7 +26786,7 @@
       <c r="Q895" s="3"/>
       <c r="R895" s="3"/>
       <c r="S895" s="3"/>
-      <c r="T895" s="3"/>
+      <c r="T895" s="24"/>
       <c r="U895" s="3"/>
       <c r="V895" s="3"/>
       <c r="W895" s="3"/>
@@ -26806,7 +26815,7 @@
       <c r="Q896" s="3"/>
       <c r="R896" s="3"/>
       <c r="S896" s="3"/>
-      <c r="T896" s="3"/>
+      <c r="T896" s="24"/>
       <c r="U896" s="3"/>
       <c r="V896" s="3"/>
       <c r="W896" s="3"/>
@@ -26835,7 +26844,7 @@
       <c r="Q897" s="3"/>
       <c r="R897" s="3"/>
       <c r="S897" s="3"/>
-      <c r="T897" s="3"/>
+      <c r="T897" s="24"/>
       <c r="U897" s="3"/>
       <c r="V897" s="3"/>
       <c r="W897" s="3"/>
@@ -26864,7 +26873,7 @@
       <c r="Q898" s="3"/>
       <c r="R898" s="3"/>
       <c r="S898" s="3"/>
-      <c r="T898" s="3"/>
+      <c r="T898" s="24"/>
       <c r="U898" s="3"/>
       <c r="V898" s="3"/>
       <c r="W898" s="3"/>
@@ -26893,7 +26902,7 @@
       <c r="Q899" s="3"/>
       <c r="R899" s="3"/>
       <c r="S899" s="3"/>
-      <c r="T899" s="3"/>
+      <c r="T899" s="24"/>
       <c r="U899" s="3"/>
       <c r="V899" s="3"/>
       <c r="W899" s="3"/>
@@ -26922,7 +26931,7 @@
       <c r="Q900" s="3"/>
       <c r="R900" s="3"/>
       <c r="S900" s="3"/>
-      <c r="T900" s="3"/>
+      <c r="T900" s="24"/>
       <c r="U900" s="3"/>
       <c r="V900" s="3"/>
       <c r="W900" s="3"/>
@@ -26951,7 +26960,7 @@
       <c r="Q901" s="3"/>
       <c r="R901" s="3"/>
       <c r="S901" s="3"/>
-      <c r="T901" s="3"/>
+      <c r="T901" s="24"/>
       <c r="U901" s="3"/>
       <c r="V901" s="3"/>
       <c r="W901" s="3"/>
@@ -26980,7 +26989,7 @@
       <c r="Q902" s="3"/>
       <c r="R902" s="3"/>
       <c r="S902" s="3"/>
-      <c r="T902" s="3"/>
+      <c r="T902" s="24"/>
       <c r="U902" s="3"/>
       <c r="V902" s="3"/>
       <c r="W902" s="3"/>
@@ -27009,7 +27018,7 @@
       <c r="Q903" s="3"/>
       <c r="R903" s="3"/>
       <c r="S903" s="3"/>
-      <c r="T903" s="3"/>
+      <c r="T903" s="24"/>
       <c r="U903" s="3"/>
       <c r="V903" s="3"/>
       <c r="W903" s="3"/>
@@ -27038,7 +27047,7 @@
       <c r="Q904" s="3"/>
       <c r="R904" s="3"/>
       <c r="S904" s="3"/>
-      <c r="T904" s="3"/>
+      <c r="T904" s="24"/>
       <c r="U904" s="3"/>
       <c r="V904" s="3"/>
       <c r="W904" s="3"/>
@@ -27067,7 +27076,7 @@
       <c r="Q905" s="3"/>
       <c r="R905" s="3"/>
       <c r="S905" s="3"/>
-      <c r="T905" s="3"/>
+      <c r="T905" s="24"/>
       <c r="U905" s="3"/>
       <c r="V905" s="3"/>
       <c r="W905" s="3"/>
@@ -27096,7 +27105,7 @@
       <c r="Q906" s="3"/>
       <c r="R906" s="3"/>
       <c r="S906" s="3"/>
-      <c r="T906" s="3"/>
+      <c r="T906" s="24"/>
       <c r="U906" s="3"/>
       <c r="V906" s="3"/>
       <c r="W906" s="3"/>
@@ -27125,7 +27134,7 @@
       <c r="Q907" s="3"/>
       <c r="R907" s="3"/>
       <c r="S907" s="3"/>
-      <c r="T907" s="3"/>
+      <c r="T907" s="24"/>
       <c r="U907" s="3"/>
       <c r="V907" s="3"/>
       <c r="W907" s="3"/>
@@ -27154,7 +27163,7 @@
       <c r="Q908" s="3"/>
       <c r="R908" s="3"/>
       <c r="S908" s="3"/>
-      <c r="T908" s="3"/>
+      <c r="T908" s="24"/>
       <c r="U908" s="3"/>
       <c r="V908" s="3"/>
       <c r="W908" s="3"/>
@@ -27183,7 +27192,7 @@
       <c r="Q909" s="3"/>
       <c r="R909" s="3"/>
       <c r="S909" s="3"/>
-      <c r="T909" s="3"/>
+      <c r="T909" s="24"/>
       <c r="U909" s="3"/>
       <c r="V909" s="3"/>
       <c r="W909" s="3"/>
@@ -27212,7 +27221,7 @@
       <c r="Q910" s="3"/>
       <c r="R910" s="3"/>
       <c r="S910" s="3"/>
-      <c r="T910" s="3"/>
+      <c r="T910" s="24"/>
       <c r="U910" s="3"/>
       <c r="V910" s="3"/>
       <c r="W910" s="3"/>
@@ -27241,7 +27250,7 @@
       <c r="Q911" s="3"/>
       <c r="R911" s="3"/>
       <c r="S911" s="3"/>
-      <c r="T911" s="3"/>
+      <c r="T911" s="24"/>
       <c r="U911" s="3"/>
       <c r="V911" s="3"/>
       <c r="W911" s="3"/>
@@ -27270,7 +27279,7 @@
       <c r="Q912" s="3"/>
       <c r="R912" s="3"/>
       <c r="S912" s="3"/>
-      <c r="T912" s="3"/>
+      <c r="T912" s="24"/>
       <c r="U912" s="3"/>
       <c r="V912" s="3"/>
       <c r="W912" s="3"/>
@@ -27299,7 +27308,7 @@
       <c r="Q913" s="3"/>
       <c r="R913" s="3"/>
       <c r="S913" s="3"/>
-      <c r="T913" s="3"/>
+      <c r="T913" s="24"/>
       <c r="U913" s="3"/>
       <c r="V913" s="3"/>
       <c r="W913" s="3"/>
@@ -27328,7 +27337,7 @@
       <c r="Q914" s="3"/>
       <c r="R914" s="3"/>
       <c r="S914" s="3"/>
-      <c r="T914" s="3"/>
+      <c r="T914" s="24"/>
       <c r="U914" s="3"/>
       <c r="V914" s="3"/>
       <c r="W914" s="3"/>
@@ -27357,7 +27366,7 @@
       <c r="Q915" s="3"/>
       <c r="R915" s="3"/>
       <c r="S915" s="3"/>
-      <c r="T915" s="3"/>
+      <c r="T915" s="24"/>
       <c r="U915" s="3"/>
       <c r="V915" s="3"/>
       <c r="W915" s="3"/>
@@ -27386,7 +27395,7 @@
       <c r="Q916" s="3"/>
       <c r="R916" s="3"/>
       <c r="S916" s="3"/>
-      <c r="T916" s="3"/>
+      <c r="T916" s="24"/>
       <c r="U916" s="3"/>
       <c r="V916" s="3"/>
       <c r="W916" s="3"/>
@@ -27415,7 +27424,7 @@
       <c r="Q917" s="3"/>
       <c r="R917" s="3"/>
       <c r="S917" s="3"/>
-      <c r="T917" s="3"/>
+      <c r="T917" s="24"/>
       <c r="U917" s="3"/>
       <c r="V917" s="3"/>
       <c r="W917" s="3"/>
@@ -27444,7 +27453,7 @@
       <c r="Q918" s="3"/>
       <c r="R918" s="3"/>
       <c r="S918" s="3"/>
-      <c r="T918" s="3"/>
+      <c r="T918" s="24"/>
       <c r="U918" s="3"/>
       <c r="V918" s="3"/>
       <c r="W918" s="3"/>
@@ -27473,7 +27482,7 @@
       <c r="Q919" s="3"/>
       <c r="R919" s="3"/>
       <c r="S919" s="3"/>
-      <c r="T919" s="3"/>
+      <c r="T919" s="24"/>
       <c r="U919" s="3"/>
       <c r="V919" s="3"/>
       <c r="W919" s="3"/>
@@ -27502,7 +27511,7 @@
       <c r="Q920" s="3"/>
       <c r="R920" s="3"/>
       <c r="S920" s="3"/>
-      <c r="T920" s="3"/>
+      <c r="T920" s="24"/>
       <c r="U920" s="3"/>
       <c r="V920" s="3"/>
       <c r="W920" s="3"/>
@@ -27531,7 +27540,7 @@
       <c r="Q921" s="3"/>
       <c r="R921" s="3"/>
       <c r="S921" s="3"/>
-      <c r="T921" s="3"/>
+      <c r="T921" s="24"/>
       <c r="U921" s="3"/>
       <c r="V921" s="3"/>
       <c r="W921" s="3"/>
@@ -27560,7 +27569,7 @@
       <c r="Q922" s="3"/>
       <c r="R922" s="3"/>
       <c r="S922" s="3"/>
-      <c r="T922" s="3"/>
+      <c r="T922" s="24"/>
       <c r="U922" s="3"/>
       <c r="V922" s="3"/>
       <c r="W922" s="3"/>
@@ -27589,7 +27598,7 @@
       <c r="Q923" s="3"/>
       <c r="R923" s="3"/>
       <c r="S923" s="3"/>
-      <c r="T923" s="3"/>
+      <c r="T923" s="24"/>
       <c r="U923" s="3"/>
       <c r="V923" s="3"/>
       <c r="W923" s="3"/>
@@ -27618,7 +27627,7 @@
       <c r="Q924" s="3"/>
       <c r="R924" s="3"/>
       <c r="S924" s="3"/>
-      <c r="T924" s="3"/>
+      <c r="T924" s="24"/>
       <c r="U924" s="3"/>
       <c r="V924" s="3"/>
       <c r="W924" s="3"/>
@@ -27647,7 +27656,7 @@
       <c r="Q925" s="3"/>
       <c r="R925" s="3"/>
       <c r="S925" s="3"/>
-      <c r="T925" s="3"/>
+      <c r="T925" s="24"/>
       <c r="U925" s="3"/>
       <c r="V925" s="3"/>
       <c r="W925" s="3"/>
@@ -27676,7 +27685,7 @@
       <c r="Q926" s="3"/>
       <c r="R926" s="3"/>
       <c r="S926" s="3"/>
-      <c r="T926" s="3"/>
+      <c r="T926" s="24"/>
       <c r="U926" s="3"/>
       <c r="V926" s="3"/>
       <c r="W926" s="3"/>
@@ -27705,7 +27714,7 @@
       <c r="Q927" s="3"/>
       <c r="R927" s="3"/>
       <c r="S927" s="3"/>
-      <c r="T927" s="3"/>
+      <c r="T927" s="24"/>
       <c r="U927" s="3"/>
       <c r="V927" s="3"/>
       <c r="W927" s="3"/>
@@ -27734,7 +27743,7 @@
       <c r="Q928" s="3"/>
       <c r="R928" s="3"/>
       <c r="S928" s="3"/>
-      <c r="T928" s="3"/>
+      <c r="T928" s="24"/>
       <c r="U928" s="3"/>
       <c r="V928" s="3"/>
       <c r="W928" s="3"/>
@@ -27763,7 +27772,7 @@
       <c r="Q929" s="3"/>
       <c r="R929" s="3"/>
       <c r="S929" s="3"/>
-      <c r="T929" s="3"/>
+      <c r="T929" s="24"/>
       <c r="U929" s="3"/>
       <c r="V929" s="3"/>
       <c r="W929" s="3"/>
@@ -27792,7 +27801,7 @@
       <c r="Q930" s="3"/>
       <c r="R930" s="3"/>
       <c r="S930" s="3"/>
-      <c r="T930" s="3"/>
+      <c r="T930" s="24"/>
       <c r="U930" s="3"/>
       <c r="V930" s="3"/>
       <c r="W930" s="3"/>
@@ -27821,7 +27830,7 @@
       <c r="Q931" s="3"/>
       <c r="R931" s="3"/>
       <c r="S931" s="3"/>
-      <c r="T931" s="3"/>
+      <c r="T931" s="24"/>
       <c r="U931" s="3"/>
       <c r="V931" s="3"/>
       <c r="W931" s="3"/>
@@ -27850,7 +27859,7 @@
       <c r="Q932" s="3"/>
       <c r="R932" s="3"/>
       <c r="S932" s="3"/>
-      <c r="T932" s="3"/>
+      <c r="T932" s="24"/>
       <c r="U932" s="3"/>
       <c r="V932" s="3"/>
       <c r="W932" s="3"/>
@@ -27879,7 +27888,7 @@
       <c r="Q933" s="3"/>
       <c r="R933" s="3"/>
       <c r="S933" s="3"/>
-      <c r="T933" s="3"/>
+      <c r="T933" s="24"/>
       <c r="U933" s="3"/>
       <c r="V933" s="3"/>
       <c r="W933" s="3"/>
@@ -27908,7 +27917,7 @@
       <c r="Q934" s="3"/>
       <c r="R934" s="3"/>
       <c r="S934" s="3"/>
-      <c r="T934" s="3"/>
+      <c r="T934" s="24"/>
       <c r="U934" s="3"/>
       <c r="V934" s="3"/>
       <c r="W934" s="3"/>
@@ -27937,7 +27946,7 @@
       <c r="Q935" s="3"/>
       <c r="R935" s="3"/>
       <c r="S935" s="3"/>
-      <c r="T935" s="3"/>
+      <c r="T935" s="24"/>
       <c r="U935" s="3"/>
       <c r="V935" s="3"/>
       <c r="W935" s="3"/>
@@ -27966,7 +27975,7 @@
       <c r="Q936" s="3"/>
       <c r="R936" s="3"/>
       <c r="S936" s="3"/>
-      <c r="T936" s="3"/>
+      <c r="T936" s="24"/>
       <c r="U936" s="3"/>
       <c r="V936" s="3"/>
       <c r="W936" s="3"/>
@@ -27995,7 +28004,7 @@
       <c r="Q937" s="3"/>
       <c r="R937" s="3"/>
       <c r="S937" s="3"/>
-      <c r="T937" s="3"/>
+      <c r="T937" s="24"/>
       <c r="U937" s="3"/>
       <c r="V937" s="3"/>
       <c r="W937" s="3"/>
@@ -28024,7 +28033,7 @@
       <c r="Q938" s="3"/>
       <c r="R938" s="3"/>
       <c r="S938" s="3"/>
-      <c r="T938" s="3"/>
+      <c r="T938" s="24"/>
       <c r="U938" s="3"/>
       <c r="V938" s="3"/>
       <c r="W938" s="3"/>
@@ -28053,7 +28062,7 @@
       <c r="Q939" s="3"/>
       <c r="R939" s="3"/>
       <c r="S939" s="3"/>
-      <c r="T939" s="3"/>
+      <c r="T939" s="24"/>
       <c r="U939" s="3"/>
       <c r="V939" s="3"/>
       <c r="W939" s="3"/>
@@ -28082,7 +28091,7 @@
       <c r="Q940" s="3"/>
       <c r="R940" s="3"/>
       <c r="S940" s="3"/>
-      <c r="T940" s="3"/>
+      <c r="T940" s="24"/>
       <c r="U940" s="3"/>
       <c r="V940" s="3"/>
       <c r="W940" s="3"/>
@@ -28111,7 +28120,7 @@
       <c r="Q941" s="3"/>
       <c r="R941" s="3"/>
       <c r="S941" s="3"/>
-      <c r="T941" s="3"/>
+      <c r="T941" s="24"/>
       <c r="U941" s="3"/>
       <c r="V941" s="3"/>
       <c r="W941" s="3"/>
@@ -28140,7 +28149,7 @@
       <c r="Q942" s="3"/>
       <c r="R942" s="3"/>
       <c r="S942" s="3"/>
-      <c r="T942" s="3"/>
+      <c r="T942" s="24"/>
       <c r="U942" s="3"/>
       <c r="V942" s="3"/>
       <c r="W942" s="3"/>
@@ -28169,7 +28178,7 @@
       <c r="Q943" s="3"/>
       <c r="R943" s="3"/>
       <c r="S943" s="3"/>
-      <c r="T943" s="3"/>
+      <c r="T943" s="24"/>
       <c r="U943" s="3"/>
       <c r="V943" s="3"/>
       <c r="W943" s="3"/>
@@ -28198,7 +28207,7 @@
       <c r="Q944" s="3"/>
       <c r="R944" s="3"/>
       <c r="S944" s="3"/>
-      <c r="T944" s="3"/>
+      <c r="T944" s="24"/>
       <c r="U944" s="3"/>
       <c r="V944" s="3"/>
       <c r="W944" s="3"/>
@@ -28227,7 +28236,7 @@
       <c r="Q945" s="3"/>
       <c r="R945" s="3"/>
       <c r="S945" s="3"/>
-      <c r="T945" s="3"/>
+      <c r="T945" s="24"/>
       <c r="U945" s="3"/>
       <c r="V945" s="3"/>
       <c r="W945" s="3"/>
@@ -28256,7 +28265,7 @@
       <c r="Q946" s="3"/>
       <c r="R946" s="3"/>
       <c r="S946" s="3"/>
-      <c r="T946" s="3"/>
+      <c r="T946" s="24"/>
       <c r="U946" s="3"/>
       <c r="V946" s="3"/>
       <c r="W946" s="3"/>
@@ -28285,7 +28294,7 @@
       <c r="Q947" s="3"/>
       <c r="R947" s="3"/>
       <c r="S947" s="3"/>
-      <c r="T947" s="3"/>
+      <c r="T947" s="24"/>
       <c r="U947" s="3"/>
       <c r="V947" s="3"/>
       <c r="W947" s="3"/>
@@ -28314,7 +28323,7 @@
       <c r="Q948" s="3"/>
       <c r="R948" s="3"/>
       <c r="S948" s="3"/>
-      <c r="T948" s="3"/>
+      <c r="T948" s="24"/>
       <c r="U948" s="3"/>
       <c r="V948" s="3"/>
       <c r="W948" s="3"/>
@@ -28343,7 +28352,7 @@
       <c r="Q949" s="3"/>
       <c r="R949" s="3"/>
       <c r="S949" s="3"/>
-      <c r="T949" s="3"/>
+      <c r="T949" s="24"/>
       <c r="U949" s="3"/>
       <c r="V949" s="3"/>
       <c r="W949" s="3"/>
@@ -28372,7 +28381,7 @@
       <c r="Q950" s="3"/>
       <c r="R950" s="3"/>
       <c r="S950" s="3"/>
-      <c r="T950" s="3"/>
+      <c r="T950" s="24"/>
       <c r="U950" s="3"/>
       <c r="V950" s="3"/>
       <c r="W950" s="3"/>
@@ -28401,7 +28410,7 @@
       <c r="Q951" s="3"/>
       <c r="R951" s="3"/>
       <c r="S951" s="3"/>
-      <c r="T951" s="3"/>
+      <c r="T951" s="24"/>
       <c r="U951" s="3"/>
       <c r="V951" s="3"/>
       <c r="W951" s="3"/>
@@ -28430,7 +28439,7 @@
       <c r="Q952" s="3"/>
       <c r="R952" s="3"/>
       <c r="S952" s="3"/>
-      <c r="T952" s="3"/>
+      <c r="T952" s="24"/>
       <c r="U952" s="3"/>
       <c r="V952" s="3"/>
       <c r="W952" s="3"/>
@@ -28459,7 +28468,7 @@
       <c r="Q953" s="3"/>
       <c r="R953" s="3"/>
       <c r="S953" s="3"/>
-      <c r="T953" s="3"/>
+      <c r="T953" s="24"/>
       <c r="U953" s="3"/>
       <c r="V953" s="3"/>
       <c r="W953" s="3"/>
@@ -28488,7 +28497,7 @@
       <c r="Q954" s="3"/>
       <c r="R954" s="3"/>
       <c r="S954" s="3"/>
-      <c r="T954" s="3"/>
+      <c r="T954" s="24"/>
       <c r="U954" s="3"/>
       <c r="V954" s="3"/>
       <c r="W954" s="3"/>
@@ -28517,7 +28526,7 @@
       <c r="Q955" s="3"/>
       <c r="R955" s="3"/>
       <c r="S955" s="3"/>
-      <c r="T955" s="3"/>
+      <c r="T955" s="24"/>
       <c r="U955" s="3"/>
       <c r="V955" s="3"/>
       <c r="W955" s="3"/>
@@ -28546,7 +28555,7 @@
       <c r="Q956" s="3"/>
       <c r="R956" s="3"/>
       <c r="S956" s="3"/>
-      <c r="T956" s="3"/>
+      <c r="T956" s="24"/>
       <c r="U956" s="3"/>
       <c r="V956" s="3"/>
       <c r="W956" s="3"/>
@@ -28575,7 +28584,7 @@
       <c r="Q957" s="3"/>
       <c r="R957" s="3"/>
       <c r="S957" s="3"/>
-      <c r="T957" s="3"/>
+      <c r="T957" s="24"/>
       <c r="U957" s="3"/>
       <c r="V957" s="3"/>
       <c r="W957" s="3"/>
@@ -28604,7 +28613,7 @@
       <c r="Q958" s="3"/>
       <c r="R958" s="3"/>
       <c r="S958" s="3"/>
-      <c r="T958" s="3"/>
+      <c r="T958" s="24"/>
       <c r="U958" s="3"/>
       <c r="V958" s="3"/>
       <c r="W958" s="3"/>
@@ -28633,7 +28642,7 @@
       <c r="Q959" s="3"/>
       <c r="R959" s="3"/>
       <c r="S959" s="3"/>
-      <c r="T959" s="3"/>
+      <c r="T959" s="24"/>
       <c r="U959" s="3"/>
       <c r="V959" s="3"/>
       <c r="W959" s="3"/>
@@ -28662,7 +28671,7 @@
       <c r="Q960" s="3"/>
       <c r="R960" s="3"/>
       <c r="S960" s="3"/>
-      <c r="T960" s="3"/>
+      <c r="T960" s="24"/>
       <c r="U960" s="3"/>
       <c r="V960" s="3"/>
       <c r="W960" s="3"/>
@@ -28691,7 +28700,7 @@
       <c r="Q961" s="3"/>
       <c r="R961" s="3"/>
       <c r="S961" s="3"/>
-      <c r="T961" s="3"/>
+      <c r="T961" s="24"/>
       <c r="U961" s="3"/>
       <c r="V961" s="3"/>
       <c r="W961" s="3"/>
@@ -28720,7 +28729,7 @@
       <c r="Q962" s="3"/>
       <c r="R962" s="3"/>
       <c r="S962" s="3"/>
-      <c r="T962" s="3"/>
+      <c r="T962" s="24"/>
       <c r="U962" s="3"/>
       <c r="V962" s="3"/>
       <c r="W962" s="3"/>
@@ -28749,7 +28758,7 @@
       <c r="Q963" s="3"/>
       <c r="R963" s="3"/>
       <c r="S963" s="3"/>
-      <c r="T963" s="3"/>
+      <c r="T963" s="24"/>
       <c r="U963" s="3"/>
       <c r="V963" s="3"/>
       <c r="W963" s="3"/>
@@ -28778,7 +28787,7 @@
       <c r="Q964" s="3"/>
       <c r="R964" s="3"/>
       <c r="S964" s="3"/>
-      <c r="T964" s="3"/>
+      <c r="T964" s="24"/>
       <c r="U964" s="3"/>
       <c r="V964" s="3"/>
       <c r="W964" s="3"/>
@@ -28807,7 +28816,7 @@
       <c r="Q965" s="3"/>
       <c r="R965" s="3"/>
       <c r="S965" s="3"/>
-      <c r="T965" s="3"/>
+      <c r="T965" s="24"/>
       <c r="U965" s="3"/>
       <c r="V965" s="3"/>
       <c r="W965" s="3"/>
@@ -28836,7 +28845,7 @@
       <c r="Q966" s="3"/>
       <c r="R966" s="3"/>
       <c r="S966" s="3"/>
-      <c r="T966" s="3"/>
+      <c r="T966" s="24"/>
       <c r="U966" s="3"/>
       <c r="V966" s="3"/>
       <c r="W966" s="3"/>
@@ -28865,7 +28874,7 @@
       <c r="Q967" s="3"/>
       <c r="R967" s="3"/>
       <c r="S967" s="3"/>
-      <c r="T967" s="3"/>
+      <c r="T967" s="24"/>
       <c r="U967" s="3"/>
       <c r="V967" s="3"/>
       <c r="W967" s="3"/>
@@ -28894,7 +28903,7 @@
       <c r="Q968" s="3"/>
       <c r="R968" s="3"/>
       <c r="S968" s="3"/>
-      <c r="T968" s="3"/>
+      <c r="T968" s="24"/>
       <c r="U968" s="3"/>
       <c r="V968" s="3"/>
       <c r="W968" s="3"/>
@@ -28923,7 +28932,7 @@
       <c r="Q969" s="3"/>
       <c r="R969" s="3"/>
       <c r="S969" s="3"/>
-      <c r="T969" s="3"/>
+      <c r="T969" s="24"/>
       <c r="U969" s="3"/>
       <c r="V969" s="3"/>
       <c r="W969" s="3"/>
@@ -28952,7 +28961,7 @@
       <c r="Q970" s="3"/>
       <c r="R970" s="3"/>
       <c r="S970" s="3"/>
-      <c r="T970" s="3"/>
+      <c r="T970" s="24"/>
       <c r="U970" s="3"/>
       <c r="V970" s="3"/>
       <c r="W970" s="3"/>
@@ -28981,7 +28990,7 @@
       <c r="Q971" s="3"/>
       <c r="R971" s="3"/>
       <c r="S971" s="3"/>
-      <c r="T971" s="3"/>
+      <c r="T971" s="24"/>
       <c r="U971" s="3"/>
       <c r="V971" s="3"/>
       <c r="W971" s="3"/>
@@ -29010,7 +29019,7 @@
       <c r="Q972" s="3"/>
       <c r="R972" s="3"/>
       <c r="S972" s="3"/>
-      <c r="T972" s="3"/>
+      <c r="T972" s="24"/>
       <c r="U972" s="3"/>
       <c r="V972" s="3"/>
       <c r="W972" s="3"/>
@@ -29039,7 +29048,7 @@
       <c r="Q973" s="3"/>
       <c r="R973" s="3"/>
       <c r="S973" s="3"/>
-      <c r="T973" s="3"/>
+      <c r="T973" s="24"/>
       <c r="U973" s="3"/>
       <c r="V973" s="3"/>
       <c r="W973" s="3"/>
@@ -29068,7 +29077,7 @@
       <c r="Q974" s="3"/>
       <c r="R974" s="3"/>
       <c r="S974" s="3"/>
-      <c r="T974" s="3"/>
+      <c r="T974" s="24"/>
       <c r="U974" s="3"/>
       <c r="V974" s="3"/>
       <c r="W974" s="3"/>
@@ -29097,7 +29106,7 @@
       <c r="Q975" s="3"/>
       <c r="R975" s="3"/>
       <c r="S975" s="3"/>
-      <c r="T975" s="3"/>
+      <c r="T975" s="24"/>
       <c r="U975" s="3"/>
       <c r="V975" s="3"/>
       <c r="W975" s="3"/>
@@ -29126,7 +29135,7 @@
       <c r="Q976" s="3"/>
       <c r="R976" s="3"/>
       <c r="S976" s="3"/>
-      <c r="T976" s="3"/>
+      <c r="T976" s="24"/>
       <c r="U976" s="3"/>
       <c r="V976" s="3"/>
       <c r="W976" s="3"/>
@@ -29155,7 +29164,7 @@
       <c r="Q977" s="3"/>
       <c r="R977" s="3"/>
       <c r="S977" s="3"/>
-      <c r="T977" s="3"/>
+      <c r="T977" s="24"/>
       <c r="U977" s="3"/>
       <c r="V977" s="3"/>
       <c r="W977" s="3"/>
@@ -29184,7 +29193,7 @@
       <c r="Q978" s="3"/>
       <c r="R978" s="3"/>
       <c r="S978" s="3"/>
-      <c r="T978" s="3"/>
+      <c r="T978" s="24"/>
       <c r="U978" s="3"/>
       <c r="V978" s="3"/>
       <c r="W978" s="3"/>
@@ -29213,7 +29222,7 @@
       <c r="Q979" s="3"/>
       <c r="R979" s="3"/>
       <c r="S979" s="3"/>
-      <c r="T979" s="3"/>
+      <c r="T979" s="24"/>
       <c r="U979" s="3"/>
       <c r="V979" s="3"/>
       <c r="W979" s="3"/>
@@ -29242,7 +29251,7 @@
       <c r="Q980" s="3"/>
       <c r="R980" s="3"/>
       <c r="S980" s="3"/>
-      <c r="T980" s="3"/>
+      <c r="T980" s="24"/>
       <c r="U980" s="3"/>
       <c r="V980" s="3"/>
       <c r="W980" s="3"/>
@@ -29271,7 +29280,7 @@
       <c r="Q981" s="3"/>
       <c r="R981" s="3"/>
       <c r="S981" s="3"/>
-      <c r="T981" s="3"/>
+      <c r="T981" s="24"/>
       <c r="U981" s="3"/>
       <c r="V981" s="3"/>
       <c r="W981" s="3"/>
@@ -29300,7 +29309,7 @@
       <c r="Q982" s="3"/>
       <c r="R982" s="3"/>
       <c r="S982" s="3"/>
-      <c r="T982" s="3"/>
+      <c r="T982" s="24"/>
       <c r="U982" s="3"/>
       <c r="V982" s="3"/>
       <c r="W982" s="3"/>
@@ -29329,7 +29338,7 @@
       <c r="Q983" s="3"/>
       <c r="R983" s="3"/>
       <c r="S983" s="3"/>
-      <c r="T983" s="3"/>
+      <c r="T983" s="24"/>
       <c r="U983" s="3"/>
       <c r="V983" s="3"/>
       <c r="W983" s="3"/>
@@ -29358,7 +29367,7 @@
       <c r="Q984" s="3"/>
       <c r="R984" s="3"/>
       <c r="S984" s="3"/>
-      <c r="T984" s="3"/>
+      <c r="T984" s="24"/>
       <c r="U984" s="3"/>
       <c r="V984" s="3"/>
       <c r="W984" s="3"/>
@@ -29387,7 +29396,7 @@
       <c r="Q985" s="3"/>
       <c r="R985" s="3"/>
       <c r="S985" s="3"/>
-      <c r="T985" s="3"/>
+      <c r="T985" s="24"/>
       <c r="U985" s="3"/>
       <c r="V985" s="3"/>
       <c r="W985" s="3"/>
@@ -29416,7 +29425,7 @@
       <c r="Q986" s="3"/>
       <c r="R986" s="3"/>
       <c r="S986" s="3"/>
-      <c r="T986" s="3"/>
+      <c r="T986" s="24"/>
       <c r="U986" s="3"/>
       <c r="V986" s="3"/>
       <c r="W986" s="3"/>
@@ -29445,7 +29454,7 @@
       <c r="Q987" s="3"/>
       <c r="R987" s="3"/>
       <c r="S987" s="3"/>
-      <c r="T987" s="3"/>
+      <c r="T987" s="24"/>
       <c r="U987" s="3"/>
       <c r="V987" s="3"/>
       <c r="W987" s="3"/>
@@ -29474,7 +29483,7 @@
       <c r="Q988" s="3"/>
       <c r="R988" s="3"/>
       <c r="S988" s="3"/>
-      <c r="T988" s="3"/>
+      <c r="T988" s="24"/>
       <c r="U988" s="3"/>
       <c r="V988" s="3"/>
       <c r="W988" s="3"/>
@@ -29503,7 +29512,7 @@
       <c r="Q989" s="3"/>
       <c r="R989" s="3"/>
       <c r="S989" s="3"/>
-      <c r="T989" s="3"/>
+      <c r="T989" s="24"/>
       <c r="U989" s="3"/>
       <c r="V989" s="3"/>
       <c r="W989" s="3"/>
@@ -29532,7 +29541,7 @@
       <c r="Q990" s="3"/>
       <c r="R990" s="3"/>
       <c r="S990" s="3"/>
-      <c r="T990" s="3"/>
+      <c r="T990" s="24"/>
       <c r="U990" s="3"/>
       <c r="V990" s="3"/>
       <c r="W990" s="3"/>
@@ -29561,7 +29570,7 @@
       <c r="Q991" s="3"/>
       <c r="R991" s="3"/>
       <c r="S991" s="3"/>
-      <c r="T991" s="3"/>
+      <c r="T991" s="24"/>
       <c r="U991" s="3"/>
       <c r="V991" s="3"/>
       <c r="W991" s="3"/>
@@ -29590,7 +29599,7 @@
       <c r="Q992" s="3"/>
       <c r="R992" s="3"/>
       <c r="S992" s="3"/>
-      <c r="T992" s="3"/>
+      <c r="T992" s="24"/>
       <c r="U992" s="3"/>
       <c r="V992" s="3"/>
       <c r="W992" s="3"/>
@@ -29619,7 +29628,7 @@
       <c r="Q993" s="3"/>
       <c r="R993" s="3"/>
       <c r="S993" s="3"/>
-      <c r="T993" s="3"/>
+      <c r="T993" s="24"/>
       <c r="U993" s="3"/>
       <c r="V993" s="3"/>
       <c r="W993" s="3"/>
@@ -29648,7 +29657,7 @@
       <c r="Q994" s="3"/>
       <c r="R994" s="3"/>
       <c r="S994" s="3"/>
-      <c r="T994" s="3"/>
+      <c r="T994" s="24"/>
       <c r="U994" s="3"/>
       <c r="V994" s="3"/>
       <c r="W994" s="3"/>
@@ -29677,7 +29686,7 @@
       <c r="Q995" s="3"/>
       <c r="R995" s="3"/>
       <c r="S995" s="3"/>
-      <c r="T995" s="3"/>
+      <c r="T995" s="24"/>
       <c r="U995" s="3"/>
       <c r="V995" s="3"/>
       <c r="W995" s="3"/>
@@ -29706,7 +29715,7 @@
       <c r="Q996" s="3"/>
       <c r="R996" s="3"/>
       <c r="S996" s="3"/>
-      <c r="T996" s="3"/>
+      <c r="T996" s="24"/>
       <c r="U996" s="3"/>
       <c r="V996" s="3"/>
       <c r="W996" s="3"/>
@@ -29735,7 +29744,7 @@
       <c r="Q997" s="3"/>
       <c r="R997" s="3"/>
       <c r="S997" s="3"/>
-      <c r="T997" s="3"/>
+      <c r="T997" s="24"/>
       <c r="U997" s="3"/>
       <c r="V997" s="3"/>
       <c r="W997" s="3"/>
@@ -29764,7 +29773,7 @@
       <c r="Q998" s="3"/>
       <c r="R998" s="3"/>
       <c r="S998" s="3"/>
-      <c r="T998" s="3"/>
+      <c r="T998" s="24"/>
       <c r="U998" s="3"/>
       <c r="V998" s="3"/>
       <c r="W998" s="3"/>
@@ -29793,7 +29802,7 @@
       <c r="Q999" s="3"/>
       <c r="R999" s="3"/>
       <c r="S999" s="3"/>
-      <c r="T999" s="3"/>
+      <c r="T999" s="24"/>
       <c r="U999" s="3"/>
       <c r="V999" s="3"/>
       <c r="W999" s="3"/>
